--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="2" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <sheet name=" COMPRAS   MAYO   2023        " sheetId="11" r:id="rId10"/>
     <sheet name="   J U N I O      2 0 2 3      " sheetId="12" r:id="rId11"/>
     <sheet name="   COMPRAS     JUNIO     2023  " sheetId="14" r:id="rId12"/>
-    <sheet name="Hoja1" sheetId="13" r:id="rId13"/>
+    <sheet name="  J U L I O     2 0 2 3       " sheetId="13" r:id="rId13"/>
+    <sheet name="    COMPRAS    JULIO   2023    " sheetId="15" r:id="rId14"/>
+    <sheet name="Hoja3" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -455,8 +457,90 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="772">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2751,6 +2835,27 @@
   </si>
   <si>
     <t>PEERDIDA</t>
+  </si>
+  <si>
+    <t>BALANCE      ABASTO 4 CARNES    Z A V A L E T A     JULIO           2 0 2 3</t>
+  </si>
+  <si>
+    <t>PASTOR-QUESOS-POLLO-ARABE-FLETE</t>
+  </si>
+  <si>
+    <t>NOMINA #  26</t>
+  </si>
+  <si>
+    <t>NOMINA # 26</t>
+  </si>
+  <si>
+    <t>PASTOR-CHORIZO-QIUESOS-JAMON-CHISTORRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALTO UN BAUCHER DE TDC 297.00  </t>
+  </si>
+  <si>
+    <t>ACEITE, CECINA-LONGANIZA-MAIZ-JAMON-POLLO-QUESOS-SALCHICAS</t>
   </si>
 </sst>
 </file>
@@ -2765,7 +2870,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3152,6 +3257,14 @@
     <font>
       <sz val="8"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4426,7 +4539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="589">
+  <cellXfs count="594">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5422,39 +5535,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5530,6 +5610,39 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5596,6 +5709,17 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -5605,16 +5729,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF990099"/>
+      <color rgb="FF800080"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FF800080"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF66FF66"/>
-      <color rgb="FF990099"/>
     </mruColors>
   </colors>
   <extLst>
@@ -8260,6 +8384,432 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2012060D-6A0F-41D2-A832-74F72EF945FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5581650" y="15640049"/>
+          <a:ext cx="85725" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84F863B-1E69-40C9-AAA6-E150E727BC58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="14839950"/>
+          <a:ext cx="419100" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F282856-1683-4627-996E-9F4AD530C284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5581650" y="15640049"/>
+          <a:ext cx="85725" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19A0EA-B603-496A-8B2F-50F1F36E5D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="14820900"/>
+          <a:ext cx="1657350" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97978218-9641-42D3-AAF9-C49E03D3CF46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="8101013" y="14177960"/>
+          <a:ext cx="295276" cy="2228852"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>26151</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AED0B7-5349-49AD-8D5B-E24B093B3905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="904875" y="15904326"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3DEEAA-4813-4B55-9D28-E8AF250AE061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5591175" y="16030575"/>
+          <a:ext cx="819150" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -8555,23 +9105,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="535"/>
-      <c r="C1" s="537" t="s">
+      <c r="B1" s="560"/>
+      <c r="C1" s="562" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="538"/>
-      <c r="E1" s="538"/>
-      <c r="F1" s="538"/>
-      <c r="G1" s="538"/>
-      <c r="H1" s="538"/>
-      <c r="I1" s="538"/>
-      <c r="J1" s="538"/>
-      <c r="K1" s="538"/>
-      <c r="L1" s="538"/>
-      <c r="M1" s="538"/>
+      <c r="D1" s="563"/>
+      <c r="E1" s="563"/>
+      <c r="F1" s="563"/>
+      <c r="G1" s="563"/>
+      <c r="H1" s="563"/>
+      <c r="I1" s="563"/>
+      <c r="J1" s="563"/>
+      <c r="K1" s="563"/>
+      <c r="L1" s="563"/>
+      <c r="M1" s="563"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="536"/>
+      <c r="B2" s="561"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -8581,24 +9131,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="540"/>
+      <c r="B3" s="564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="565"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="541" t="s">
+      <c r="H3" s="566" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="541"/>
+      <c r="I3" s="566"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="533" t="s">
+      <c r="P3" s="558" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="542" t="s">
+      <c r="R3" s="531" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8613,14 +9163,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="544" t="s">
+      <c r="E4" s="533" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="545"/>
-      <c r="H4" s="546" t="s">
+      <c r="F4" s="534"/>
+      <c r="H4" s="535" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="547"/>
+      <c r="I4" s="536"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -8630,11 +9180,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="534"/>
+      <c r="P4" s="559"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="543"/>
+      <c r="R4" s="532"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -10469,11 +11019,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="553">
+      <c r="M49" s="542">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="553">
+      <c r="N49" s="542">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -10481,7 +11031,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="565">
+      <c r="Q49" s="554">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -10502,10 +11052,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="554"/>
-      <c r="N50" s="554"/>
+      <c r="M50" s="543"/>
+      <c r="N50" s="543"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="566"/>
+      <c r="Q50" s="555"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -10560,11 +11110,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="531">
+      <c r="M53" s="556">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="532"/>
+      <c r="N53" s="557"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -10989,26 +11539,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="561" t="s">
+      <c r="H77" s="550" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="562"/>
+      <c r="I77" s="551"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="563">
+      <c r="K77" s="552">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="564"/>
+      <c r="L77" s="553"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="555" t="s">
+      <c r="D78" s="544" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="555"/>
+      <c r="E78" s="544"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -11017,22 +11567,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="556" t="s">
+      <c r="D79" s="545" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="556"/>
+      <c r="E79" s="545"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="557" t="s">
+      <c r="I79" s="546" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="558"/>
-      <c r="K79" s="559">
+      <c r="J79" s="547"/>
+      <c r="K79" s="548">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="559"/>
+      <c r="L79" s="548"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11073,11 +11623,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="560">
+      <c r="K81" s="549">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="559"/>
+      <c r="L81" s="548"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11094,22 +11644,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="548" t="s">
+      <c r="D83" s="537" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="549"/>
+      <c r="E83" s="538"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="550" t="s">
+      <c r="I83" s="539" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="551"/>
-      <c r="K83" s="552">
+      <c r="J83" s="540"/>
+      <c r="K83" s="541">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="552"/>
+      <c r="L83" s="541"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11256,6 +11806,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -11272,12 +11828,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13649,8 +14199,8 @@
   </sheetPr>
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView topLeftCell="I5" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13676,23 +14226,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="535"/>
-      <c r="C1" s="537" t="s">
+      <c r="B1" s="560"/>
+      <c r="C1" s="562" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="538"/>
-      <c r="E1" s="538"/>
-      <c r="F1" s="538"/>
-      <c r="G1" s="538"/>
-      <c r="H1" s="538"/>
-      <c r="I1" s="538"/>
-      <c r="J1" s="538"/>
-      <c r="K1" s="538"/>
-      <c r="L1" s="538"/>
-      <c r="M1" s="538"/>
+      <c r="D1" s="563"/>
+      <c r="E1" s="563"/>
+      <c r="F1" s="563"/>
+      <c r="G1" s="563"/>
+      <c r="H1" s="563"/>
+      <c r="I1" s="563"/>
+      <c r="J1" s="563"/>
+      <c r="K1" s="563"/>
+      <c r="L1" s="563"/>
+      <c r="M1" s="563"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="536"/>
+      <c r="B2" s="561"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -13702,21 +14252,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="540"/>
+      <c r="B3" s="564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="565"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="541" t="s">
+      <c r="H3" s="566" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="541"/>
+      <c r="I3" s="566"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="533" t="s">
+      <c r="P3" s="558" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -13737,14 +14287,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="544" t="s">
+      <c r="E4" s="533" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="545"/>
-      <c r="H4" s="546" t="s">
+      <c r="F4" s="534"/>
+      <c r="H4" s="535" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="547"/>
+      <c r="I4" s="536"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -13754,7 +14304,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="534"/>
+      <c r="P4" s="559"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -15814,11 +16364,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="553">
+      <c r="M49" s="542">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="553">
+      <c r="N49" s="542">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -15826,7 +16376,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="565">
+      <c r="Q49" s="554">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -15859,10 +16409,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="554"/>
-      <c r="N50" s="554"/>
+      <c r="M50" s="543"/>
+      <c r="N50" s="543"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="566"/>
+      <c r="Q50" s="555"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -15947,11 +16497,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="531">
+      <c r="M53" s="556">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="532"/>
+      <c r="N53" s="557"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -16280,26 +16830,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="561" t="s">
+      <c r="H69" s="550" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="562"/>
+      <c r="I69" s="551"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="563">
+      <c r="K69" s="552">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="564"/>
+      <c r="L69" s="553"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="555" t="s">
+      <c r="D70" s="544" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="555"/>
+      <c r="E70" s="544"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -16308,23 +16858,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="556" t="s">
+      <c r="D71" s="545" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="556"/>
+      <c r="E71" s="545"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="557" t="s">
+      <c r="I71" s="546" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="558"/>
-      <c r="K71" s="559">
+      <c r="J71" s="547"/>
+      <c r="K71" s="548">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="559"/>
+      <c r="L71" s="548"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -16366,11 +16916,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="560">
+      <c r="K73" s="549">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="559"/>
+      <c r="L73" s="548"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -16387,22 +16937,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="548" t="s">
+      <c r="D75" s="537" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="549"/>
+      <c r="E75" s="538"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="550" t="s">
+      <c r="I75" s="539" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="551"/>
-      <c r="K75" s="552">
+      <c r="J75" s="540"/>
+      <c r="K75" s="541">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="552"/>
+      <c r="L75" s="541"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -16550,12 +17100,6 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16572,6 +17116,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16588,7 +17138,7 @@
   <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+      <selection activeCell="G68" sqref="G68:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18938,6 +19488,4857 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF990099"/>
+  </sheetPr>
+  <dimension ref="A1:V97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="151" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="6"/>
+    <col min="6" max="6" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="560"/>
+      <c r="C1" s="562" t="s">
+        <v>765</v>
+      </c>
+      <c r="D1" s="563"/>
+      <c r="E1" s="563"/>
+      <c r="F1" s="563"/>
+      <c r="G1" s="563"/>
+      <c r="H1" s="563"/>
+      <c r="I1" s="563"/>
+      <c r="J1" s="563"/>
+      <c r="K1" s="563"/>
+      <c r="L1" s="563"/>
+      <c r="M1" s="563"/>
+    </row>
+    <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="561"/>
+      <c r="C2" s="5"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="565"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="H3" s="566" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="566"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="P3" s="558" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="591"/>
+      <c r="R3" s="587" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>3131387.04</v>
+      </c>
+      <c r="D4" s="24">
+        <v>45107</v>
+      </c>
+      <c r="E4" s="533" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="534"/>
+      <c r="H4" s="535" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="536"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="559"/>
+      <c r="Q4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="588"/>
+    </row>
+    <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="504" t="s">
+        <v>649</v>
+      </c>
+      <c r="B5" s="32">
+        <v>45108</v>
+      </c>
+      <c r="C5" s="33">
+        <v>19074</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>766</v>
+      </c>
+      <c r="E5" s="35">
+        <v>45108</v>
+      </c>
+      <c r="F5" s="36">
+        <v>187028</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38">
+        <v>45108</v>
+      </c>
+      <c r="I5" s="39">
+        <v>1751</v>
+      </c>
+      <c r="J5" s="40">
+        <v>45108</v>
+      </c>
+      <c r="K5" s="590" t="s">
+        <v>767</v>
+      </c>
+      <c r="L5" s="13">
+        <v>21778</v>
+      </c>
+      <c r="M5" s="42">
+        <f>58369+1356</f>
+        <v>59725</v>
+      </c>
+      <c r="N5" s="43">
+        <v>84700</v>
+      </c>
+      <c r="P5" s="44">
+        <f t="shared" ref="P5:P34" si="0">N5+M5+L5+I5+C5</f>
+        <v>187028</v>
+      </c>
+      <c r="Q5" s="45">
+        <f>P5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="504" t="s">
+        <v>650</v>
+      </c>
+      <c r="B6" s="32">
+        <v>45109</v>
+      </c>
+      <c r="C6" s="33">
+        <v>32054</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>769</v>
+      </c>
+      <c r="E6" s="35">
+        <v>45109</v>
+      </c>
+      <c r="F6" s="36">
+        <v>118386</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38">
+        <v>45109</v>
+      </c>
+      <c r="I6" s="39">
+        <v>967.5</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="42">
+        <v>39831.5</v>
+      </c>
+      <c r="N6" s="43">
+        <v>45533</v>
+      </c>
+      <c r="P6" s="49">
+        <f t="shared" si="0"/>
+        <v>118386</v>
+      </c>
+      <c r="Q6" s="45">
+        <f t="shared" ref="Q5:Q47" si="1">P6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="46">
+        <v>0</v>
+      </c>
+      <c r="S6" s="593" t="s">
+        <v>770</v>
+      </c>
+      <c r="T6" s="233"/>
+      <c r="U6" s="233"/>
+      <c r="V6" s="233"/>
+    </row>
+    <row r="7" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="504" t="s">
+        <v>651</v>
+      </c>
+      <c r="B7" s="32">
+        <v>45110</v>
+      </c>
+      <c r="C7" s="33">
+        <v>24975</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>771</v>
+      </c>
+      <c r="E7" s="35">
+        <v>45110</v>
+      </c>
+      <c r="F7" s="36">
+        <v>145257</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38">
+        <v>45110</v>
+      </c>
+      <c r="I7" s="39">
+        <v>2192</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="42">
+        <f>40214+36039</f>
+        <v>76253</v>
+      </c>
+      <c r="N7" s="43">
+        <v>44931</v>
+      </c>
+      <c r="P7" s="49">
+        <f t="shared" si="0"/>
+        <v>148351</v>
+      </c>
+      <c r="Q7" s="45">
+        <v>0</v>
+      </c>
+      <c r="R7" s="282">
+        <v>3094</v>
+      </c>
+      <c r="S7" s="233"/>
+      <c r="T7" s="233"/>
+      <c r="U7" s="233"/>
+      <c r="V7" s="233"/>
+    </row>
+    <row r="8" spans="1:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="504" t="s">
+        <v>652</v>
+      </c>
+      <c r="B8" s="32">
+        <v>45111</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="35">
+        <v>45111</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38">
+        <v>45111</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="342"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="42">
+        <v>0</v>
+      </c>
+      <c r="N8" s="43">
+        <v>0</v>
+      </c>
+      <c r="P8" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="46">
+        <v>0</v>
+      </c>
+      <c r="S8" s="233"/>
+      <c r="T8" s="233"/>
+      <c r="U8" s="233"/>
+      <c r="V8" s="233"/>
+    </row>
+    <row r="9" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="504" t="s">
+        <v>653</v>
+      </c>
+      <c r="B9" s="32">
+        <v>45112</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="35">
+        <v>45112</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38">
+        <v>45112</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="348"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="42">
+        <v>0</v>
+      </c>
+      <c r="N9" s="43">
+        <v>0</v>
+      </c>
+      <c r="P9" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="46">
+        <v>0</v>
+      </c>
+      <c r="S9" s="459"/>
+      <c r="T9" s="233"/>
+      <c r="U9" s="233"/>
+      <c r="V9" s="233"/>
+    </row>
+    <row r="10" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="504" t="s">
+        <v>654</v>
+      </c>
+      <c r="B10" s="32">
+        <v>45113</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="35">
+        <v>45113</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38">
+        <v>45113</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="42">
+        <v>0</v>
+      </c>
+      <c r="N10" s="43">
+        <v>0</v>
+      </c>
+      <c r="P10" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="46">
+        <v>0</v>
+      </c>
+      <c r="S10" s="233"/>
+      <c r="T10" s="233"/>
+      <c r="U10" s="233"/>
+      <c r="V10" s="233"/>
+    </row>
+    <row r="11" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="504" t="s">
+        <v>655</v>
+      </c>
+      <c r="B11" s="32">
+        <v>45114</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="35">
+        <v>45114</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38">
+        <v>45114</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="42">
+        <v>0</v>
+      </c>
+      <c r="N11" s="43">
+        <v>0</v>
+      </c>
+      <c r="P11" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="233"/>
+      <c r="T11" s="233"/>
+      <c r="U11" s="233"/>
+      <c r="V11" s="233"/>
+    </row>
+    <row r="12" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="504" t="s">
+        <v>656</v>
+      </c>
+      <c r="B12" s="32">
+        <v>45115</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="35">
+        <v>45115</v>
+      </c>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38">
+        <v>45115</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="342"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="42">
+        <v>0</v>
+      </c>
+      <c r="N12" s="43">
+        <v>0</v>
+      </c>
+      <c r="O12" s="192"/>
+      <c r="P12" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="46">
+        <v>0</v>
+      </c>
+      <c r="S12" s="233"/>
+      <c r="T12" s="233"/>
+      <c r="U12" s="233"/>
+      <c r="V12" s="233"/>
+    </row>
+    <row r="13" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="504" t="s">
+        <v>650</v>
+      </c>
+      <c r="B13" s="32">
+        <v>45116</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="35">
+        <v>45116</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38">
+        <v>45116</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="343"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="42">
+        <v>0</v>
+      </c>
+      <c r="N13" s="43">
+        <v>0</v>
+      </c>
+      <c r="O13" s="192"/>
+      <c r="P13" s="49">
+        <f>N13+M13+L13+I13+C13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="46">
+        <v>0</v>
+      </c>
+      <c r="S13" s="589"/>
+      <c r="T13" s="589"/>
+      <c r="U13" s="589"/>
+      <c r="V13" s="233"/>
+    </row>
+    <row r="14" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="504" t="s">
+        <v>651</v>
+      </c>
+      <c r="B14" s="32">
+        <v>45117</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="35">
+        <v>45117</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38">
+        <v>45117</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="42">
+        <v>0</v>
+      </c>
+      <c r="N14" s="43">
+        <v>0</v>
+      </c>
+      <c r="O14" s="193"/>
+      <c r="P14" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="46">
+        <v>0</v>
+      </c>
+      <c r="S14" s="233"/>
+      <c r="T14" s="233"/>
+      <c r="U14" s="233"/>
+      <c r="V14" s="233"/>
+    </row>
+    <row r="15" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="504" t="s">
+        <v>652</v>
+      </c>
+      <c r="B15" s="32">
+        <v>45118</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="35">
+        <v>45118</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38">
+        <v>45118</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="42">
+        <v>0</v>
+      </c>
+      <c r="N15" s="43">
+        <v>0</v>
+      </c>
+      <c r="P15" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="46">
+        <v>0</v>
+      </c>
+      <c r="S15" s="233"/>
+      <c r="T15" s="233"/>
+      <c r="U15" s="233"/>
+      <c r="V15" s="233"/>
+    </row>
+    <row r="16" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="504" t="s">
+        <v>653</v>
+      </c>
+      <c r="B16" s="32">
+        <v>45119</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="35">
+        <v>45119</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38">
+        <v>45119</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="342"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="42">
+        <v>0</v>
+      </c>
+      <c r="N16" s="43">
+        <v>0</v>
+      </c>
+      <c r="P16" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="46">
+        <v>0</v>
+      </c>
+      <c r="S16" s="233" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="233"/>
+      <c r="U16" s="233"/>
+      <c r="V16" s="233"/>
+    </row>
+    <row r="17" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="504" t="s">
+        <v>654</v>
+      </c>
+      <c r="B17" s="32">
+        <v>45120</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="35">
+        <v>45120</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38">
+        <v>45120</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="42">
+        <v>0</v>
+      </c>
+      <c r="N17" s="43">
+        <v>0</v>
+      </c>
+      <c r="O17" s="499"/>
+      <c r="P17" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="46">
+        <v>0</v>
+      </c>
+      <c r="S17" s="233"/>
+      <c r="T17" s="233"/>
+      <c r="U17" s="233"/>
+      <c r="V17" s="233"/>
+    </row>
+    <row r="18" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="504" t="s">
+        <v>655</v>
+      </c>
+      <c r="B18" s="32">
+        <v>45121</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="35">
+        <v>45121</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38">
+        <v>45121</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="42">
+        <v>0</v>
+      </c>
+      <c r="N18" s="43">
+        <v>0</v>
+      </c>
+      <c r="P18" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="46">
+        <v>0</v>
+      </c>
+      <c r="S18" s="233"/>
+      <c r="T18" s="233"/>
+      <c r="U18" s="233"/>
+      <c r="V18" s="233"/>
+    </row>
+    <row r="19" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="504" t="s">
+        <v>656</v>
+      </c>
+      <c r="B19" s="32">
+        <v>45122</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="35">
+        <v>45122</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38">
+        <v>45122</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="344"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="42">
+        <v>0</v>
+      </c>
+      <c r="N19" s="43">
+        <v>0</v>
+      </c>
+      <c r="O19" s="499"/>
+      <c r="P19" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" s="233"/>
+      <c r="T19" s="233"/>
+      <c r="U19" s="233"/>
+      <c r="V19" s="233"/>
+    </row>
+    <row r="20" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="504" t="s">
+        <v>650</v>
+      </c>
+      <c r="B20" s="32">
+        <v>45123</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="35">
+        <v>45123</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38">
+        <v>45123</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="42">
+        <v>0</v>
+      </c>
+      <c r="N20" s="43">
+        <v>0</v>
+      </c>
+      <c r="P20" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="46">
+        <v>0</v>
+      </c>
+      <c r="S20" s="233"/>
+      <c r="T20" s="233"/>
+      <c r="U20" s="233"/>
+      <c r="V20" s="233"/>
+    </row>
+    <row r="21" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="504" t="s">
+        <v>651</v>
+      </c>
+      <c r="B21" s="32">
+        <v>45124</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="35">
+        <v>45124</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38">
+        <v>45124</v>
+      </c>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="402"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="42">
+        <v>0</v>
+      </c>
+      <c r="N21" s="43">
+        <v>0</v>
+      </c>
+      <c r="P21" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="46">
+        <v>0</v>
+      </c>
+      <c r="S21" s="233"/>
+    </row>
+    <row r="22" spans="1:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="504" t="s">
+        <v>652</v>
+      </c>
+      <c r="B22" s="32">
+        <v>45125</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="35">
+        <v>45125</v>
+      </c>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38">
+        <v>45125</v>
+      </c>
+      <c r="I22" s="359"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="506"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="42">
+        <v>0</v>
+      </c>
+      <c r="N22" s="43">
+        <v>0</v>
+      </c>
+      <c r="P22" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="46">
+        <v>0</v>
+      </c>
+      <c r="S22" s="500"/>
+    </row>
+    <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="504" t="s">
+        <v>653</v>
+      </c>
+      <c r="B23" s="32">
+        <v>45126</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="35">
+        <v>45126</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38">
+        <v>45126</v>
+      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="42">
+        <v>0</v>
+      </c>
+      <c r="N23" s="43">
+        <v>0</v>
+      </c>
+      <c r="P23" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="46">
+        <v>0</v>
+      </c>
+      <c r="S23" s="233"/>
+    </row>
+    <row r="24" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="504" t="s">
+        <v>654</v>
+      </c>
+      <c r="B24" s="32">
+        <v>45127</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="35">
+        <v>45127</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38">
+        <v>45127</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="42">
+        <v>0</v>
+      </c>
+      <c r="N24" s="43">
+        <v>0</v>
+      </c>
+      <c r="P24" s="49">
+        <f>N24+M24+L24+I24+C24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="S24" s="233"/>
+    </row>
+    <row r="25" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="504" t="s">
+        <v>655</v>
+      </c>
+      <c r="B25" s="32">
+        <v>45128</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="35">
+        <v>45128</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38">
+        <v>45128</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="42">
+        <v>0</v>
+      </c>
+      <c r="N25" s="43">
+        <v>0</v>
+      </c>
+      <c r="P25" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="46">
+        <v>0</v>
+      </c>
+      <c r="S25" s="233"/>
+    </row>
+    <row r="26" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="504" t="s">
+        <v>656</v>
+      </c>
+      <c r="B26" s="32">
+        <v>45129</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="35">
+        <v>45129</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38">
+        <v>45129</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="42">
+        <v>0</v>
+      </c>
+      <c r="N26" s="43">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="46">
+        <v>0</v>
+      </c>
+      <c r="S26" s="233" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="504" t="s">
+        <v>650</v>
+      </c>
+      <c r="B27" s="32">
+        <v>45130</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="35">
+        <v>45130</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38">
+        <v>45130</v>
+      </c>
+      <c r="I27" s="39"/>
+      <c r="J27" s="337"/>
+      <c r="K27" s="345"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="42">
+        <v>0</v>
+      </c>
+      <c r="N27" s="43">
+        <v>0</v>
+      </c>
+      <c r="P27" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="46">
+        <v>0</v>
+      </c>
+      <c r="S27" s="233"/>
+    </row>
+    <row r="28" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="504" t="s">
+        <v>651</v>
+      </c>
+      <c r="B28" s="32">
+        <v>45131</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="35">
+        <v>45131</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38">
+        <v>45131</v>
+      </c>
+      <c r="I28" s="39"/>
+      <c r="J28" s="338"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="42">
+        <v>0</v>
+      </c>
+      <c r="N28" s="43">
+        <v>0</v>
+      </c>
+      <c r="P28" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="46">
+        <v>0</v>
+      </c>
+      <c r="S28" s="233"/>
+    </row>
+    <row r="29" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="504" t="s">
+        <v>652</v>
+      </c>
+      <c r="B29" s="32">
+        <v>45132</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="35">
+        <v>45132</v>
+      </c>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38">
+        <v>45132</v>
+      </c>
+      <c r="I29" s="39"/>
+      <c r="J29" s="339"/>
+      <c r="K29" s="346"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="42">
+        <v>0</v>
+      </c>
+      <c r="N29" s="43">
+        <v>0</v>
+      </c>
+      <c r="P29" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="46">
+        <v>0</v>
+      </c>
+      <c r="S29" s="233"/>
+    </row>
+    <row r="30" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="504" t="s">
+        <v>653</v>
+      </c>
+      <c r="B30" s="32">
+        <v>45133</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="35">
+        <v>45133</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
+        <v>45133</v>
+      </c>
+      <c r="I30" s="39"/>
+      <c r="J30" s="338"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="42">
+        <v>0</v>
+      </c>
+      <c r="N30" s="43">
+        <v>0</v>
+      </c>
+      <c r="P30" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="46">
+        <v>0</v>
+      </c>
+      <c r="S30" s="501"/>
+    </row>
+    <row r="31" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="504" t="s">
+        <v>654</v>
+      </c>
+      <c r="B31" s="32">
+        <v>45134</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="35">
+        <v>45134</v>
+      </c>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38">
+        <v>45134</v>
+      </c>
+      <c r="I31" s="39"/>
+      <c r="J31" s="338"/>
+      <c r="K31" s="347"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="42">
+        <v>0</v>
+      </c>
+      <c r="N31" s="43">
+        <v>0</v>
+      </c>
+      <c r="P31" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="46">
+        <v>0</v>
+      </c>
+      <c r="S31" s="233"/>
+    </row>
+    <row r="32" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="504" t="s">
+        <v>655</v>
+      </c>
+      <c r="B32" s="32">
+        <v>45135</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="305"/>
+      <c r="E32" s="35">
+        <v>45135</v>
+      </c>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38">
+        <v>45135</v>
+      </c>
+      <c r="I32" s="39"/>
+      <c r="J32" s="367"/>
+      <c r="K32" s="368"/>
+      <c r="L32" s="369"/>
+      <c r="M32" s="42">
+        <v>0</v>
+      </c>
+      <c r="N32" s="43">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="504"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="370"/>
+      <c r="K33" s="371"/>
+      <c r="L33" s="372"/>
+      <c r="M33" s="42">
+        <v>0</v>
+      </c>
+      <c r="N33" s="43">
+        <v>0</v>
+      </c>
+      <c r="P33" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="504"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="592">
+        <v>45108</v>
+      </c>
+      <c r="K34" s="373" t="s">
+        <v>768</v>
+      </c>
+      <c r="L34" s="369">
+        <v>28972</v>
+      </c>
+      <c r="M34" s="42">
+        <v>0</v>
+      </c>
+      <c r="N34" s="43">
+        <v>0</v>
+      </c>
+      <c r="P34" s="69">
+        <f t="shared" si="0"/>
+        <v>28972</v>
+      </c>
+      <c r="Q34" s="45">
+        <f t="shared" si="1"/>
+        <v>28972</v>
+      </c>
+      <c r="R34" s="46">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="504"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="374"/>
+      <c r="K35" s="373"/>
+      <c r="L35" s="375"/>
+      <c r="M35" s="42">
+        <v>0</v>
+      </c>
+      <c r="N35" s="43">
+        <v>0</v>
+      </c>
+      <c r="P35" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="338"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="42">
+        <v>0</v>
+      </c>
+      <c r="N36" s="43">
+        <v>0</v>
+      </c>
+      <c r="P36" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="338"/>
+      <c r="K37" s="350"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="42">
+        <v>0</v>
+      </c>
+      <c r="N37" s="43">
+        <v>0</v>
+      </c>
+      <c r="P37" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="512"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="338"/>
+      <c r="K38" s="383"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="42">
+        <v>0</v>
+      </c>
+      <c r="N38" s="43">
+        <v>0</v>
+      </c>
+      <c r="P38" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="338"/>
+      <c r="K39" s="343"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="42">
+        <v>0</v>
+      </c>
+      <c r="N39" s="43">
+        <v>0</v>
+      </c>
+      <c r="P39" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="338"/>
+      <c r="K40" s="343"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="42">
+        <v>0</v>
+      </c>
+      <c r="N40" s="43">
+        <v>0</v>
+      </c>
+      <c r="P40" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="45">
+        <v>0</v>
+      </c>
+      <c r="R40" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="338"/>
+      <c r="K41" s="347"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="42">
+        <v>0</v>
+      </c>
+      <c r="N41" s="43">
+        <v>0</v>
+      </c>
+      <c r="P41" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="340"/>
+      <c r="K42" s="347"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="42">
+        <v>0</v>
+      </c>
+      <c r="N42" s="43">
+        <v>0</v>
+      </c>
+      <c r="P42" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="338"/>
+      <c r="K43" s="343"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="42">
+        <v>0</v>
+      </c>
+      <c r="N43" s="43">
+        <v>0</v>
+      </c>
+      <c r="P43" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="338"/>
+      <c r="K44" s="471"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="42">
+        <v>0</v>
+      </c>
+      <c r="N44" s="43">
+        <v>0</v>
+      </c>
+      <c r="P44" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="31"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="403"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="338"/>
+      <c r="K45" s="343"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="42">
+        <v>0</v>
+      </c>
+      <c r="N45" s="43">
+        <v>0</v>
+      </c>
+      <c r="P45" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="403"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="338"/>
+      <c r="K46" s="349"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="42">
+        <v>0</v>
+      </c>
+      <c r="N46" s="43">
+        <v>0</v>
+      </c>
+      <c r="P46" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="338"/>
+      <c r="K47" s="349"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="42">
+        <v>0</v>
+      </c>
+      <c r="N47" s="100">
+        <v>0</v>
+      </c>
+      <c r="P47" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="31"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="338"/>
+      <c r="K48" s="349"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="107"/>
+      <c r="N48" s="44"/>
+      <c r="P48" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="108">
+        <v>0</v>
+      </c>
+      <c r="R48" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="31"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="403"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="338"/>
+      <c r="K49" s="343"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="542">
+        <f>SUM(M5:M40)</f>
+        <v>175809.5</v>
+      </c>
+      <c r="N49" s="542">
+        <f>SUM(N5:N40)</f>
+        <v>175164</v>
+      </c>
+      <c r="P49" s="111">
+        <f>SUM(P5:P40)</f>
+        <v>482737</v>
+      </c>
+      <c r="Q49" s="554">
+        <f>SUM(Q5:Q40)</f>
+        <v>28972</v>
+      </c>
+      <c r="R49" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="403"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="343"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="543"/>
+      <c r="N50" s="543"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="555"/>
+      <c r="R50" s="112">
+        <f>SUM(R5:R49)</f>
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="31"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="338"/>
+      <c r="K51" s="343"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="113"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="19"/>
+    </row>
+    <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="31"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="363"/>
+      <c r="K52" s="349"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="113"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="19"/>
+    </row>
+    <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="338"/>
+      <c r="K53" s="343"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="556">
+        <f>M49+N49</f>
+        <v>350973.5</v>
+      </c>
+      <c r="N53" s="557"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="19"/>
+    </row>
+    <row r="54" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="31"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="338"/>
+      <c r="K54" s="343"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="113"/>
+      <c r="N54" s="113"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="19"/>
+    </row>
+    <row r="55" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="338"/>
+      <c r="K55" s="343"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="113"/>
+      <c r="N55" s="113"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="19"/>
+    </row>
+    <row r="56" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="31"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="341"/>
+      <c r="K56" s="349"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="113"/>
+      <c r="N56" s="113"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="19"/>
+    </row>
+    <row r="57" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="31"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="341"/>
+      <c r="K57" s="343"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="113"/>
+      <c r="N57" s="113"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="19"/>
+    </row>
+    <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="31"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="341"/>
+      <c r="K58" s="343"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="113"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="19"/>
+    </row>
+    <row r="59" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="31"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="341"/>
+      <c r="K59" s="349"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="113"/>
+      <c r="N59" s="113"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="19"/>
+    </row>
+    <row r="60" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="31"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="103"/>
+      <c r="J60" s="341"/>
+      <c r="K60" s="350"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="113"/>
+      <c r="N60" s="113"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="19"/>
+    </row>
+    <row r="61" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="31"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="103"/>
+      <c r="J61" s="341"/>
+      <c r="K61" s="349"/>
+      <c r="L61" s="84"/>
+      <c r="M61" s="113"/>
+      <c r="N61" s="113"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="19"/>
+    </row>
+    <row r="62" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="31"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="131"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="136"/>
+      <c r="F62" s="44"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="133"/>
+      <c r="K62" s="125"/>
+      <c r="L62" s="84"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="19"/>
+    </row>
+    <row r="63" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="31"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="131"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="136"/>
+      <c r="F63" s="44"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="133"/>
+      <c r="K63" s="125"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="19"/>
+    </row>
+    <row r="64" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="31"/>
+      <c r="B64" s="134"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="135"/>
+      <c r="E64" s="136"/>
+      <c r="F64" s="44"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="133"/>
+      <c r="K64" s="125"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="19"/>
+    </row>
+    <row r="65" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="31"/>
+      <c r="B65" s="134"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="136"/>
+      <c r="F65" s="44"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="133"/>
+      <c r="K65" s="125"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="19"/>
+    </row>
+    <row r="66" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="31"/>
+      <c r="B66" s="529"/>
+      <c r="C66" s="530"/>
+      <c r="D66" s="135"/>
+      <c r="E66" s="136"/>
+      <c r="F66" s="44"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="138"/>
+      <c r="K66" s="139"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="19"/>
+    </row>
+    <row r="67" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="528" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="519">
+        <f>SUM(C5:C61)</f>
+        <v>76103</v>
+      </c>
+      <c r="D67" s="520"/>
+      <c r="E67" s="521" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="522">
+        <f>SUM(F5:F61)</f>
+        <v>450671</v>
+      </c>
+      <c r="G67" s="523"/>
+      <c r="H67" s="521" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="524">
+        <f>SUM(I5:I61)</f>
+        <v>4910.5</v>
+      </c>
+      <c r="J67" s="525"/>
+      <c r="K67" s="526" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" s="527">
+        <f>SUM(L5:L65)-L26</f>
+        <v>50750</v>
+      </c>
+      <c r="M67" s="150"/>
+      <c r="N67" s="150"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="19"/>
+    </row>
+    <row r="68" spans="1:17" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="19"/>
+    </row>
+    <row r="69" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="152"/>
+      <c r="B69" s="153"/>
+      <c r="C69" s="1"/>
+      <c r="H69" s="550" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="551"/>
+      <c r="J69" s="154"/>
+      <c r="K69" s="552">
+        <f>I67+L67</f>
+        <v>55660.5</v>
+      </c>
+      <c r="L69" s="553"/>
+      <c r="M69" s="155"/>
+      <c r="N69" s="155"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="19"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D70" s="544" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="544"/>
+      <c r="F70" s="156">
+        <f>F67-K69-C67</f>
+        <v>318907.5</v>
+      </c>
+      <c r="I70" s="157"/>
+      <c r="J70" s="158"/>
+    </row>
+    <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D71" s="545" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="545"/>
+      <c r="F71" s="101">
+        <v>0</v>
+      </c>
+      <c r="I71" s="546" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="547"/>
+      <c r="K71" s="548">
+        <f>F73+F74+F75</f>
+        <v>3139458.81</v>
+      </c>
+      <c r="L71" s="548"/>
+      <c r="M71" s="159"/>
+      <c r="N71" s="159"/>
+      <c r="O71" s="160"/>
+      <c r="P71" s="159"/>
+      <c r="Q71" s="159"/>
+    </row>
+    <row r="72" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D72" s="161" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="162"/>
+      <c r="F72" s="163">
+        <v>0</v>
+      </c>
+      <c r="I72" s="164"/>
+      <c r="J72" s="165"/>
+      <c r="K72" s="166"/>
+      <c r="L72" s="167"/>
+      <c r="M72" s="159"/>
+      <c r="N72" s="159"/>
+      <c r="O72" s="160"/>
+      <c r="P72" s="159"/>
+      <c r="Q72" s="159"/>
+    </row>
+    <row r="73" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="150">
+        <f>SUM(F70:F72)</f>
+        <v>318907.5</v>
+      </c>
+      <c r="H73" s="168"/>
+      <c r="I73" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" s="170"/>
+      <c r="K73" s="549">
+        <f>-C4</f>
+        <v>-3131387.04</v>
+      </c>
+      <c r="L73" s="548"/>
+    </row>
+    <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="171" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="152" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C75" s="172">
+        <v>45135</v>
+      </c>
+      <c r="D75" s="537" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="538"/>
+      <c r="F75" s="173">
+        <v>2820551.31</v>
+      </c>
+      <c r="I75" s="539" t="s">
+        <v>764</v>
+      </c>
+      <c r="J75" s="540"/>
+      <c r="K75" s="541">
+        <f>K71+K73</f>
+        <v>8071.7700000000186</v>
+      </c>
+      <c r="L75" s="541"/>
+    </row>
+    <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C76" s="174"/>
+      <c r="D76" s="175"/>
+      <c r="E76" s="152"/>
+      <c r="F76" s="176"/>
+      <c r="J76" s="177"/>
+    </row>
+    <row r="77" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="178"/>
+      <c r="J77" s="178"/>
+      <c r="K77" s="179"/>
+      <c r="L77" s="180"/>
+    </row>
+    <row r="78" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="181"/>
+      <c r="C78" s="182"/>
+      <c r="D78" s="183"/>
+      <c r="E78" s="44"/>
+      <c r="I78" s="178"/>
+      <c r="J78" s="178"/>
+      <c r="K78" s="179"/>
+      <c r="L78" s="180"/>
+      <c r="M78" s="184"/>
+      <c r="N78" s="152"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B79" s="181"/>
+      <c r="C79" s="185"/>
+      <c r="E79" s="44"/>
+      <c r="M79" s="184"/>
+      <c r="N79" s="152"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B80" s="181"/>
+      <c r="C80" s="185"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="186"/>
+      <c r="L80" s="187"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="181"/>
+      <c r="C81" s="185"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="186"/>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="181"/>
+      <c r="C82" s="185"/>
+      <c r="D82" s="188"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D83" s="188"/>
+      <c r="E83" s="190"/>
+      <c r="F83" s="44"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D84" s="188"/>
+      <c r="E84" s="190"/>
+      <c r="F84" s="44"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D85" s="188"/>
+      <c r="E85" s="190"/>
+      <c r="F85" s="44"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D86" s="188"/>
+      <c r="E86" s="190"/>
+      <c r="F86" s="454"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D87" s="188"/>
+      <c r="E87" s="190"/>
+      <c r="F87" s="454"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D88" s="188"/>
+      <c r="E88" s="190"/>
+      <c r="F88" s="454"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D89" s="188"/>
+      <c r="E89" s="190"/>
+      <c r="F89" s="44"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D90" s="188"/>
+      <c r="E90" s="190"/>
+      <c r="F90" s="44"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D91" s="188"/>
+      <c r="E91" s="190"/>
+      <c r="F91" s="44"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D92" s="188"/>
+      <c r="E92" s="190"/>
+      <c r="F92" s="44"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D93" s="188"/>
+      <c r="E93" s="190"/>
+      <c r="F93" s="44"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D94" s="188"/>
+      <c r="E94" s="190"/>
+      <c r="F94" s="44"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D95" s="188"/>
+      <c r="E95" s="191"/>
+      <c r="F95" s="189"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D96" s="188"/>
+      <c r="E96" s="191"/>
+      <c r="F96" s="189"/>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D97" s="188"/>
+      <c r="E97" s="191"/>
+      <c r="F97" s="189"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF990099"/>
+  </sheetPr>
+  <dimension ref="A1:N123"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="258" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="280" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="274" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="152" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="271" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="274" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="194" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="195"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="198" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="199" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="200"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="203" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="204" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="205" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="206" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="207" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="208" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="209" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="210" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="211" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="212" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="213" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="212" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="214" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="215"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="217">
+        <v>0</v>
+      </c>
+      <c r="E3" s="218"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="219">
+        <f>D3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="352"/>
+      <c r="J3" s="310"/>
+      <c r="K3" s="220">
+        <v>0</v>
+      </c>
+      <c r="L3" s="218"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="221">
+        <f>K3-M3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="235" t="s">
+        <v>640</v>
+      </c>
+      <c r="C4" s="461" t="s">
+        <v>726</v>
+      </c>
+      <c r="D4" s="410">
+        <v>39952.639999999999</v>
+      </c>
+      <c r="E4" s="224"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="225">
+        <f t="shared" ref="G4:G65" si="0">D4-F4</f>
+        <v>39952.639999999999</v>
+      </c>
+      <c r="H4" s="226"/>
+      <c r="I4" s="513"/>
+      <c r="J4" s="514"/>
+      <c r="K4" s="515"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="237"/>
+      <c r="N4" s="227">
+        <f>N3+K4-M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="235" t="s">
+        <v>706</v>
+      </c>
+      <c r="C5" s="461" t="s">
+        <v>727</v>
+      </c>
+      <c r="D5" s="410">
+        <v>34402.36</v>
+      </c>
+      <c r="E5" s="224"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="225">
+        <f t="shared" si="0"/>
+        <v>34402.36</v>
+      </c>
+      <c r="I5" s="513"/>
+      <c r="J5" s="514"/>
+      <c r="K5" s="515"/>
+      <c r="L5" s="218"/>
+      <c r="M5" s="237"/>
+      <c r="N5" s="227">
+        <f t="shared" ref="N5:N65" si="1">N4+K5-M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="235" t="s">
+        <v>707</v>
+      </c>
+      <c r="C6" s="461" t="s">
+        <v>728</v>
+      </c>
+      <c r="D6" s="410">
+        <v>30209.599999999999</v>
+      </c>
+      <c r="E6" s="224"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="225">
+        <f t="shared" si="0"/>
+        <v>30209.599999999999</v>
+      </c>
+      <c r="I6" s="516" t="s">
+        <v>640</v>
+      </c>
+      <c r="J6" s="236">
+        <v>12528</v>
+      </c>
+      <c r="K6" s="237">
+        <v>720</v>
+      </c>
+      <c r="L6" s="218"/>
+      <c r="M6" s="237"/>
+      <c r="N6" s="227">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="235" t="s">
+        <v>708</v>
+      </c>
+      <c r="C7" s="461" t="s">
+        <v>729</v>
+      </c>
+      <c r="D7" s="410">
+        <v>79132.5</v>
+      </c>
+      <c r="E7" s="224"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="225">
+        <f t="shared" si="0"/>
+        <v>79132.5</v>
+      </c>
+      <c r="I7" s="516" t="s">
+        <v>706</v>
+      </c>
+      <c r="J7" s="236">
+        <v>12546</v>
+      </c>
+      <c r="K7" s="237">
+        <v>17557.2</v>
+      </c>
+      <c r="L7" s="218"/>
+      <c r="M7" s="237"/>
+      <c r="N7" s="227">
+        <f t="shared" si="1"/>
+        <v>18277.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="235" t="s">
+        <v>730</v>
+      </c>
+      <c r="C8" s="461" t="s">
+        <v>731</v>
+      </c>
+      <c r="D8" s="410">
+        <v>56131.44</v>
+      </c>
+      <c r="E8" s="224"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="225">
+        <f t="shared" si="0"/>
+        <v>56131.44</v>
+      </c>
+      <c r="I8" s="516" t="s">
+        <v>707</v>
+      </c>
+      <c r="J8" s="236">
+        <v>12552</v>
+      </c>
+      <c r="K8" s="237">
+        <v>360</v>
+      </c>
+      <c r="L8" s="218"/>
+      <c r="M8" s="237"/>
+      <c r="N8" s="227">
+        <f t="shared" si="1"/>
+        <v>18637.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="235" t="s">
+        <v>709</v>
+      </c>
+      <c r="C9" s="461" t="s">
+        <v>732</v>
+      </c>
+      <c r="D9" s="410">
+        <v>13237.76</v>
+      </c>
+      <c r="E9" s="224"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="225">
+        <f t="shared" si="0"/>
+        <v>13237.76</v>
+      </c>
+      <c r="I9" s="516" t="s">
+        <v>708</v>
+      </c>
+      <c r="J9" s="236">
+        <v>12559</v>
+      </c>
+      <c r="K9" s="237">
+        <v>481</v>
+      </c>
+      <c r="L9" s="218"/>
+      <c r="M9" s="237"/>
+      <c r="N9" s="227">
+        <f t="shared" si="1"/>
+        <v>19118.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="235" t="s">
+        <v>709</v>
+      </c>
+      <c r="C10" s="461" t="s">
+        <v>733</v>
+      </c>
+      <c r="D10" s="410">
+        <v>79127.8</v>
+      </c>
+      <c r="E10" s="224"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="225">
+        <f t="shared" si="0"/>
+        <v>79127.8</v>
+      </c>
+      <c r="H10" s="226"/>
+      <c r="I10" s="516" t="s">
+        <v>709</v>
+      </c>
+      <c r="J10" s="236">
+        <v>12585</v>
+      </c>
+      <c r="K10" s="237">
+        <v>12683</v>
+      </c>
+      <c r="L10" s="218"/>
+      <c r="M10" s="237"/>
+      <c r="N10" s="227">
+        <f t="shared" si="1"/>
+        <v>31801.200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="235" t="s">
+        <v>710</v>
+      </c>
+      <c r="C11" s="461" t="s">
+        <v>734</v>
+      </c>
+      <c r="D11" s="410">
+        <v>28305.200000000001</v>
+      </c>
+      <c r="E11" s="224"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="225">
+        <f t="shared" si="0"/>
+        <v>28305.200000000001</v>
+      </c>
+      <c r="I11" s="516" t="s">
+        <v>710</v>
+      </c>
+      <c r="J11" s="236">
+        <v>12592</v>
+      </c>
+      <c r="K11" s="237">
+        <v>600</v>
+      </c>
+      <c r="L11" s="218"/>
+      <c r="M11" s="237"/>
+      <c r="N11" s="227">
+        <f t="shared" si="1"/>
+        <v>32401.200000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="235" t="s">
+        <v>710</v>
+      </c>
+      <c r="C12" s="461" t="s">
+        <v>735</v>
+      </c>
+      <c r="D12" s="410">
+        <v>4855.7</v>
+      </c>
+      <c r="E12" s="224"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="225">
+        <f t="shared" si="0"/>
+        <v>4855.7</v>
+      </c>
+      <c r="I12" s="516" t="s">
+        <v>711</v>
+      </c>
+      <c r="J12" s="236">
+        <v>12604</v>
+      </c>
+      <c r="K12" s="237">
+        <v>600</v>
+      </c>
+      <c r="L12" s="218"/>
+      <c r="M12" s="237"/>
+      <c r="N12" s="227">
+        <f t="shared" si="1"/>
+        <v>33001.199999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="235" t="s">
+        <v>711</v>
+      </c>
+      <c r="C13" s="461" t="s">
+        <v>736</v>
+      </c>
+      <c r="D13" s="410">
+        <v>132962.48000000001</v>
+      </c>
+      <c r="E13" s="224"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="225">
+        <f t="shared" si="0"/>
+        <v>132962.48000000001</v>
+      </c>
+      <c r="I13" s="516" t="s">
+        <v>712</v>
+      </c>
+      <c r="J13" s="236">
+        <v>12610</v>
+      </c>
+      <c r="K13" s="237">
+        <v>1365</v>
+      </c>
+      <c r="L13" s="218"/>
+      <c r="M13" s="237"/>
+      <c r="N13" s="227">
+        <f t="shared" si="1"/>
+        <v>34366.199999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="235" t="s">
+        <v>712</v>
+      </c>
+      <c r="C14" s="461" t="s">
+        <v>737</v>
+      </c>
+      <c r="D14" s="410">
+        <v>29594.400000000001</v>
+      </c>
+      <c r="E14" s="224"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="225">
+        <f t="shared" si="0"/>
+        <v>29594.400000000001</v>
+      </c>
+      <c r="I14" s="516" t="s">
+        <v>713</v>
+      </c>
+      <c r="J14" s="236">
+        <v>12624</v>
+      </c>
+      <c r="K14" s="237">
+        <v>2601</v>
+      </c>
+      <c r="L14" s="218"/>
+      <c r="M14" s="237"/>
+      <c r="N14" s="227">
+        <f t="shared" si="1"/>
+        <v>36967.199999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="235" t="s">
+        <v>713</v>
+      </c>
+      <c r="C15" s="461" t="s">
+        <v>738</v>
+      </c>
+      <c r="D15" s="410">
+        <v>17264.25</v>
+      </c>
+      <c r="E15" s="224"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="225">
+        <f t="shared" si="0"/>
+        <v>17264.25</v>
+      </c>
+      <c r="I15" s="516" t="s">
+        <v>714</v>
+      </c>
+      <c r="J15" s="236">
+        <v>12630</v>
+      </c>
+      <c r="K15" s="237">
+        <v>13184.4</v>
+      </c>
+      <c r="L15" s="218"/>
+      <c r="M15" s="237"/>
+      <c r="N15" s="227">
+        <f t="shared" si="1"/>
+        <v>50151.6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="235" t="s">
+        <v>714</v>
+      </c>
+      <c r="C16" s="461" t="s">
+        <v>739</v>
+      </c>
+      <c r="D16" s="410">
+        <v>123525.8</v>
+      </c>
+      <c r="E16" s="224"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="225">
+        <f t="shared" si="0"/>
+        <v>123525.8</v>
+      </c>
+      <c r="I16" s="516" t="s">
+        <v>715</v>
+      </c>
+      <c r="J16" s="236">
+        <v>12636</v>
+      </c>
+      <c r="K16" s="237">
+        <v>480</v>
+      </c>
+      <c r="L16" s="218"/>
+      <c r="M16" s="237"/>
+      <c r="N16" s="227">
+        <f t="shared" si="1"/>
+        <v>50631.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="235" t="s">
+        <v>714</v>
+      </c>
+      <c r="C17" s="461" t="s">
+        <v>740</v>
+      </c>
+      <c r="D17" s="410">
+        <v>10929.6</v>
+      </c>
+      <c r="E17" s="224"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="225">
+        <f t="shared" si="0"/>
+        <v>10929.6</v>
+      </c>
+      <c r="I17" s="516" t="s">
+        <v>715</v>
+      </c>
+      <c r="J17" s="236">
+        <v>12638</v>
+      </c>
+      <c r="K17" s="237">
+        <v>480</v>
+      </c>
+      <c r="L17" s="218"/>
+      <c r="M17" s="237"/>
+      <c r="N17" s="227">
+        <f t="shared" si="1"/>
+        <v>51111.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="235" t="s">
+        <v>715</v>
+      </c>
+      <c r="C18" s="461" t="s">
+        <v>741</v>
+      </c>
+      <c r="D18" s="410">
+        <v>13256.16</v>
+      </c>
+      <c r="E18" s="224"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="225">
+        <f t="shared" si="0"/>
+        <v>13256.16</v>
+      </c>
+      <c r="I18" s="516" t="s">
+        <v>716</v>
+      </c>
+      <c r="J18" s="236">
+        <v>12645</v>
+      </c>
+      <c r="K18" s="237">
+        <v>19808</v>
+      </c>
+      <c r="L18" s="218"/>
+      <c r="M18" s="237"/>
+      <c r="N18" s="227">
+        <f t="shared" si="1"/>
+        <v>70919.600000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="235" t="s">
+        <v>716</v>
+      </c>
+      <c r="C19" s="461" t="s">
+        <v>742</v>
+      </c>
+      <c r="D19" s="410">
+        <v>10945</v>
+      </c>
+      <c r="E19" s="224"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="225">
+        <f t="shared" si="0"/>
+        <v>10945</v>
+      </c>
+      <c r="I19" s="516" t="s">
+        <v>716</v>
+      </c>
+      <c r="J19" s="236">
+        <v>12646</v>
+      </c>
+      <c r="K19" s="237">
+        <v>3823</v>
+      </c>
+      <c r="L19" s="218"/>
+      <c r="M19" s="237"/>
+      <c r="N19" s="227">
+        <f t="shared" si="1"/>
+        <v>74742.600000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="235" t="s">
+        <v>716</v>
+      </c>
+      <c r="C20" s="461" t="s">
+        <v>743</v>
+      </c>
+      <c r="D20" s="410">
+        <v>55883.199999999997</v>
+      </c>
+      <c r="E20" s="224"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="225">
+        <f t="shared" si="0"/>
+        <v>55883.199999999997</v>
+      </c>
+      <c r="I20" s="516" t="s">
+        <v>717</v>
+      </c>
+      <c r="J20" s="236">
+        <v>12654</v>
+      </c>
+      <c r="K20" s="237">
+        <v>600</v>
+      </c>
+      <c r="L20" s="218"/>
+      <c r="M20" s="237"/>
+      <c r="N20" s="227">
+        <f t="shared" si="1"/>
+        <v>75342.600000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="235" t="s">
+        <v>716</v>
+      </c>
+      <c r="C21" s="461" t="s">
+        <v>744</v>
+      </c>
+      <c r="D21" s="410">
+        <v>12802.36</v>
+      </c>
+      <c r="E21" s="224"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="225">
+        <f t="shared" si="0"/>
+        <v>12802.36</v>
+      </c>
+      <c r="I21" s="516" t="s">
+        <v>717</v>
+      </c>
+      <c r="J21" s="236">
+        <v>12661</v>
+      </c>
+      <c r="K21" s="237">
+        <v>3782</v>
+      </c>
+      <c r="L21" s="218"/>
+      <c r="M21" s="237"/>
+      <c r="N21" s="227">
+        <f t="shared" si="1"/>
+        <v>79124.600000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="235" t="s">
+        <v>717</v>
+      </c>
+      <c r="C22" s="461" t="s">
+        <v>745</v>
+      </c>
+      <c r="D22" s="410">
+        <v>56051.5</v>
+      </c>
+      <c r="E22" s="224"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="225">
+        <f t="shared" si="0"/>
+        <v>56051.5</v>
+      </c>
+      <c r="H22" s="232"/>
+      <c r="I22" s="516" t="s">
+        <v>718</v>
+      </c>
+      <c r="J22" s="236">
+        <v>12664</v>
+      </c>
+      <c r="K22" s="237">
+        <v>10871.2</v>
+      </c>
+      <c r="L22" s="218"/>
+      <c r="M22" s="237"/>
+      <c r="N22" s="227">
+        <f t="shared" si="1"/>
+        <v>89995.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="235" t="s">
+        <v>717</v>
+      </c>
+      <c r="C23" s="461" t="s">
+        <v>746</v>
+      </c>
+      <c r="D23" s="410">
+        <v>3178</v>
+      </c>
+      <c r="E23" s="224"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="225">
+        <f t="shared" si="0"/>
+        <v>3178</v>
+      </c>
+      <c r="H23" s="233"/>
+      <c r="I23" s="516" t="s">
+        <v>718</v>
+      </c>
+      <c r="J23" s="236">
+        <v>12665</v>
+      </c>
+      <c r="K23" s="237">
+        <v>240</v>
+      </c>
+      <c r="L23" s="218"/>
+      <c r="M23" s="237"/>
+      <c r="N23" s="227">
+        <f t="shared" si="1"/>
+        <v>90235.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="235" t="s">
+        <v>718</v>
+      </c>
+      <c r="C24" s="461" t="s">
+        <v>747</v>
+      </c>
+      <c r="D24" s="410">
+        <v>24779.279999999999</v>
+      </c>
+      <c r="E24" s="224"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="225">
+        <f t="shared" si="0"/>
+        <v>24779.279999999999</v>
+      </c>
+      <c r="H24" s="233"/>
+      <c r="I24" s="516" t="s">
+        <v>719</v>
+      </c>
+      <c r="J24" s="236">
+        <v>12682</v>
+      </c>
+      <c r="K24" s="237">
+        <v>4061</v>
+      </c>
+      <c r="L24" s="218"/>
+      <c r="M24" s="237"/>
+      <c r="N24" s="227">
+        <f t="shared" si="1"/>
+        <v>94296.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="235" t="s">
+        <v>719</v>
+      </c>
+      <c r="C25" s="461" t="s">
+        <v>748</v>
+      </c>
+      <c r="D25" s="410">
+        <v>88264.8</v>
+      </c>
+      <c r="E25" s="224"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="225">
+        <f t="shared" si="0"/>
+        <v>88264.8</v>
+      </c>
+      <c r="H25" s="234"/>
+      <c r="I25" s="516" t="s">
+        <v>720</v>
+      </c>
+      <c r="J25" s="236">
+        <v>12690</v>
+      </c>
+      <c r="K25" s="237">
+        <v>600</v>
+      </c>
+      <c r="L25" s="218"/>
+      <c r="M25" s="237"/>
+      <c r="N25" s="227">
+        <f t="shared" si="1"/>
+        <v>94896.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="235" t="s">
+        <v>719</v>
+      </c>
+      <c r="C26" s="461" t="s">
+        <v>749</v>
+      </c>
+      <c r="D26" s="410">
+        <v>39048.300000000003</v>
+      </c>
+      <c r="E26" s="224"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="225">
+        <f t="shared" si="0"/>
+        <v>39048.300000000003</v>
+      </c>
+      <c r="H26" s="234"/>
+      <c r="I26" s="516" t="s">
+        <v>720</v>
+      </c>
+      <c r="J26" s="236">
+        <v>12692</v>
+      </c>
+      <c r="K26" s="237">
+        <v>480</v>
+      </c>
+      <c r="L26" s="218"/>
+      <c r="M26" s="237"/>
+      <c r="N26" s="227">
+        <f t="shared" si="1"/>
+        <v>95376.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="235" t="s">
+        <v>720</v>
+      </c>
+      <c r="C27" s="461" t="s">
+        <v>750</v>
+      </c>
+      <c r="D27" s="410">
+        <v>65638</v>
+      </c>
+      <c r="E27" s="224"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="225">
+        <f t="shared" si="0"/>
+        <v>65638</v>
+      </c>
+      <c r="H27" s="234"/>
+      <c r="I27" s="516" t="s">
+        <v>721</v>
+      </c>
+      <c r="J27" s="236">
+        <v>12699</v>
+      </c>
+      <c r="K27" s="237">
+        <v>2589</v>
+      </c>
+      <c r="L27" s="218"/>
+      <c r="M27" s="237"/>
+      <c r="N27" s="227">
+        <f t="shared" si="1"/>
+        <v>97965.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="235" t="s">
+        <v>721</v>
+      </c>
+      <c r="C28" s="461" t="s">
+        <v>751</v>
+      </c>
+      <c r="D28" s="410">
+        <v>4895.84</v>
+      </c>
+      <c r="E28" s="224"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="225">
+        <f t="shared" si="0"/>
+        <v>4895.84</v>
+      </c>
+      <c r="H28" s="234"/>
+      <c r="I28" s="516" t="s">
+        <v>721</v>
+      </c>
+      <c r="J28" s="236">
+        <v>12706</v>
+      </c>
+      <c r="K28" s="237">
+        <v>360</v>
+      </c>
+      <c r="L28" s="218"/>
+      <c r="M28" s="237"/>
+      <c r="N28" s="227">
+        <f t="shared" si="1"/>
+        <v>98325.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="235" t="s">
+        <v>722</v>
+      </c>
+      <c r="C29" s="461" t="s">
+        <v>752</v>
+      </c>
+      <c r="D29" s="410">
+        <v>106444.7</v>
+      </c>
+      <c r="E29" s="224"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="225">
+        <f t="shared" si="0"/>
+        <v>106444.7</v>
+      </c>
+      <c r="H29" s="234"/>
+      <c r="I29" s="516" t="s">
+        <v>722</v>
+      </c>
+      <c r="J29" s="236">
+        <v>12711</v>
+      </c>
+      <c r="K29" s="237">
+        <v>11428.4</v>
+      </c>
+      <c r="L29" s="218"/>
+      <c r="M29" s="237"/>
+      <c r="N29" s="227">
+        <f t="shared" si="1"/>
+        <v>109754.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="235" t="s">
+        <v>723</v>
+      </c>
+      <c r="C30" s="461" t="s">
+        <v>753</v>
+      </c>
+      <c r="D30" s="410">
+        <v>144748.88</v>
+      </c>
+      <c r="E30" s="224"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="225">
+        <f t="shared" si="0"/>
+        <v>144748.88</v>
+      </c>
+      <c r="H30" s="234"/>
+      <c r="I30" s="516" t="s">
+        <v>723</v>
+      </c>
+      <c r="J30" s="236">
+        <v>12715</v>
+      </c>
+      <c r="K30" s="237">
+        <v>3440</v>
+      </c>
+      <c r="L30" s="224"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="227">
+        <f t="shared" si="1"/>
+        <v>113194.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="235" t="s">
+        <v>723</v>
+      </c>
+      <c r="C31" s="461" t="s">
+        <v>754</v>
+      </c>
+      <c r="D31" s="410">
+        <v>14753.24</v>
+      </c>
+      <c r="E31" s="224"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="225">
+        <f t="shared" si="0"/>
+        <v>14753.24</v>
+      </c>
+      <c r="H31" s="233"/>
+      <c r="I31" s="516" t="s">
+        <v>724</v>
+      </c>
+      <c r="J31" s="236">
+        <v>12735</v>
+      </c>
+      <c r="K31" s="237">
+        <v>5263</v>
+      </c>
+      <c r="L31" s="224"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="227">
+        <f t="shared" si="1"/>
+        <v>118457.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="235" t="s">
+        <v>755</v>
+      </c>
+      <c r="C32" s="461" t="s">
+        <v>756</v>
+      </c>
+      <c r="D32" s="410">
+        <v>15134.82</v>
+      </c>
+      <c r="E32" s="224"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="225">
+        <f t="shared" si="0"/>
+        <v>15134.82</v>
+      </c>
+      <c r="H32" s="233"/>
+      <c r="I32" s="516" t="s">
+        <v>725</v>
+      </c>
+      <c r="J32" s="236">
+        <v>12746</v>
+      </c>
+      <c r="K32" s="237">
+        <v>2960</v>
+      </c>
+      <c r="L32" s="224"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="235" t="s">
+        <v>724</v>
+      </c>
+      <c r="C33" s="461" t="s">
+        <v>757</v>
+      </c>
+      <c r="D33" s="410">
+        <v>93664.48</v>
+      </c>
+      <c r="E33" s="224"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="225">
+        <f t="shared" si="0"/>
+        <v>93664.48</v>
+      </c>
+      <c r="I33" s="436"/>
+      <c r="J33" s="438"/>
+      <c r="K33" s="150">
+        <v>0</v>
+      </c>
+      <c r="L33" s="224"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="235" t="s">
+        <v>725</v>
+      </c>
+      <c r="C34" s="461" t="s">
+        <v>758</v>
+      </c>
+      <c r="D34" s="410">
+        <v>92452.12</v>
+      </c>
+      <c r="E34" s="224"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="225">
+        <f t="shared" si="0"/>
+        <v>92452.12</v>
+      </c>
+      <c r="I34" s="436"/>
+      <c r="J34" s="438"/>
+      <c r="K34" s="150">
+        <v>0</v>
+      </c>
+      <c r="L34" s="224"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="235" t="s">
+        <v>759</v>
+      </c>
+      <c r="C35" s="461" t="s">
+        <v>760</v>
+      </c>
+      <c r="D35" s="410">
+        <v>4358.3999999999996</v>
+      </c>
+      <c r="E35" s="224"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="225">
+        <f t="shared" si="0"/>
+        <v>4358.3999999999996</v>
+      </c>
+      <c r="I35" s="487"/>
+      <c r="J35" s="488"/>
+      <c r="K35" s="219"/>
+      <c r="L35" s="489"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="235" t="s">
+        <v>759</v>
+      </c>
+      <c r="C36" s="461" t="s">
+        <v>761</v>
+      </c>
+      <c r="D36" s="410">
+        <v>59252.32</v>
+      </c>
+      <c r="E36" s="224"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="225">
+        <f t="shared" si="0"/>
+        <v>59252.32</v>
+      </c>
+      <c r="I36" s="491"/>
+      <c r="J36" s="491"/>
+      <c r="K36" s="491"/>
+      <c r="L36" s="491"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="222"/>
+      <c r="C37" s="223"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="570" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="571"/>
+      <c r="K37" s="491"/>
+      <c r="L37" s="491"/>
+      <c r="M37" s="101"/>
+      <c r="N37" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="222"/>
+      <c r="C38" s="223"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="572"/>
+      <c r="J38" s="573"/>
+      <c r="K38" s="490"/>
+      <c r="L38" s="218"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="222"/>
+      <c r="C39" s="223"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="238"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="574"/>
+      <c r="J39" s="575"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="238"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="222"/>
+      <c r="C40" s="223"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="238"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="84"/>
+      <c r="L40" s="238"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="244"/>
+      <c r="C41" s="223"/>
+      <c r="D41" s="405"/>
+      <c r="E41" s="238"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="84"/>
+      <c r="L41" s="238"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="244"/>
+      <c r="C42" s="223"/>
+      <c r="D42" s="405"/>
+      <c r="E42" s="238"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="84"/>
+      <c r="L42" s="238"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="244"/>
+      <c r="C43" s="245"/>
+      <c r="D43" s="405"/>
+      <c r="E43" s="238"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="239"/>
+      <c r="J43" s="240"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="238"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="246"/>
+      <c r="C44" s="245"/>
+      <c r="D44" s="405"/>
+      <c r="E44" s="238"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="239"/>
+      <c r="J44" s="240"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="238"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="246"/>
+      <c r="C45" s="245"/>
+      <c r="D45" s="405"/>
+      <c r="E45" s="238"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="239"/>
+      <c r="J45" s="240"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="238"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="246"/>
+      <c r="C46" s="245"/>
+      <c r="D46" s="405"/>
+      <c r="E46" s="238"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="239"/>
+      <c r="J46" s="240"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="238"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="406"/>
+      <c r="C47" s="245"/>
+      <c r="D47" s="405"/>
+      <c r="E47" s="238"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="239"/>
+      <c r="J47" s="240"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="238"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="239"/>
+      <c r="C48" s="248"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="238"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="239"/>
+      <c r="J48" s="240"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="238"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="239"/>
+      <c r="C49" s="249"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="238"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="239"/>
+      <c r="J49" s="240"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="238"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="239"/>
+      <c r="C50" s="240"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="250"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="251"/>
+      <c r="J50" s="252"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="177"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="239"/>
+      <c r="C51" s="240"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="250"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="251"/>
+      <c r="J51" s="252"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="177"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="239"/>
+      <c r="C52" s="240"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="250"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="251"/>
+      <c r="J52" s="252"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="177"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="239"/>
+      <c r="C53" s="240"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="250"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="251"/>
+      <c r="J53" s="252"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="177"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="239"/>
+      <c r="C54" s="240"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="250"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="251"/>
+      <c r="J54" s="252"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="177"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="251"/>
+      <c r="C55" s="252"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="251"/>
+      <c r="J55" s="252"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="177"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="239"/>
+      <c r="C56" s="240"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="250"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="239"/>
+      <c r="J56" s="240"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="250"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="239"/>
+      <c r="C57" s="240"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="250"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="239"/>
+      <c r="J57" s="240"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="250"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="239"/>
+      <c r="C58" s="240"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="250"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="239"/>
+      <c r="J58" s="240"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="250"/>
+      <c r="M58" s="84"/>
+      <c r="N58" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="239"/>
+      <c r="C59" s="240"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="250"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="239"/>
+      <c r="J59" s="240"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="250"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="239"/>
+      <c r="C60" s="240"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="250"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="239"/>
+      <c r="J60" s="240"/>
+      <c r="K60" s="84"/>
+      <c r="L60" s="250"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="239"/>
+      <c r="C61" s="240"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="250"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="239"/>
+      <c r="J61" s="240"/>
+      <c r="K61" s="84"/>
+      <c r="L61" s="250"/>
+      <c r="M61" s="84"/>
+      <c r="N61" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="239"/>
+      <c r="C62" s="240"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="250"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="239"/>
+      <c r="J62" s="240"/>
+      <c r="K62" s="84"/>
+      <c r="L62" s="250"/>
+      <c r="M62" s="84"/>
+      <c r="N62" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="239"/>
+      <c r="C63" s="240"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="250"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="239"/>
+      <c r="J63" s="240"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="250"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="239"/>
+      <c r="C64" s="240"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="250"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="239"/>
+      <c r="J64" s="240"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="250"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="239"/>
+      <c r="C65" s="240"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="250"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="239"/>
+      <c r="J65" s="240"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="250"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="227">
+        <f t="shared" si="1"/>
+        <v>121417.2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="253"/>
+      <c r="C66" s="254"/>
+      <c r="D66" s="44">
+        <v>0</v>
+      </c>
+      <c r="E66" s="255"/>
+      <c r="F66" s="256"/>
+      <c r="G66" s="227">
+        <v>0</v>
+      </c>
+      <c r="I66" s="253"/>
+      <c r="J66" s="257"/>
+      <c r="K66" s="256">
+        <v>0</v>
+      </c>
+      <c r="L66" s="255"/>
+      <c r="M66" s="256"/>
+      <c r="N66" s="227"/>
+    </row>
+    <row r="67" spans="2:14" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="259"/>
+      <c r="D67" s="260">
+        <f>SUM(D3:D66)</f>
+        <v>1585182.9300000004</v>
+      </c>
+      <c r="E67" s="261"/>
+      <c r="F67" s="262">
+        <f>SUM(F3:F66)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="263">
+        <f>SUM(G3:G66)</f>
+        <v>1585182.9300000004</v>
+      </c>
+      <c r="I67" s="576" t="s">
+        <v>35</v>
+      </c>
+      <c r="J67" s="577"/>
+      <c r="K67" s="264">
+        <f>SUM(K3:K66)</f>
+        <v>121417.2</v>
+      </c>
+      <c r="L67" s="265"/>
+      <c r="M67" s="266">
+        <f>SUM(M3:M66)</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="263">
+        <f>N66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="267"/>
+      <c r="D68" s="480" t="s">
+        <v>617</v>
+      </c>
+      <c r="E68" s="269"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="580" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" s="585"/>
+      <c r="J68" s="586"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="269"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C69" s="270"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="269"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="581"/>
+      <c r="I69" s="293"/>
+      <c r="J69" s="294"/>
+      <c r="K69" s="295"/>
+      <c r="L69" s="296"/>
+      <c r="M69" s="187"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="272"/>
+      <c r="C70" s="273"/>
+      <c r="D70" s="108"/>
+      <c r="F70"/>
+      <c r="I70" s="300"/>
+      <c r="J70" s="301"/>
+      <c r="K70" s="189"/>
+      <c r="L70" s="302"/>
+      <c r="M70" s="299"/>
+    </row>
+    <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="272"/>
+      <c r="C71" s="273"/>
+      <c r="D71" s="108"/>
+      <c r="F71"/>
+      <c r="H71" s="233"/>
+      <c r="I71" s="300"/>
+      <c r="J71" s="301"/>
+      <c r="K71" s="189"/>
+      <c r="L71" s="302"/>
+      <c r="M71" s="299"/>
+    </row>
+    <row r="72" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="275"/>
+      <c r="E72" s="276"/>
+      <c r="F72"/>
+      <c r="H72" s="233"/>
+      <c r="I72" s="303"/>
+      <c r="J72" s="191"/>
+      <c r="K72" s="304"/>
+      <c r="L72" s="304"/>
+      <c r="M72" s="299"/>
+      <c r="N72"/>
+    </row>
+    <row r="73" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="275"/>
+      <c r="E73" s="276"/>
+      <c r="F73"/>
+      <c r="H73" s="233"/>
+      <c r="I73" s="303"/>
+      <c r="J73" s="492"/>
+      <c r="K73" s="304"/>
+      <c r="L73" s="304"/>
+      <c r="M73" s="299"/>
+      <c r="N73"/>
+    </row>
+    <row r="74" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C74" s="275"/>
+      <c r="D74" s="189"/>
+      <c r="E74" s="276"/>
+      <c r="F74"/>
+      <c r="H74" s="233"/>
+      <c r="I74" s="191"/>
+      <c r="J74" s="492"/>
+      <c r="K74" s="415"/>
+      <c r="L74" s="304"/>
+      <c r="M74" s="299"/>
+      <c r="N74"/>
+    </row>
+    <row r="75" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C75" s="275"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="276"/>
+      <c r="H75" s="233"/>
+      <c r="I75" s="191"/>
+      <c r="J75" s="188"/>
+      <c r="K75" s="415"/>
+      <c r="L75" s="304"/>
+      <c r="M75" s="299"/>
+      <c r="N75"/>
+    </row>
+    <row r="76" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C76" s="275"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="276"/>
+      <c r="H76" s="233"/>
+      <c r="I76" s="188"/>
+      <c r="J76" s="188"/>
+      <c r="K76" s="415"/>
+      <c r="L76" s="304"/>
+      <c r="M76" s="299"/>
+      <c r="N76"/>
+    </row>
+    <row r="77" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C77" s="275"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="276"/>
+      <c r="I77" s="188"/>
+      <c r="J77" s="188"/>
+      <c r="K77" s="415"/>
+      <c r="L77" s="493"/>
+      <c r="M77" s="299"/>
+      <c r="N77"/>
+    </row>
+    <row r="78" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C78" s="275"/>
+      <c r="D78" s="108"/>
+      <c r="E78" s="276"/>
+      <c r="I78" s="188"/>
+      <c r="J78" s="188"/>
+      <c r="K78" s="415"/>
+      <c r="L78" s="302"/>
+      <c r="M78" s="299"/>
+      <c r="N78"/>
+    </row>
+    <row r="79" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C79" s="275"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="276"/>
+      <c r="I79" s="188"/>
+      <c r="J79" s="188"/>
+      <c r="K79" s="415"/>
+      <c r="L79" s="302"/>
+      <c r="M79" s="299"/>
+      <c r="N79"/>
+    </row>
+    <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C80" s="275"/>
+      <c r="D80" s="108"/>
+      <c r="E80" s="276"/>
+      <c r="I80" s="188"/>
+      <c r="J80" s="188"/>
+      <c r="K80" s="188"/>
+      <c r="L80" s="302"/>
+      <c r="M80"/>
+      <c r="N80"/>
+    </row>
+    <row r="81" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C81" s="271"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="276"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+    </row>
+    <row r="82" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C82" s="271"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="276"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+    </row>
+    <row r="83" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C83" s="271"/>
+      <c r="D83" s="108"/>
+      <c r="E83" s="276"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+    </row>
+    <row r="84" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C84" s="271"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="276"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+    </row>
+    <row r="85" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C85" s="271"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="276"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+    </row>
+    <row r="86" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C86" s="271"/>
+      <c r="D86" s="108"/>
+      <c r="E86" s="276"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+    </row>
+    <row r="87" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C87" s="271"/>
+      <c r="D87" s="108"/>
+      <c r="E87" s="276"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+    </row>
+    <row r="88" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C88" s="271"/>
+      <c r="D88" s="108"/>
+      <c r="E88" s="276"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+    </row>
+    <row r="89" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C89" s="271"/>
+      <c r="D89" s="108"/>
+      <c r="E89" s="276"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+    </row>
+    <row r="90" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C90" s="271"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="276"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+    </row>
+    <row r="91" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C91" s="271"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="276"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+    </row>
+    <row r="92" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C92" s="271"/>
+      <c r="D92" s="108"/>
+      <c r="E92" s="276"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+    </row>
+    <row r="93" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C93" s="271"/>
+      <c r="D93" s="108"/>
+      <c r="E93" s="276"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+    </row>
+    <row r="94" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C94" s="271"/>
+      <c r="D94" s="108"/>
+      <c r="E94" s="276"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+    </row>
+    <row r="95" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C95" s="271"/>
+      <c r="D95" s="108"/>
+      <c r="E95" s="276"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+    </row>
+    <row r="96" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C96" s="271"/>
+      <c r="D96" s="108"/>
+      <c r="E96" s="276"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C97" s="271"/>
+      <c r="D97" s="189"/>
+      <c r="E97" s="276"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C98" s="271"/>
+      <c r="D98" s="189"/>
+      <c r="E98" s="276"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C99" s="271"/>
+      <c r="D99" s="189"/>
+      <c r="E99" s="276"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C100" s="271"/>
+      <c r="D100" s="189"/>
+      <c r="E100" s="276"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C101" s="271"/>
+      <c r="D101" s="189"/>
+      <c r="E101" s="276"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C102" s="271"/>
+      <c r="E102" s="276"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+    </row>
+    <row r="103" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C103" s="271"/>
+      <c r="E103" s="276"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+    </row>
+    <row r="104" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C104" s="271"/>
+      <c r="E104" s="276"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+    </row>
+    <row r="105" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C105" s="271"/>
+      <c r="E105" s="276"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+    </row>
+    <row r="106" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C106" s="271"/>
+      <c r="E106" s="276"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+    </row>
+    <row r="107" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C107" s="271"/>
+      <c r="E107" s="276"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+    </row>
+    <row r="108" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C108" s="271"/>
+      <c r="E108" s="276"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+    </row>
+    <row r="109" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C109" s="271"/>
+      <c r="E109" s="276"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+    </row>
+    <row r="110" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C110" s="271"/>
+      <c r="E110" s="276"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+    </row>
+    <row r="111" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C111" s="271"/>
+      <c r="E111" s="276"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+    </row>
+    <row r="112" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C112" s="271"/>
+      <c r="E112" s="276"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+    </row>
+    <row r="113" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C113" s="271"/>
+      <c r="E113" s="276"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+    </row>
+    <row r="114" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C114" s="271"/>
+      <c r="E114" s="276"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+    </row>
+    <row r="115" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C115" s="271"/>
+      <c r="E115" s="276"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+    </row>
+    <row r="116" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C116" s="271"/>
+      <c r="E116" s="276"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+    </row>
+    <row r="117" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C117" s="271"/>
+      <c r="E117" s="276"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+    </row>
+    <row r="118" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C118" s="271"/>
+      <c r="E118" s="276"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+    </row>
+    <row r="119" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C119" s="271"/>
+      <c r="E119" s="276"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+    </row>
+    <row r="120" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C120" s="271"/>
+      <c r="E120" s="276"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+    </row>
+    <row r="121" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C121" s="271"/>
+      <c r="E121" s="276"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+    </row>
+    <row r="122" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C122" s="271"/>
+      <c r="E122" s="276"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+    </row>
+    <row r="123" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C123" s="271"/>
+      <c r="E123" s="276"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I37:J39"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="G68:G69"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -21623,23 +27024,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="535"/>
-      <c r="C1" s="537" t="s">
+      <c r="B1" s="560"/>
+      <c r="C1" s="562" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="538"/>
-      <c r="E1" s="538"/>
-      <c r="F1" s="538"/>
-      <c r="G1" s="538"/>
-      <c r="H1" s="538"/>
-      <c r="I1" s="538"/>
-      <c r="J1" s="538"/>
-      <c r="K1" s="538"/>
-      <c r="L1" s="538"/>
-      <c r="M1" s="538"/>
+      <c r="D1" s="563"/>
+      <c r="E1" s="563"/>
+      <c r="F1" s="563"/>
+      <c r="G1" s="563"/>
+      <c r="H1" s="563"/>
+      <c r="I1" s="563"/>
+      <c r="J1" s="563"/>
+      <c r="K1" s="563"/>
+      <c r="L1" s="563"/>
+      <c r="M1" s="563"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="536"/>
+      <c r="B2" s="561"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -21649,24 +27050,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="540"/>
+      <c r="B3" s="564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="565"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="541" t="s">
+      <c r="H3" s="566" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="541"/>
+      <c r="I3" s="566"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="533" t="s">
+      <c r="P3" s="558" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="542" t="s">
+      <c r="R3" s="531" t="s">
         <v>3</v>
       </c>
     </row>
@@ -21681,14 +27082,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="544" t="s">
+      <c r="E4" s="533" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="545"/>
-      <c r="H4" s="546" t="s">
+      <c r="F4" s="534"/>
+      <c r="H4" s="535" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="547"/>
+      <c r="I4" s="536"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -21698,11 +27099,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="534"/>
+      <c r="P4" s="559"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="543"/>
+      <c r="R4" s="532"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -23678,11 +29079,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="553">
+      <c r="M49" s="542">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="553">
+      <c r="N49" s="542">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -23690,7 +29091,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="565">
+      <c r="Q49" s="554">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -23723,10 +29124,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="554"/>
-      <c r="N50" s="554"/>
+      <c r="M50" s="543"/>
+      <c r="N50" s="543"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="566"/>
+      <c r="Q50" s="555"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -23817,11 +29218,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="531">
+      <c r="M53" s="556">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="532"/>
+      <c r="N53" s="557"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -24380,26 +29781,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="561" t="s">
+      <c r="H77" s="550" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="562"/>
+      <c r="I77" s="551"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="563">
+      <c r="K77" s="552">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="564"/>
+      <c r="L77" s="553"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="555" t="s">
+      <c r="D78" s="544" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="555"/>
+      <c r="E78" s="544"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -24408,22 +29809,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="556" t="s">
+      <c r="D79" s="545" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="556"/>
+      <c r="E79" s="545"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="557" t="s">
+      <c r="I79" s="546" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="558"/>
-      <c r="K79" s="559">
+      <c r="J79" s="547"/>
+      <c r="K79" s="548">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="559"/>
+      <c r="L79" s="548"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -24464,11 +29865,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="560">
+      <c r="K81" s="549">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="559"/>
+      <c r="L81" s="548"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -24485,10 +29886,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="548" t="s">
+      <c r="D83" s="537" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="549"/>
+      <c r="E83" s="538"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
@@ -24647,12 +30048,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24669,6 +30064,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27380,23 +32781,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="535"/>
-      <c r="C1" s="537" t="s">
+      <c r="B1" s="560"/>
+      <c r="C1" s="562" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="538"/>
-      <c r="E1" s="538"/>
-      <c r="F1" s="538"/>
-      <c r="G1" s="538"/>
-      <c r="H1" s="538"/>
-      <c r="I1" s="538"/>
-      <c r="J1" s="538"/>
-      <c r="K1" s="538"/>
-      <c r="L1" s="538"/>
-      <c r="M1" s="538"/>
+      <c r="D1" s="563"/>
+      <c r="E1" s="563"/>
+      <c r="F1" s="563"/>
+      <c r="G1" s="563"/>
+      <c r="H1" s="563"/>
+      <c r="I1" s="563"/>
+      <c r="J1" s="563"/>
+      <c r="K1" s="563"/>
+      <c r="L1" s="563"/>
+      <c r="M1" s="563"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="536"/>
+      <c r="B2" s="561"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27406,21 +32807,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="540"/>
+      <c r="B3" s="564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="565"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="541" t="s">
+      <c r="H3" s="566" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="541"/>
+      <c r="I3" s="566"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="533" t="s">
+      <c r="P3" s="558" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="587" t="s">
@@ -27438,14 +32839,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="544" t="s">
+      <c r="E4" s="533" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="545"/>
-      <c r="H4" s="546" t="s">
+      <c r="F4" s="534"/>
+      <c r="H4" s="535" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="547"/>
+      <c r="I4" s="536"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27455,7 +32856,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="534"/>
+      <c r="P4" s="559"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -29440,11 +34841,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="553">
+      <c r="M49" s="542">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="553">
+      <c r="N49" s="542">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -29452,7 +34853,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="565">
+      <c r="Q49" s="554">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -29485,10 +34886,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="554"/>
-      <c r="N50" s="554"/>
+      <c r="M50" s="543"/>
+      <c r="N50" s="543"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="566"/>
+      <c r="Q50" s="555"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -29579,11 +34980,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="531">
+      <c r="M53" s="556">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="532"/>
+      <c r="N53" s="557"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -30062,26 +35463,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="561" t="s">
+      <c r="H77" s="550" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="562"/>
+      <c r="I77" s="551"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="563">
+      <c r="K77" s="552">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="564"/>
+      <c r="L77" s="553"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="555" t="s">
+      <c r="D78" s="544" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="555"/>
+      <c r="E78" s="544"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -30090,22 +35491,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="556" t="s">
+      <c r="D79" s="545" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="556"/>
+      <c r="E79" s="545"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="557" t="s">
+      <c r="I79" s="546" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="558"/>
-      <c r="K79" s="559">
+      <c r="J79" s="547"/>
+      <c r="K79" s="548">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="559"/>
+      <c r="L79" s="548"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -30146,11 +35547,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="560">
+      <c r="K81" s="549">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="559"/>
+      <c r="L81" s="548"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -30167,22 +35568,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="548" t="s">
+      <c r="D83" s="537" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="549"/>
+      <c r="E83" s="538"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="550" t="s">
+      <c r="I83" s="539" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="551"/>
-      <c r="K83" s="552">
+      <c r="J83" s="540"/>
+      <c r="K83" s="541">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="552"/>
+      <c r="L83" s="541"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -30329,6 +35730,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30345,12 +35752,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -32924,23 +38325,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="535"/>
-      <c r="C1" s="537" t="s">
+      <c r="B1" s="560"/>
+      <c r="C1" s="562" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="538"/>
-      <c r="E1" s="538"/>
-      <c r="F1" s="538"/>
-      <c r="G1" s="538"/>
-      <c r="H1" s="538"/>
-      <c r="I1" s="538"/>
-      <c r="J1" s="538"/>
-      <c r="K1" s="538"/>
-      <c r="L1" s="538"/>
-      <c r="M1" s="538"/>
+      <c r="D1" s="563"/>
+      <c r="E1" s="563"/>
+      <c r="F1" s="563"/>
+      <c r="G1" s="563"/>
+      <c r="H1" s="563"/>
+      <c r="I1" s="563"/>
+      <c r="J1" s="563"/>
+      <c r="K1" s="563"/>
+      <c r="L1" s="563"/>
+      <c r="M1" s="563"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="536"/>
+      <c r="B2" s="561"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -32950,21 +38351,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="540"/>
+      <c r="B3" s="564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="565"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="541" t="s">
+      <c r="H3" s="566" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="541"/>
+      <c r="I3" s="566"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="533" t="s">
+      <c r="P3" s="558" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="587" t="s">
@@ -32982,14 +38383,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="544" t="s">
+      <c r="E4" s="533" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="545"/>
-      <c r="H4" s="546" t="s">
+      <c r="F4" s="534"/>
+      <c r="H4" s="535" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="547"/>
+      <c r="I4" s="536"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -32999,7 +38400,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="534"/>
+      <c r="P4" s="559"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -35024,11 +40425,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="553">
+      <c r="M49" s="542">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="553">
+      <c r="N49" s="542">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -35036,7 +40437,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="565">
+      <c r="Q49" s="554">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -35063,10 +40464,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="554"/>
-      <c r="N50" s="554"/>
+      <c r="M50" s="543"/>
+      <c r="N50" s="543"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="566"/>
+      <c r="Q50" s="555"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -35140,11 +40541,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="531">
+      <c r="M53" s="556">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="532"/>
+      <c r="N53" s="557"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -35773,26 +41174,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="561" t="s">
+      <c r="H79" s="550" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="562"/>
+      <c r="I79" s="551"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="563">
+      <c r="K79" s="552">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="564"/>
+      <c r="L79" s="553"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="555" t="s">
+      <c r="D80" s="544" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="555"/>
+      <c r="E80" s="544"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -35801,22 +41202,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="556" t="s">
+      <c r="D81" s="545" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="556"/>
+      <c r="E81" s="545"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="557" t="s">
+      <c r="I81" s="546" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="558"/>
-      <c r="K81" s="559">
+      <c r="J81" s="547"/>
+      <c r="K81" s="548">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="559"/>
+      <c r="L81" s="548"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -35857,11 +41258,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="560">
+      <c r="K83" s="549">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="559"/>
+      <c r="L83" s="548"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -35878,22 +41279,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="548" t="s">
+      <c r="D85" s="537" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="549"/>
+      <c r="E85" s="538"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="550" t="s">
+      <c r="I85" s="539" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="551"/>
-      <c r="K85" s="552">
+      <c r="J85" s="540"/>
+      <c r="K85" s="541">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="552"/>
+      <c r="L85" s="541"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -36041,12 +41442,6 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36063,6 +41458,12 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38690,7 +44091,7 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
@@ -38717,23 +44118,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="535"/>
-      <c r="C1" s="537" t="s">
+      <c r="B1" s="560"/>
+      <c r="C1" s="562" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="538"/>
-      <c r="E1" s="538"/>
-      <c r="F1" s="538"/>
-      <c r="G1" s="538"/>
-      <c r="H1" s="538"/>
-      <c r="I1" s="538"/>
-      <c r="J1" s="538"/>
-      <c r="K1" s="538"/>
-      <c r="L1" s="538"/>
-      <c r="M1" s="538"/>
+      <c r="D1" s="563"/>
+      <c r="E1" s="563"/>
+      <c r="F1" s="563"/>
+      <c r="G1" s="563"/>
+      <c r="H1" s="563"/>
+      <c r="I1" s="563"/>
+      <c r="J1" s="563"/>
+      <c r="K1" s="563"/>
+      <c r="L1" s="563"/>
+      <c r="M1" s="563"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="536"/>
+      <c r="B2" s="561"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -38743,21 +44144,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="540"/>
+      <c r="B3" s="564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="565"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="541" t="s">
+      <c r="H3" s="566" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="541"/>
+      <c r="I3" s="566"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="533" t="s">
+      <c r="P3" s="558" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -38778,14 +44179,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="544" t="s">
+      <c r="E4" s="533" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="545"/>
-      <c r="H4" s="546" t="s">
+      <c r="F4" s="534"/>
+      <c r="H4" s="535" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="547"/>
+      <c r="I4" s="536"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -38795,7 +44196,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="534"/>
+      <c r="P4" s="559"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -40802,11 +46203,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="553">
+      <c r="M49" s="542">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="553">
+      <c r="N49" s="542">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -40814,7 +46215,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="565">
+      <c r="Q49" s="554">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -40847,10 +46248,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="554"/>
-      <c r="N50" s="554"/>
+      <c r="M50" s="543"/>
+      <c r="N50" s="543"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="566"/>
+      <c r="Q50" s="555"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -40929,11 +46330,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="531">
+      <c r="M53" s="556">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="532"/>
+      <c r="N53" s="557"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -41412,26 +46813,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="561" t="s">
+      <c r="H77" s="550" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="562"/>
+      <c r="I77" s="551"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="563">
+      <c r="K77" s="552">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="564"/>
+      <c r="L77" s="553"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="555" t="s">
+      <c r="D78" s="544" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="555"/>
+      <c r="E78" s="544"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -41440,22 +46841,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="556" t="s">
+      <c r="D79" s="545" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="556"/>
+      <c r="E79" s="545"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="557" t="s">
+      <c r="I79" s="546" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="558"/>
-      <c r="K79" s="559">
+      <c r="J79" s="547"/>
+      <c r="K79" s="548">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="559"/>
+      <c r="L79" s="548"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -41496,11 +46897,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="560">
+      <c r="K81" s="549">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="559"/>
+      <c r="L81" s="548"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -41517,10 +46918,10 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="548" t="s">
+      <c r="D83" s="537" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="549"/>
+      <c r="E83" s="538"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
@@ -41680,6 +47081,12 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -41696,12 +47103,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="2" r:id="rId1"/>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="775">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2856,6 +2856,15 @@
   </si>
   <si>
     <t>ACEITE, CECINA-LONGANIZA-MAIZ-JAMON-POLLO-QUESOS-SALCHICAS</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-JAMON-SALCHICHA</t>
+  </si>
+  <si>
+    <t>HIERVAS-JAMON-QUESOS-POLLO-PALITOS</t>
+  </si>
+  <si>
+    <t>PAN BCO-QUESOS-POLLO-CHORIZO</t>
   </si>
 </sst>
 </file>
@@ -5535,6 +5544,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5610,39 +5663,6 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5709,17 +5729,6 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -9105,23 +9114,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="560"/>
-      <c r="C1" s="562" t="s">
+      <c r="B1" s="540"/>
+      <c r="C1" s="542" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="563"/>
-      <c r="E1" s="563"/>
-      <c r="F1" s="563"/>
-      <c r="G1" s="563"/>
-      <c r="H1" s="563"/>
-      <c r="I1" s="563"/>
-      <c r="J1" s="563"/>
-      <c r="K1" s="563"/>
-      <c r="L1" s="563"/>
-      <c r="M1" s="563"/>
+      <c r="D1" s="543"/>
+      <c r="E1" s="543"/>
+      <c r="F1" s="543"/>
+      <c r="G1" s="543"/>
+      <c r="H1" s="543"/>
+      <c r="I1" s="543"/>
+      <c r="J1" s="543"/>
+      <c r="K1" s="543"/>
+      <c r="L1" s="543"/>
+      <c r="M1" s="543"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="561"/>
+      <c r="B2" s="541"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9131,24 +9140,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="565"/>
+      <c r="B3" s="544" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="545"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="566" t="s">
+      <c r="H3" s="546" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="566"/>
+      <c r="I3" s="546"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="558" t="s">
+      <c r="P3" s="538" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="531" t="s">
+      <c r="R3" s="547" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9163,14 +9172,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="533" t="s">
+      <c r="E4" s="549" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="534"/>
-      <c r="H4" s="535" t="s">
+      <c r="F4" s="550"/>
+      <c r="H4" s="551" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="536"/>
+      <c r="I4" s="552"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9180,11 +9189,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="559"/>
+      <c r="P4" s="539"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="532"/>
+      <c r="R4" s="548"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11019,11 +11028,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="542">
+      <c r="M49" s="558">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="542">
+      <c r="N49" s="558">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -11031,7 +11040,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="554">
+      <c r="Q49" s="570">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -11052,10 +11061,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="543"/>
-      <c r="N50" s="543"/>
+      <c r="M50" s="559"/>
+      <c r="N50" s="559"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="555"/>
+      <c r="Q50" s="571"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -11110,11 +11119,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="556">
+      <c r="M53" s="536">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="557"/>
+      <c r="N53" s="537"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11539,26 +11548,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="550" t="s">
+      <c r="H77" s="566" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="551"/>
+      <c r="I77" s="567"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="552">
+      <c r="K77" s="568">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="553"/>
+      <c r="L77" s="569"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="544" t="s">
+      <c r="D78" s="560" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="544"/>
+      <c r="E78" s="560"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -11567,22 +11576,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="545" t="s">
+      <c r="D79" s="561" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="545"/>
+      <c r="E79" s="561"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="546" t="s">
+      <c r="I79" s="562" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="547"/>
-      <c r="K79" s="548">
+      <c r="J79" s="563"/>
+      <c r="K79" s="564">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="548"/>
+      <c r="L79" s="564"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11623,11 +11632,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="549">
+      <c r="K81" s="565">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="548"/>
+      <c r="L81" s="564"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11644,22 +11653,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="537" t="s">
+      <c r="D83" s="553" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="538"/>
+      <c r="E83" s="554"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="539" t="s">
+      <c r="I83" s="555" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="540"/>
-      <c r="K83" s="541">
+      <c r="J83" s="556"/>
+      <c r="K83" s="557">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="541"/>
+      <c r="L83" s="557"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11806,12 +11815,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -11828,6 +11831,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12997,10 +13006,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="570" t="s">
+      <c r="I37" s="575" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="571"/>
+      <c r="J37" s="576"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -13019,8 +13028,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="572"/>
-      <c r="J38" s="573"/>
+      <c r="I38" s="577"/>
+      <c r="J38" s="578"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -13039,8 +13048,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="574"/>
-      <c r="J39" s="575"/>
+      <c r="I39" s="579"/>
+      <c r="J39" s="580"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -13598,10 +13607,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="576" t="s">
+      <c r="I67" s="581" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="577"/>
+      <c r="J67" s="582"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -13623,11 +13632,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="580" t="s">
+      <c r="G68" s="585" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="585"/>
-      <c r="J68" s="586"/>
+      <c r="I68" s="590"/>
+      <c r="J68" s="591"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -13638,7 +13647,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="581"/>
+      <c r="G69" s="586"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -14226,23 +14235,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="560"/>
-      <c r="C1" s="562" t="s">
+      <c r="B1" s="540"/>
+      <c r="C1" s="542" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="563"/>
-      <c r="E1" s="563"/>
-      <c r="F1" s="563"/>
-      <c r="G1" s="563"/>
-      <c r="H1" s="563"/>
-      <c r="I1" s="563"/>
-      <c r="J1" s="563"/>
-      <c r="K1" s="563"/>
-      <c r="L1" s="563"/>
-      <c r="M1" s="563"/>
+      <c r="D1" s="543"/>
+      <c r="E1" s="543"/>
+      <c r="F1" s="543"/>
+      <c r="G1" s="543"/>
+      <c r="H1" s="543"/>
+      <c r="I1" s="543"/>
+      <c r="J1" s="543"/>
+      <c r="K1" s="543"/>
+      <c r="L1" s="543"/>
+      <c r="M1" s="543"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="561"/>
+      <c r="B2" s="541"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -14252,27 +14261,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="565"/>
+      <c r="B3" s="544" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="545"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="566" t="s">
+      <c r="H3" s="546" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="566"/>
+      <c r="I3" s="546"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="558" t="s">
+      <c r="P3" s="538" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="587" t="s">
+      <c r="R3" s="592" t="s">
         <v>3</v>
       </c>
     </row>
@@ -14287,14 +14296,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="533" t="s">
+      <c r="E4" s="549" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="534"/>
-      <c r="H4" s="535" t="s">
+      <c r="F4" s="550"/>
+      <c r="H4" s="551" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="536"/>
+      <c r="I4" s="552"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -14304,11 +14313,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="559"/>
+      <c r="P4" s="539"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="588"/>
+      <c r="R4" s="593"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -16364,11 +16373,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="542">
+      <c r="M49" s="558">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="542">
+      <c r="N49" s="558">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -16376,7 +16385,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="554">
+      <c r="Q49" s="570">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -16409,10 +16418,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="543"/>
-      <c r="N50" s="543"/>
+      <c r="M50" s="559"/>
+      <c r="N50" s="559"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="555"/>
+      <c r="Q50" s="571"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -16497,11 +16506,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="556">
+      <c r="M53" s="536">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="557"/>
+      <c r="N53" s="537"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -16830,26 +16839,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="550" t="s">
+      <c r="H69" s="566" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="551"/>
+      <c r="I69" s="567"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="552">
+      <c r="K69" s="568">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="553"/>
+      <c r="L69" s="569"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="544" t="s">
+      <c r="D70" s="560" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="544"/>
+      <c r="E70" s="560"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -16858,23 +16867,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="545" t="s">
+      <c r="D71" s="561" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="545"/>
+      <c r="E71" s="561"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="546" t="s">
+      <c r="I71" s="562" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="547"/>
-      <c r="K71" s="548">
+      <c r="J71" s="563"/>
+      <c r="K71" s="564">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="548"/>
+      <c r="L71" s="564"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -16916,11 +16925,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="549">
+      <c r="K73" s="565">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="548"/>
+      <c r="L73" s="564"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -16937,22 +16946,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="537" t="s">
+      <c r="D75" s="553" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="538"/>
+      <c r="E75" s="554"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="539" t="s">
+      <c r="I75" s="555" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="540"/>
-      <c r="K75" s="541">
+      <c r="J75" s="556"/>
+      <c r="K75" s="557">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="541"/>
+      <c r="L75" s="557"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -17100,6 +17109,12 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17116,12 +17131,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18291,10 +18300,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="570" t="s">
+      <c r="I37" s="575" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="571"/>
+      <c r="J37" s="576"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -18313,8 +18322,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="572"/>
-      <c r="J38" s="573"/>
+      <c r="I38" s="577"/>
+      <c r="J38" s="578"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -18333,8 +18342,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="574"/>
-      <c r="J39" s="575"/>
+      <c r="I39" s="579"/>
+      <c r="J39" s="580"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -18892,10 +18901,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="576" t="s">
+      <c r="I67" s="581" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="577"/>
+      <c r="J67" s="582"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -18917,11 +18926,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="580" t="s">
+      <c r="G68" s="585" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="585"/>
-      <c r="J68" s="586"/>
+      <c r="I68" s="590"/>
+      <c r="J68" s="591"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -18932,7 +18941,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="581"/>
+      <c r="G69" s="586"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -19494,8 +19503,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19521,23 +19530,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="560"/>
-      <c r="C1" s="562" t="s">
+      <c r="B1" s="540"/>
+      <c r="C1" s="542" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="563"/>
-      <c r="E1" s="563"/>
-      <c r="F1" s="563"/>
-      <c r="G1" s="563"/>
-      <c r="H1" s="563"/>
-      <c r="I1" s="563"/>
-      <c r="J1" s="563"/>
-      <c r="K1" s="563"/>
-      <c r="L1" s="563"/>
-      <c r="M1" s="563"/>
+      <c r="D1" s="543"/>
+      <c r="E1" s="543"/>
+      <c r="F1" s="543"/>
+      <c r="G1" s="543"/>
+      <c r="H1" s="543"/>
+      <c r="I1" s="543"/>
+      <c r="J1" s="543"/>
+      <c r="K1" s="543"/>
+      <c r="L1" s="543"/>
+      <c r="M1" s="543"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="561"/>
+      <c r="B2" s="541"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -19547,25 +19556,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="565"/>
+      <c r="B3" s="544" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="545"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="566" t="s">
+      <c r="H3" s="546" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="566"/>
+      <c r="I3" s="546"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="558" t="s">
+      <c r="P3" s="538" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="591"/>
-      <c r="R3" s="587" t="s">
+      <c r="Q3" s="533"/>
+      <c r="R3" s="592" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19580,14 +19589,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="533" t="s">
+      <c r="E4" s="549" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="534"/>
-      <c r="H4" s="535" t="s">
+      <c r="F4" s="550"/>
+      <c r="H4" s="551" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="536"/>
+      <c r="I4" s="552"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -19597,11 +19606,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="559"/>
+      <c r="P4" s="539"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="588"/>
+      <c r="R4" s="593"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -19632,7 +19641,7 @@
       <c r="J5" s="40">
         <v>45108</v>
       </c>
-      <c r="K5" s="590" t="s">
+      <c r="K5" s="532" t="s">
         <v>767</v>
       </c>
       <c r="L5" s="13">
@@ -19697,13 +19706,13 @@
         <v>118386</v>
       </c>
       <c r="Q6" s="45">
-        <f t="shared" ref="Q5:Q47" si="1">P6-F6</f>
+        <f t="shared" ref="Q6:Q47" si="1">P6-F6</f>
         <v>0</v>
       </c>
       <c r="R6" s="46">
         <v>0</v>
       </c>
-      <c r="S6" s="593" t="s">
+      <c r="S6" s="535" t="s">
         <v>770</v>
       </c>
       <c r="T6" s="233"/>
@@ -19768,29 +19777,37 @@
       <c r="B8" s="32">
         <v>45111</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="33">
+        <v>15562</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>772</v>
+      </c>
       <c r="E8" s="35">
         <v>45111</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="36">
+        <v>159673</v>
+      </c>
       <c r="G8" s="37"/>
       <c r="H8" s="38">
         <v>45111</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="39">
+        <v>1789</v>
+      </c>
       <c r="J8" s="52"/>
       <c r="K8" s="342"/>
       <c r="L8" s="49"/>
       <c r="M8" s="42">
-        <v>0</v>
+        <v>80898</v>
       </c>
       <c r="N8" s="43">
-        <v>0</v>
+        <v>61424</v>
       </c>
       <c r="P8" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>159673</v>
       </c>
       <c r="Q8" s="45">
         <f t="shared" si="1"/>
@@ -19811,29 +19828,37 @@
       <c r="B9" s="32">
         <v>45112</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="33">
+        <v>18542.5</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>773</v>
+      </c>
       <c r="E9" s="35">
         <v>45112</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="36">
+        <v>133632</v>
+      </c>
       <c r="G9" s="37"/>
       <c r="H9" s="38">
         <v>45112</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="39">
+        <v>1533</v>
+      </c>
       <c r="J9" s="40"/>
       <c r="K9" s="348"/>
       <c r="L9" s="49"/>
       <c r="M9" s="42">
-        <v>0</v>
+        <v>61007.5</v>
       </c>
       <c r="N9" s="43">
-        <v>0</v>
+        <v>52549</v>
       </c>
       <c r="P9" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>133632</v>
       </c>
       <c r="Q9" s="45">
         <f t="shared" si="1"/>
@@ -19854,33 +19879,41 @@
       <c r="B10" s="32">
         <v>45113</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="33">
+        <v>14760</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>774</v>
+      </c>
       <c r="E10" s="35">
         <v>45113</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="36">
+        <v>155261</v>
+      </c>
       <c r="G10" s="37"/>
       <c r="H10" s="38">
         <v>45113</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="39">
+        <v>1711</v>
+      </c>
       <c r="J10" s="40"/>
       <c r="K10" s="54"/>
       <c r="L10" s="55"/>
       <c r="M10" s="42">
-        <v>0</v>
+        <v>81885</v>
       </c>
       <c r="N10" s="43">
-        <v>0</v>
+        <v>51697</v>
       </c>
       <c r="P10" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150053</v>
       </c>
       <c r="Q10" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5208</v>
       </c>
       <c r="R10" s="46">
         <v>0</v>
@@ -20016,9 +20049,9 @@
       <c r="R13" s="46">
         <v>0</v>
       </c>
-      <c r="S13" s="589"/>
-      <c r="T13" s="589"/>
-      <c r="U13" s="589"/>
+      <c r="S13" s="531"/>
+      <c r="T13" s="531"/>
+      <c r="U13" s="531"/>
       <c r="V13" s="233"/>
     </row>
     <row r="14" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20855,7 +20888,7 @@
       <c r="G34" s="37"/>
       <c r="H34" s="38"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="592">
+      <c r="J34" s="534">
         <v>45108</v>
       </c>
       <c r="K34" s="373" t="s">
@@ -21312,21 +21345,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="542">
+      <c r="M49" s="558">
         <f>SUM(M5:M40)</f>
-        <v>175809.5</v>
-      </c>
-      <c r="N49" s="542">
+        <v>399600</v>
+      </c>
+      <c r="N49" s="558">
         <f>SUM(N5:N40)</f>
-        <v>175164</v>
+        <v>340834</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>482737</v>
-      </c>
-      <c r="Q49" s="554">
+        <v>926095</v>
+      </c>
+      <c r="Q49" s="570">
         <f>SUM(Q5:Q40)</f>
-        <v>28972</v>
+        <v>23764</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -21345,10 +21378,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="543"/>
-      <c r="N50" s="543"/>
+      <c r="M50" s="559"/>
+      <c r="N50" s="559"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="555"/>
+      <c r="Q50" s="571"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>3094</v>
@@ -21403,11 +21436,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="556">
+      <c r="M53" s="536">
         <f>M49+N49</f>
-        <v>350973.5</v>
-      </c>
-      <c r="N53" s="557"/>
+        <v>740434</v>
+      </c>
+      <c r="N53" s="537"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -21646,7 +21679,7 @@
       </c>
       <c r="C67" s="519">
         <f>SUM(C5:C61)</f>
-        <v>76103</v>
+        <v>124967.5</v>
       </c>
       <c r="D67" s="520"/>
       <c r="E67" s="521" t="s">
@@ -21654,7 +21687,7 @@
       </c>
       <c r="F67" s="522">
         <f>SUM(F5:F61)</f>
-        <v>450671</v>
+        <v>899237</v>
       </c>
       <c r="G67" s="523"/>
       <c r="H67" s="521" t="s">
@@ -21662,7 +21695,7 @@
       </c>
       <c r="I67" s="524">
         <f>SUM(I5:I61)</f>
-        <v>4910.5</v>
+        <v>9943.5</v>
       </c>
       <c r="J67" s="525"/>
       <c r="K67" s="526" t="s">
@@ -21688,50 +21721,50 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="550" t="s">
+      <c r="H69" s="566" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="551"/>
+      <c r="I69" s="567"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="552">
+      <c r="K69" s="568">
         <f>I67+L67</f>
-        <v>55660.5</v>
-      </c>
-      <c r="L69" s="553"/>
+        <v>60693.5</v>
+      </c>
+      <c r="L69" s="569"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="544" t="s">
+      <c r="D70" s="560" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="544"/>
+      <c r="E70" s="560"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
-        <v>318907.5</v>
+        <v>713576</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="545" t="s">
+      <c r="D71" s="561" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="545"/>
+      <c r="E71" s="561"/>
       <c r="F71" s="101">
         <v>0</v>
       </c>
-      <c r="I71" s="546" t="s">
+      <c r="I71" s="562" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="547"/>
-      <c r="K71" s="548">
+      <c r="J71" s="563"/>
+      <c r="K71" s="564">
         <f>F73+F74+F75</f>
-        <v>3139458.81</v>
-      </c>
-      <c r="L71" s="548"/>
+        <v>3534127.31</v>
+      </c>
+      <c r="L71" s="564"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -21765,18 +21798,18 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>318907.5</v>
+        <v>713576</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="549">
+      <c r="K73" s="565">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="548"/>
+      <c r="L73" s="564"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -21793,22 +21826,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="537" t="s">
+      <c r="D75" s="553" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="538"/>
+      <c r="E75" s="554"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="539" t="s">
+      <c r="I75" s="555" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="540"/>
-      <c r="K75" s="541">
+      <c r="J75" s="556"/>
+      <c r="K75" s="557">
         <f>K71+K73</f>
-        <v>8071.7700000000186</v>
-      </c>
-      <c r="L75" s="541"/>
+        <v>402740.27</v>
+      </c>
+      <c r="L75" s="557"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -21953,28 +21986,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
     <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23143,10 +23176,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="570" t="s">
+      <c r="I37" s="575" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="571"/>
+      <c r="J37" s="576"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -23165,8 +23198,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="572"/>
-      <c r="J38" s="573"/>
+      <c r="I38" s="577"/>
+      <c r="J38" s="578"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -23185,8 +23218,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="574"/>
-      <c r="J39" s="575"/>
+      <c r="I39" s="579"/>
+      <c r="J39" s="580"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -23744,10 +23777,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="576" t="s">
+      <c r="I67" s="581" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="577"/>
+      <c r="J67" s="582"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -23769,11 +23802,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="580" t="s">
+      <c r="G68" s="585" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="585"/>
-      <c r="J68" s="586"/>
+      <c r="I68" s="590"/>
+      <c r="J68" s="591"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -23784,7 +23817,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="581"/>
+      <c r="G69" s="586"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -24340,12 +24373,109 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F10:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="46.7109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="5">
+        <v>34381.72</v>
+      </c>
+    </row>
+    <row r="11" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="5">
+        <v>19507.55</v>
+      </c>
+    </row>
+    <row r="12" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="5">
+        <v>13626</v>
+      </c>
+    </row>
+    <row r="13" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="5">
+        <v>137491.6</v>
+      </c>
+    </row>
+    <row r="14" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="5">
+        <v>86570.4</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="5">
+        <v>76708.800000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="5">
+        <v>47903.7</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="5">
+        <v>48347.37</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="5">
+        <v>66833.850000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="5">
+        <v>1345.4</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="5">
+        <v>62164.47</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="5">
+        <v>51273.68</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="5">
+        <v>49319.38</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="5">
+        <v>19983.599999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="5">
+        <v>60011.519999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="5">
+        <v>73787.100000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="5">
+        <v>54291.9</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="5">
+        <f>SUM(F10:F27)</f>
+        <v>903548.04</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25718,10 +25848,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="567"/>
-      <c r="J36" s="568"/>
-      <c r="K36" s="568"/>
-      <c r="L36" s="569"/>
+      <c r="I36" s="572"/>
+      <c r="J36" s="573"/>
+      <c r="K36" s="573"/>
+      <c r="L36" s="574"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -25748,10 +25878,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="567"/>
-      <c r="J37" s="568"/>
-      <c r="K37" s="568"/>
-      <c r="L37" s="569"/>
+      <c r="I37" s="572"/>
+      <c r="J37" s="573"/>
+      <c r="K37" s="573"/>
+      <c r="L37" s="574"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -25808,10 +25938,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="570" t="s">
+      <c r="I40" s="575" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="571"/>
+      <c r="J40" s="576"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -25830,8 +25960,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="572"/>
-      <c r="J41" s="573"/>
+      <c r="I41" s="577"/>
+      <c r="J41" s="578"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -25850,8 +25980,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="574"/>
-      <c r="J42" s="575"/>
+      <c r="I42" s="579"/>
+      <c r="J42" s="580"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -26355,10 +26485,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="576" t="s">
+      <c r="I67" s="581" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="577"/>
+      <c r="J67" s="582"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -26378,11 +26508,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="580" t="s">
+      <c r="G68" s="585" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="578"/>
-      <c r="J68" s="579"/>
+      <c r="I68" s="583"/>
+      <c r="J68" s="584"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -26393,7 +26523,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="581"/>
+      <c r="G69" s="586"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -27024,23 +27154,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="560"/>
-      <c r="C1" s="562" t="s">
+      <c r="B1" s="540"/>
+      <c r="C1" s="542" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="563"/>
-      <c r="E1" s="563"/>
-      <c r="F1" s="563"/>
-      <c r="G1" s="563"/>
-      <c r="H1" s="563"/>
-      <c r="I1" s="563"/>
-      <c r="J1" s="563"/>
-      <c r="K1" s="563"/>
-      <c r="L1" s="563"/>
-      <c r="M1" s="563"/>
+      <c r="D1" s="543"/>
+      <c r="E1" s="543"/>
+      <c r="F1" s="543"/>
+      <c r="G1" s="543"/>
+      <c r="H1" s="543"/>
+      <c r="I1" s="543"/>
+      <c r="J1" s="543"/>
+      <c r="K1" s="543"/>
+      <c r="L1" s="543"/>
+      <c r="M1" s="543"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="561"/>
+      <c r="B2" s="541"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27050,24 +27180,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="565"/>
+      <c r="B3" s="544" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="545"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="566" t="s">
+      <c r="H3" s="546" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="566"/>
+      <c r="I3" s="546"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="558" t="s">
+      <c r="P3" s="538" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="531" t="s">
+      <c r="R3" s="547" t="s">
         <v>3</v>
       </c>
     </row>
@@ -27082,14 +27212,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="533" t="s">
+      <c r="E4" s="549" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="534"/>
-      <c r="H4" s="535" t="s">
+      <c r="F4" s="550"/>
+      <c r="H4" s="551" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="536"/>
+      <c r="I4" s="552"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27099,11 +27229,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="559"/>
+      <c r="P4" s="539"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="532"/>
+      <c r="R4" s="548"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -29079,11 +29209,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="542">
+      <c r="M49" s="558">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="542">
+      <c r="N49" s="558">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -29091,7 +29221,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="554">
+      <c r="Q49" s="570">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -29124,10 +29254,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="543"/>
-      <c r="N50" s="543"/>
+      <c r="M50" s="559"/>
+      <c r="N50" s="559"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="555"/>
+      <c r="Q50" s="571"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -29218,11 +29348,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="556">
+      <c r="M53" s="536">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="557"/>
+      <c r="N53" s="537"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -29781,26 +29911,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="550" t="s">
+      <c r="H77" s="566" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="551"/>
+      <c r="I77" s="567"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="552">
+      <c r="K77" s="568">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="553"/>
+      <c r="L77" s="569"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="544" t="s">
+      <c r="D78" s="560" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="544"/>
+      <c r="E78" s="560"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -29809,22 +29939,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="545" t="s">
+      <c r="D79" s="561" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="545"/>
+      <c r="E79" s="561"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="546" t="s">
+      <c r="I79" s="562" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="547"/>
-      <c r="K79" s="548">
+      <c r="J79" s="563"/>
+      <c r="K79" s="564">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="548"/>
+      <c r="L79" s="564"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -29865,11 +29995,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="549">
+      <c r="K81" s="565">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="548"/>
+      <c r="L81" s="564"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -29886,22 +30016,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="537" t="s">
+      <c r="D83" s="553" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="538"/>
+      <c r="E83" s="554"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="582" t="s">
+      <c r="I83" s="587" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="583"/>
-      <c r="K83" s="584">
+      <c r="J83" s="588"/>
+      <c r="K83" s="589">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="584"/>
+      <c r="L83" s="589"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -30048,6 +30178,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30064,12 +30200,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -31481,10 +31611,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="567"/>
-      <c r="J36" s="568"/>
-      <c r="K36" s="568"/>
-      <c r="L36" s="569"/>
+      <c r="I36" s="572"/>
+      <c r="J36" s="573"/>
+      <c r="K36" s="573"/>
+      <c r="L36" s="574"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -31511,10 +31641,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="567"/>
-      <c r="J37" s="568"/>
-      <c r="K37" s="568"/>
-      <c r="L37" s="569"/>
+      <c r="I37" s="572"/>
+      <c r="J37" s="573"/>
+      <c r="K37" s="573"/>
+      <c r="L37" s="574"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -31581,10 +31711,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="570" t="s">
+      <c r="I40" s="575" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="571"/>
+      <c r="J40" s="576"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -31603,8 +31733,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="572"/>
-      <c r="J41" s="573"/>
+      <c r="I41" s="577"/>
+      <c r="J41" s="578"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -31623,8 +31753,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="574"/>
-      <c r="J42" s="575"/>
+      <c r="I42" s="579"/>
+      <c r="J42" s="580"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -32128,10 +32258,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="576" t="s">
+      <c r="I67" s="581" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="577"/>
+      <c r="J67" s="582"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -32151,11 +32281,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="580" t="s">
+      <c r="G68" s="585" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="585"/>
-      <c r="J68" s="586"/>
+      <c r="I68" s="590"/>
+      <c r="J68" s="591"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -32166,7 +32296,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="581"/>
+      <c r="G69" s="586"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -32781,23 +32911,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="560"/>
-      <c r="C1" s="562" t="s">
+      <c r="B1" s="540"/>
+      <c r="C1" s="542" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="563"/>
-      <c r="E1" s="563"/>
-      <c r="F1" s="563"/>
-      <c r="G1" s="563"/>
-      <c r="H1" s="563"/>
-      <c r="I1" s="563"/>
-      <c r="J1" s="563"/>
-      <c r="K1" s="563"/>
-      <c r="L1" s="563"/>
-      <c r="M1" s="563"/>
+      <c r="D1" s="543"/>
+      <c r="E1" s="543"/>
+      <c r="F1" s="543"/>
+      <c r="G1" s="543"/>
+      <c r="H1" s="543"/>
+      <c r="I1" s="543"/>
+      <c r="J1" s="543"/>
+      <c r="K1" s="543"/>
+      <c r="L1" s="543"/>
+      <c r="M1" s="543"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="561"/>
+      <c r="B2" s="541"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -32807,24 +32937,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="565"/>
+      <c r="B3" s="544" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="545"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="566" t="s">
+      <c r="H3" s="546" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="566"/>
+      <c r="I3" s="546"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="558" t="s">
+      <c r="P3" s="538" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="587" t="s">
+      <c r="R3" s="592" t="s">
         <v>3</v>
       </c>
     </row>
@@ -32839,14 +32969,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="533" t="s">
+      <c r="E4" s="549" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="534"/>
-      <c r="H4" s="535" t="s">
+      <c r="F4" s="550"/>
+      <c r="H4" s="551" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="536"/>
+      <c r="I4" s="552"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -32856,11 +32986,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="559"/>
+      <c r="P4" s="539"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="588"/>
+      <c r="R4" s="593"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -34841,11 +34971,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="542">
+      <c r="M49" s="558">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="542">
+      <c r="N49" s="558">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -34853,7 +34983,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="554">
+      <c r="Q49" s="570">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -34886,10 +35016,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="543"/>
-      <c r="N50" s="543"/>
+      <c r="M50" s="559"/>
+      <c r="N50" s="559"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="555"/>
+      <c r="Q50" s="571"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -34980,11 +35110,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="556">
+      <c r="M53" s="536">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="557"/>
+      <c r="N53" s="537"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -35463,26 +35593,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="550" t="s">
+      <c r="H77" s="566" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="551"/>
+      <c r="I77" s="567"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="552">
+      <c r="K77" s="568">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="553"/>
+      <c r="L77" s="569"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="544" t="s">
+      <c r="D78" s="560" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="544"/>
+      <c r="E78" s="560"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -35491,22 +35621,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="545" t="s">
+      <c r="D79" s="561" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="545"/>
+      <c r="E79" s="561"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="546" t="s">
+      <c r="I79" s="562" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="547"/>
-      <c r="K79" s="548">
+      <c r="J79" s="563"/>
+      <c r="K79" s="564">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="548"/>
+      <c r="L79" s="564"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -35547,11 +35677,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="549">
+      <c r="K81" s="565">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="548"/>
+      <c r="L81" s="564"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -35568,22 +35698,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="537" t="s">
+      <c r="D83" s="553" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="538"/>
+      <c r="E83" s="554"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="539" t="s">
+      <c r="I83" s="555" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="540"/>
-      <c r="K83" s="541">
+      <c r="J83" s="556"/>
+      <c r="K83" s="557">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="541"/>
+      <c r="L83" s="557"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -35730,12 +35860,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -35752,6 +35876,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37054,10 +37184,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="567"/>
-      <c r="J36" s="568"/>
-      <c r="K36" s="568"/>
-      <c r="L36" s="569"/>
+      <c r="I36" s="572"/>
+      <c r="J36" s="573"/>
+      <c r="K36" s="573"/>
+      <c r="L36" s="574"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -37074,10 +37204,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="567"/>
-      <c r="J37" s="568"/>
-      <c r="K37" s="568"/>
-      <c r="L37" s="569"/>
+      <c r="I37" s="572"/>
+      <c r="J37" s="573"/>
+      <c r="K37" s="573"/>
+      <c r="L37" s="574"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -37134,10 +37264,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="570" t="s">
+      <c r="I40" s="575" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="571"/>
+      <c r="J40" s="576"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -37156,8 +37286,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="572"/>
-      <c r="J41" s="573"/>
+      <c r="I41" s="577"/>
+      <c r="J41" s="578"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -37176,8 +37306,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="574"/>
-      <c r="J42" s="575"/>
+      <c r="I42" s="579"/>
+      <c r="J42" s="580"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -37681,10 +37811,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="576" t="s">
+      <c r="I67" s="581" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="577"/>
+      <c r="J67" s="582"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -37704,11 +37834,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="580" t="s">
+      <c r="G68" s="585" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="585"/>
-      <c r="J68" s="586"/>
+      <c r="I68" s="590"/>
+      <c r="J68" s="591"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -37719,7 +37849,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="581"/>
+      <c r="G69" s="586"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -38325,23 +38455,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="560"/>
-      <c r="C1" s="562" t="s">
+      <c r="B1" s="540"/>
+      <c r="C1" s="542" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="563"/>
-      <c r="E1" s="563"/>
-      <c r="F1" s="563"/>
-      <c r="G1" s="563"/>
-      <c r="H1" s="563"/>
-      <c r="I1" s="563"/>
-      <c r="J1" s="563"/>
-      <c r="K1" s="563"/>
-      <c r="L1" s="563"/>
-      <c r="M1" s="563"/>
+      <c r="D1" s="543"/>
+      <c r="E1" s="543"/>
+      <c r="F1" s="543"/>
+      <c r="G1" s="543"/>
+      <c r="H1" s="543"/>
+      <c r="I1" s="543"/>
+      <c r="J1" s="543"/>
+      <c r="K1" s="543"/>
+      <c r="L1" s="543"/>
+      <c r="M1" s="543"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="561"/>
+      <c r="B2" s="541"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -38351,24 +38481,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="565"/>
+      <c r="B3" s="544" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="545"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="566" t="s">
+      <c r="H3" s="546" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="566"/>
+      <c r="I3" s="546"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="558" t="s">
+      <c r="P3" s="538" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="587" t="s">
+      <c r="R3" s="592" t="s">
         <v>3</v>
       </c>
     </row>
@@ -38383,14 +38513,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="533" t="s">
+      <c r="E4" s="549" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="534"/>
-      <c r="H4" s="535" t="s">
+      <c r="F4" s="550"/>
+      <c r="H4" s="551" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="536"/>
+      <c r="I4" s="552"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -38400,11 +38530,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="559"/>
+      <c r="P4" s="539"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="588"/>
+      <c r="R4" s="593"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -40425,11 +40555,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="542">
+      <c r="M49" s="558">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="542">
+      <c r="N49" s="558">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -40437,7 +40567,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="554">
+      <c r="Q49" s="570">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -40464,10 +40594,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="543"/>
-      <c r="N50" s="543"/>
+      <c r="M50" s="559"/>
+      <c r="N50" s="559"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="555"/>
+      <c r="Q50" s="571"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -40541,11 +40671,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="556">
+      <c r="M53" s="536">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="557"/>
+      <c r="N53" s="537"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -41174,26 +41304,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="550" t="s">
+      <c r="H79" s="566" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="551"/>
+      <c r="I79" s="567"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="552">
+      <c r="K79" s="568">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="553"/>
+      <c r="L79" s="569"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="544" t="s">
+      <c r="D80" s="560" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="544"/>
+      <c r="E80" s="560"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -41202,22 +41332,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="545" t="s">
+      <c r="D81" s="561" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="545"/>
+      <c r="E81" s="561"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="546" t="s">
+      <c r="I81" s="562" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="547"/>
-      <c r="K81" s="548">
+      <c r="J81" s="563"/>
+      <c r="K81" s="564">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="548"/>
+      <c r="L81" s="564"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -41258,11 +41388,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="549">
+      <c r="K83" s="565">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="548"/>
+      <c r="L83" s="564"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -41279,22 +41409,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="537" t="s">
+      <c r="D85" s="553" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="538"/>
+      <c r="E85" s="554"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="539" t="s">
+      <c r="I85" s="555" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="540"/>
-      <c r="K85" s="541">
+      <c r="J85" s="556"/>
+      <c r="K85" s="557">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="541"/>
+      <c r="L85" s="557"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -41442,6 +41572,12 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -41458,12 +41594,6 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -42783,10 +42913,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="567"/>
-      <c r="J36" s="568"/>
-      <c r="K36" s="568"/>
-      <c r="L36" s="569"/>
+      <c r="I36" s="572"/>
+      <c r="J36" s="573"/>
+      <c r="K36" s="573"/>
+      <c r="L36" s="574"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -42809,10 +42939,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="567"/>
-      <c r="J37" s="568"/>
-      <c r="K37" s="568"/>
-      <c r="L37" s="569"/>
+      <c r="I37" s="572"/>
+      <c r="J37" s="573"/>
+      <c r="K37" s="573"/>
+      <c r="L37" s="574"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -42887,10 +43017,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="570" t="s">
+      <c r="I40" s="575" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="571"/>
+      <c r="J40" s="576"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -42915,8 +43045,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="572"/>
-      <c r="J41" s="573"/>
+      <c r="I41" s="577"/>
+      <c r="J41" s="578"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -42941,8 +43071,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="574"/>
-      <c r="J42" s="575"/>
+      <c r="I42" s="579"/>
+      <c r="J42" s="580"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -43464,10 +43594,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="576" t="s">
+      <c r="I67" s="581" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="577"/>
+      <c r="J67" s="582"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -43487,11 +43617,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="580" t="s">
+      <c r="G68" s="585" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="585"/>
-      <c r="J68" s="586"/>
+      <c r="I68" s="590"/>
+      <c r="J68" s="591"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -43502,7 +43632,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="581"/>
+      <c r="G69" s="586"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -44118,23 +44248,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="560"/>
-      <c r="C1" s="562" t="s">
+      <c r="B1" s="540"/>
+      <c r="C1" s="542" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="563"/>
-      <c r="E1" s="563"/>
-      <c r="F1" s="563"/>
-      <c r="G1" s="563"/>
-      <c r="H1" s="563"/>
-      <c r="I1" s="563"/>
-      <c r="J1" s="563"/>
-      <c r="K1" s="563"/>
-      <c r="L1" s="563"/>
-      <c r="M1" s="563"/>
+      <c r="D1" s="543"/>
+      <c r="E1" s="543"/>
+      <c r="F1" s="543"/>
+      <c r="G1" s="543"/>
+      <c r="H1" s="543"/>
+      <c r="I1" s="543"/>
+      <c r="J1" s="543"/>
+      <c r="K1" s="543"/>
+      <c r="L1" s="543"/>
+      <c r="M1" s="543"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="561"/>
+      <c r="B2" s="541"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -44144,27 +44274,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="565"/>
+      <c r="B3" s="544" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="545"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="566" t="s">
+      <c r="H3" s="546" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="566"/>
+      <c r="I3" s="546"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="558" t="s">
+      <c r="P3" s="538" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="587" t="s">
+      <c r="R3" s="592" t="s">
         <v>3</v>
       </c>
     </row>
@@ -44179,14 +44309,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="533" t="s">
+      <c r="E4" s="549" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="534"/>
-      <c r="H4" s="535" t="s">
+      <c r="F4" s="550"/>
+      <c r="H4" s="551" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="536"/>
+      <c r="I4" s="552"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -44196,11 +44326,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="559"/>
+      <c r="P4" s="539"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="588"/>
+      <c r="R4" s="593"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -46203,11 +46333,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="542">
+      <c r="M49" s="558">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="542">
+      <c r="N49" s="558">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -46215,7 +46345,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="554">
+      <c r="Q49" s="570">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -46248,10 +46378,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="543"/>
-      <c r="N50" s="543"/>
+      <c r="M50" s="559"/>
+      <c r="N50" s="559"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="555"/>
+      <c r="Q50" s="571"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -46330,11 +46460,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="556">
+      <c r="M53" s="536">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="557"/>
+      <c r="N53" s="537"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -46813,26 +46943,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="550" t="s">
+      <c r="H77" s="566" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="551"/>
+      <c r="I77" s="567"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="552">
+      <c r="K77" s="568">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="553"/>
+      <c r="L77" s="569"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="544" t="s">
+      <c r="D78" s="560" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="544"/>
+      <c r="E78" s="560"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -46841,22 +46971,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="545" t="s">
+      <c r="D79" s="561" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="545"/>
+      <c r="E79" s="561"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="546" t="s">
+      <c r="I79" s="562" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="547"/>
-      <c r="K79" s="548">
+      <c r="J79" s="563"/>
+      <c r="K79" s="564">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="548"/>
+      <c r="L79" s="564"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -46897,11 +47027,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="549">
+      <c r="K81" s="565">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="548"/>
+      <c r="L81" s="564"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -46918,22 +47048,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="537" t="s">
+      <c r="D83" s="553" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="538"/>
+      <c r="E83" s="554"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="582" t="s">
+      <c r="I83" s="587" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="583"/>
-      <c r="K83" s="584">
+      <c r="J83" s="588"/>
+      <c r="K83" s="589">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="584"/>
+      <c r="L83" s="589"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -47081,12 +47211,6 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47103,6 +47227,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="781">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2861,10 +2861,28 @@
     <t>POLLO-QUESOS-JAMON-SALCHICHA</t>
   </si>
   <si>
-    <t>HIERVAS-JAMON-QUESOS-POLLO-PALITOS</t>
-  </si>
-  <si>
     <t>PAN BCO-QUESOS-POLLO-CHORIZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  </t>
+  </si>
+  <si>
+    <t>HIERBAS-JAMON-QUESOS-POLLO-PALITOS D QUESO</t>
+  </si>
+  <si>
+    <t>PASTOR--MAIZ-POLLO-QUESOS-ARABE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLLO-QUESOS-</t>
+  </si>
+  <si>
+    <t>NOMINA # 27 Y Vac Dario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMINA # 27 </t>
+  </si>
+  <si>
+    <t>PASTOR-TOSTADAS-CHORIZO-CHISTORRA</t>
   </si>
 </sst>
 </file>
@@ -19503,8 +19521,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19829,7 +19847,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="33">
-        <v>18542.5</v>
+        <v>14760</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>773</v>
@@ -19838,34 +19856,34 @@
         <v>45112</v>
       </c>
       <c r="F9" s="36">
-        <v>133632</v>
+        <v>155261</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="38">
         <v>45112</v>
       </c>
       <c r="I9" s="39">
-        <v>1533</v>
+        <v>1711</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="348"/>
       <c r="L9" s="49"/>
       <c r="M9" s="42">
-        <v>61007.5</v>
+        <f>81885+6611</f>
+        <v>88496</v>
       </c>
       <c r="N9" s="43">
-        <v>52549</v>
+        <v>51697</v>
       </c>
       <c r="P9" s="49">
         <f t="shared" si="0"/>
-        <v>133632</v>
+        <v>156664</v>
       </c>
       <c r="Q9" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="46">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R9" s="282" t="s">
+        <v>774</v>
       </c>
       <c r="S9" s="459"/>
       <c r="T9" s="233"/>
@@ -19880,40 +19898,40 @@
         <v>45113</v>
       </c>
       <c r="C10" s="33">
-        <v>14760</v>
+        <v>18542.5</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E10" s="35">
         <v>45113</v>
       </c>
       <c r="F10" s="36">
-        <v>155261</v>
+        <v>133632</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="38">
         <v>45113</v>
       </c>
       <c r="I10" s="39">
-        <v>1711</v>
+        <v>1533</v>
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="54"/>
       <c r="L10" s="55"/>
       <c r="M10" s="42">
-        <v>81885</v>
+        <v>61007.5</v>
       </c>
       <c r="N10" s="43">
-        <v>51697</v>
+        <v>52549</v>
       </c>
       <c r="P10" s="49">
         <f t="shared" si="0"/>
-        <v>150053</v>
+        <v>133632</v>
       </c>
       <c r="Q10" s="45">
         <f t="shared" si="1"/>
-        <v>-5208</v>
+        <v>0</v>
       </c>
       <c r="R10" s="46">
         <v>0</v>
@@ -19930,29 +19948,37 @@
       <c r="B11" s="32">
         <v>45114</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="47"/>
+      <c r="C11" s="33">
+        <v>7981</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>776</v>
+      </c>
       <c r="E11" s="35">
         <v>45114</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="36">
+        <v>147770</v>
+      </c>
       <c r="G11" s="37"/>
       <c r="H11" s="38">
         <v>45114</v>
       </c>
-      <c r="I11" s="39"/>
+      <c r="I11" s="39">
+        <v>3808</v>
+      </c>
       <c r="J11" s="52"/>
       <c r="K11" s="58"/>
       <c r="L11" s="49"/>
       <c r="M11" s="42">
-        <v>0</v>
+        <v>66409</v>
       </c>
       <c r="N11" s="43">
-        <v>0</v>
+        <v>69572</v>
       </c>
       <c r="P11" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>147770</v>
       </c>
       <c r="Q11" s="45">
         <f t="shared" si="1"/>
@@ -19966,37 +19992,52 @@
       <c r="U11" s="233"/>
       <c r="V11" s="233"/>
     </row>
-    <row r="12" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="504" t="s">
         <v>656</v>
       </c>
       <c r="B12" s="32">
         <v>45115</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="47"/>
+      <c r="C12" s="33">
+        <v>6557</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>777</v>
+      </c>
       <c r="E12" s="35">
         <v>45115</v>
       </c>
-      <c r="F12" s="36"/>
+      <c r="F12" s="36">
+        <v>162679</v>
+      </c>
       <c r="G12" s="37"/>
       <c r="H12" s="38">
         <v>45115</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="342"/>
-      <c r="L12" s="49"/>
+      <c r="I12" s="39">
+        <v>3945</v>
+      </c>
+      <c r="J12" s="40">
+        <v>45115</v>
+      </c>
+      <c r="K12" s="342" t="s">
+        <v>778</v>
+      </c>
+      <c r="L12" s="49">
+        <v>27219</v>
+      </c>
       <c r="M12" s="42">
-        <v>0</v>
+        <f>48444+2958</f>
+        <v>51402</v>
       </c>
       <c r="N12" s="43">
-        <v>0</v>
+        <v>73556</v>
       </c>
       <c r="O12" s="192"/>
       <c r="P12" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>162679</v>
       </c>
       <c r="Q12" s="45">
         <f t="shared" si="1"/>
@@ -20017,34 +20058,41 @@
       <c r="B13" s="32">
         <v>45116</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="51"/>
+      <c r="C13" s="33">
+        <v>21802</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>780</v>
+      </c>
       <c r="E13" s="35">
         <v>45116</v>
       </c>
-      <c r="F13" s="36"/>
+      <c r="F13" s="36">
+        <v>140546</v>
+      </c>
       <c r="G13" s="37"/>
       <c r="H13" s="38">
         <v>45116</v>
       </c>
-      <c r="I13" s="39"/>
+      <c r="I13" s="39">
+        <v>1712</v>
+      </c>
       <c r="J13" s="40"/>
       <c r="K13" s="343"/>
       <c r="L13" s="49"/>
       <c r="M13" s="42">
-        <v>0</v>
+        <v>72370</v>
       </c>
       <c r="N13" s="43">
-        <v>0</v>
+        <v>44662</v>
       </c>
       <c r="O13" s="192"/>
       <c r="P13" s="49">
         <f>N13+M13+L13+I13+C13</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>140546</v>
+      </c>
+      <c r="Q13" s="45" t="s">
+        <v>10</v>
       </c>
       <c r="R13" s="46">
         <v>0</v>
@@ -20928,9 +20976,15 @@
       <c r="G35" s="37"/>
       <c r="H35" s="38"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="374"/>
-      <c r="K35" s="373"/>
-      <c r="L35" s="375"/>
+      <c r="J35" s="374">
+        <v>45115</v>
+      </c>
+      <c r="K35" s="373" t="s">
+        <v>779</v>
+      </c>
+      <c r="L35" s="375">
+        <v>27714.5</v>
+      </c>
       <c r="M35" s="42">
         <v>0</v>
       </c>
@@ -21347,19 +21401,19 @@
       <c r="L49" s="49"/>
       <c r="M49" s="558">
         <f>SUM(M5:M40)</f>
-        <v>399600</v>
+        <v>596392</v>
       </c>
       <c r="N49" s="558">
         <f>SUM(N5:N40)</f>
-        <v>340834</v>
+        <v>528624</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>926095</v>
+        <v>1383701</v>
       </c>
       <c r="Q49" s="570">
         <f>SUM(Q5:Q40)</f>
-        <v>23764</v>
+        <v>28972</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -21438,7 +21492,7 @@
       <c r="L53" s="49"/>
       <c r="M53" s="536">
         <f>M49+N49</f>
-        <v>740434</v>
+        <v>1125016</v>
       </c>
       <c r="N53" s="537"/>
       <c r="P53" s="44"/>
@@ -21679,7 +21733,7 @@
       </c>
       <c r="C67" s="519">
         <f>SUM(C5:C61)</f>
-        <v>124967.5</v>
+        <v>161307.5</v>
       </c>
       <c r="D67" s="520"/>
       <c r="E67" s="521" t="s">
@@ -21687,7 +21741,7 @@
       </c>
       <c r="F67" s="522">
         <f>SUM(F5:F61)</f>
-        <v>899237</v>
+        <v>1350232</v>
       </c>
       <c r="G67" s="523"/>
       <c r="H67" s="521" t="s">
@@ -21695,7 +21749,7 @@
       </c>
       <c r="I67" s="524">
         <f>SUM(I5:I61)</f>
-        <v>9943.5</v>
+        <v>19408.5</v>
       </c>
       <c r="J67" s="525"/>
       <c r="K67" s="526" t="s">
@@ -21703,7 +21757,7 @@
       </c>
       <c r="L67" s="527">
         <f>SUM(L5:L65)-L26</f>
-        <v>50750</v>
+        <v>105683.5</v>
       </c>
       <c r="M67" s="150"/>
       <c r="N67" s="150"/>
@@ -21728,7 +21782,7 @@
       <c r="J69" s="154"/>
       <c r="K69" s="568">
         <f>I67+L67</f>
-        <v>60693.5</v>
+        <v>125092</v>
       </c>
       <c r="L69" s="569"/>
       <c r="M69" s="155"/>
@@ -21743,7 +21797,7 @@
       <c r="E70" s="560"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
-        <v>713576</v>
+        <v>1063832.5</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
@@ -21762,7 +21816,7 @@
       <c r="J71" s="563"/>
       <c r="K71" s="564">
         <f>F73+F74+F75</f>
-        <v>3534127.31</v>
+        <v>3884383.81</v>
       </c>
       <c r="L71" s="564"/>
       <c r="M71" s="159"/>
@@ -21798,7 +21852,7 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>713576</v>
+        <v>1063832.5</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
@@ -21839,7 +21893,7 @@
       <c r="J75" s="556"/>
       <c r="K75" s="557">
         <f>K71+K73</f>
-        <v>402740.27</v>
+        <v>752996.77</v>
       </c>
       <c r="L75" s="557"/>
     </row>
@@ -21986,7 +22040,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q49:Q50"/>
     <mergeCell ref="M53:N53"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B1:B2"/>
@@ -22008,6 +22061,7 @@
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
+    <mergeCell ref="Q49:Q50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="782">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2883,6 +2883,9 @@
   </si>
   <si>
     <t>PASTOR-TOSTADAS-CHORIZO-CHISTORRA</t>
+  </si>
+  <si>
+    <t>LONGANIZA-QUESOS-CHISTORRA-POLLO</t>
   </si>
 </sst>
 </file>
@@ -4566,7 +4569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="594">
+  <cellXfs count="595">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5573,39 +5576,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5681,6 +5651,39 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5746,6 +5749,9 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9132,23 +9138,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="540"/>
-      <c r="C1" s="542" t="s">
+      <c r="B1" s="565"/>
+      <c r="C1" s="567" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="543"/>
-      <c r="E1" s="543"/>
-      <c r="F1" s="543"/>
-      <c r="G1" s="543"/>
-      <c r="H1" s="543"/>
-      <c r="I1" s="543"/>
-      <c r="J1" s="543"/>
-      <c r="K1" s="543"/>
-      <c r="L1" s="543"/>
-      <c r="M1" s="543"/>
+      <c r="D1" s="568"/>
+      <c r="E1" s="568"/>
+      <c r="F1" s="568"/>
+      <c r="G1" s="568"/>
+      <c r="H1" s="568"/>
+      <c r="I1" s="568"/>
+      <c r="J1" s="568"/>
+      <c r="K1" s="568"/>
+      <c r="L1" s="568"/>
+      <c r="M1" s="568"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="541"/>
+      <c r="B2" s="566"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9158,24 +9164,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="544" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="545"/>
+      <c r="B3" s="569" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="570"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="546" t="s">
+      <c r="H3" s="571" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="546"/>
+      <c r="I3" s="571"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="538" t="s">
+      <c r="P3" s="563" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="547" t="s">
+      <c r="R3" s="536" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9190,14 +9196,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="549" t="s">
+      <c r="E4" s="538" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="550"/>
-      <c r="H4" s="551" t="s">
+      <c r="F4" s="539"/>
+      <c r="H4" s="540" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="552"/>
+      <c r="I4" s="541"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9207,11 +9213,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="539"/>
+      <c r="P4" s="564"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="548"/>
+      <c r="R4" s="537"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11046,11 +11052,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="558">
+      <c r="M49" s="547">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="558">
+      <c r="N49" s="547">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -11058,7 +11064,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="570">
+      <c r="Q49" s="559">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -11079,10 +11085,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="559"/>
-      <c r="N50" s="559"/>
+      <c r="M50" s="548"/>
+      <c r="N50" s="548"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="571"/>
+      <c r="Q50" s="560"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -11137,11 +11143,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="536">
+      <c r="M53" s="561">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="537"/>
+      <c r="N53" s="562"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11566,26 +11572,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="566" t="s">
+      <c r="H77" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="567"/>
+      <c r="I77" s="556"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="568">
+      <c r="K77" s="557">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="569"/>
+      <c r="L77" s="558"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="560" t="s">
+      <c r="D78" s="549" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="560"/>
+      <c r="E78" s="549"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -11594,22 +11600,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="561" t="s">
+      <c r="D79" s="550" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="561"/>
+      <c r="E79" s="550"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="562" t="s">
+      <c r="I79" s="551" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="563"/>
-      <c r="K79" s="564">
+      <c r="J79" s="552"/>
+      <c r="K79" s="553">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="564"/>
+      <c r="L79" s="553"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11650,11 +11656,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="565">
+      <c r="K81" s="554">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="564"/>
+      <c r="L81" s="553"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11671,22 +11677,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="553" t="s">
+      <c r="D83" s="542" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="554"/>
+      <c r="E83" s="543"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="555" t="s">
+      <c r="I83" s="544" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="556"/>
-      <c r="K83" s="557">
+      <c r="J83" s="545"/>
+      <c r="K83" s="546">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="557"/>
+      <c r="L83" s="546"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11833,6 +11839,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -11849,12 +11861,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14253,23 +14259,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="540"/>
-      <c r="C1" s="542" t="s">
+      <c r="B1" s="565"/>
+      <c r="C1" s="567" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="543"/>
-      <c r="E1" s="543"/>
-      <c r="F1" s="543"/>
-      <c r="G1" s="543"/>
-      <c r="H1" s="543"/>
-      <c r="I1" s="543"/>
-      <c r="J1" s="543"/>
-      <c r="K1" s="543"/>
-      <c r="L1" s="543"/>
-      <c r="M1" s="543"/>
+      <c r="D1" s="568"/>
+      <c r="E1" s="568"/>
+      <c r="F1" s="568"/>
+      <c r="G1" s="568"/>
+      <c r="H1" s="568"/>
+      <c r="I1" s="568"/>
+      <c r="J1" s="568"/>
+      <c r="K1" s="568"/>
+      <c r="L1" s="568"/>
+      <c r="M1" s="568"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="541"/>
+      <c r="B2" s="566"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -14279,21 +14285,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="544" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="545"/>
+      <c r="B3" s="569" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="570"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="546" t="s">
+      <c r="H3" s="571" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="546"/>
+      <c r="I3" s="571"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="538" t="s">
+      <c r="P3" s="563" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -14314,14 +14320,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="549" t="s">
+      <c r="E4" s="538" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="550"/>
-      <c r="H4" s="551" t="s">
+      <c r="F4" s="539"/>
+      <c r="H4" s="540" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="552"/>
+      <c r="I4" s="541"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -14331,7 +14337,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="539"/>
+      <c r="P4" s="564"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -16391,11 +16397,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="558">
+      <c r="M49" s="547">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="558">
+      <c r="N49" s="547">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -16403,7 +16409,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="570">
+      <c r="Q49" s="559">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -16436,10 +16442,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="559"/>
-      <c r="N50" s="559"/>
+      <c r="M50" s="548"/>
+      <c r="N50" s="548"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="571"/>
+      <c r="Q50" s="560"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -16524,11 +16530,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="536">
+      <c r="M53" s="561">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="537"/>
+      <c r="N53" s="562"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -16857,26 +16863,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="566" t="s">
+      <c r="H69" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="567"/>
+      <c r="I69" s="556"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="568">
+      <c r="K69" s="557">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="569"/>
+      <c r="L69" s="558"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="560" t="s">
+      <c r="D70" s="549" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="560"/>
+      <c r="E70" s="549"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -16885,23 +16891,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="561" t="s">
+      <c r="D71" s="550" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="561"/>
+      <c r="E71" s="550"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="562" t="s">
+      <c r="I71" s="551" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="563"/>
-      <c r="K71" s="564">
+      <c r="J71" s="552"/>
+      <c r="K71" s="553">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="564"/>
+      <c r="L71" s="553"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -16943,11 +16949,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="565">
+      <c r="K73" s="554">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="564"/>
+      <c r="L73" s="553"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -16964,22 +16970,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="553" t="s">
+      <c r="D75" s="542" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="554"/>
+      <c r="E75" s="543"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="555" t="s">
+      <c r="I75" s="544" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="556"/>
-      <c r="K75" s="557">
+      <c r="J75" s="545"/>
+      <c r="K75" s="546">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="557"/>
+      <c r="L75" s="546"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -17127,12 +17133,6 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17149,6 +17149,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19521,8 +19527,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19548,23 +19554,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="540"/>
-      <c r="C1" s="542" t="s">
+      <c r="B1" s="565"/>
+      <c r="C1" s="567" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="543"/>
-      <c r="E1" s="543"/>
-      <c r="F1" s="543"/>
-      <c r="G1" s="543"/>
-      <c r="H1" s="543"/>
-      <c r="I1" s="543"/>
-      <c r="J1" s="543"/>
-      <c r="K1" s="543"/>
-      <c r="L1" s="543"/>
-      <c r="M1" s="543"/>
+      <c r="D1" s="568"/>
+      <c r="E1" s="568"/>
+      <c r="F1" s="568"/>
+      <c r="G1" s="568"/>
+      <c r="H1" s="568"/>
+      <c r="I1" s="568"/>
+      <c r="J1" s="568"/>
+      <c r="K1" s="568"/>
+      <c r="L1" s="568"/>
+      <c r="M1" s="568"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="541"/>
+      <c r="B2" s="566"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -19574,21 +19580,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="544" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="545"/>
+      <c r="B3" s="569" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="570"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="546" t="s">
+      <c r="H3" s="571" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="546"/>
+      <c r="I3" s="571"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="538" t="s">
+      <c r="P3" s="563" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -19607,14 +19613,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="549" t="s">
+      <c r="E4" s="538" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="550"/>
-      <c r="H4" s="551" t="s">
+      <c r="F4" s="539"/>
+      <c r="H4" s="540" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="552"/>
+      <c r="I4" s="541"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -19624,7 +19630,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="539"/>
+      <c r="P4" s="564"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -20109,30 +20115,38 @@
       <c r="B14" s="32">
         <v>45117</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="33">
+        <v>22513</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>781</v>
+      </c>
       <c r="E14" s="35">
         <v>45117</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="36">
+        <v>133862</v>
+      </c>
       <c r="G14" s="37"/>
       <c r="H14" s="38">
         <v>45117</v>
       </c>
-      <c r="I14" s="39"/>
+      <c r="I14" s="39">
+        <v>2038.5</v>
+      </c>
       <c r="J14" s="40"/>
       <c r="K14" s="65"/>
       <c r="L14" s="49"/>
       <c r="M14" s="42">
-        <v>0</v>
+        <v>49432.5</v>
       </c>
       <c r="N14" s="43">
-        <v>0</v>
+        <v>59878</v>
       </c>
       <c r="O14" s="193"/>
       <c r="P14" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>133862</v>
       </c>
       <c r="Q14" s="45">
         <f t="shared" si="1"/>
@@ -21399,19 +21413,19 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="558">
+      <c r="M49" s="547">
         <f>SUM(M5:M40)</f>
-        <v>596392</v>
-      </c>
-      <c r="N49" s="558">
+        <v>645824.5</v>
+      </c>
+      <c r="N49" s="547">
         <f>SUM(N5:N40)</f>
-        <v>528624</v>
+        <v>588502</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>1383701</v>
-      </c>
-      <c r="Q49" s="570">
+        <v>1517563</v>
+      </c>
+      <c r="Q49" s="559">
         <f>SUM(Q5:Q40)</f>
         <v>28972</v>
       </c>
@@ -21432,10 +21446,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="559"/>
-      <c r="N50" s="559"/>
+      <c r="M50" s="548"/>
+      <c r="N50" s="548"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="571"/>
+      <c r="Q50" s="560"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>3094</v>
@@ -21490,11 +21504,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="536">
+      <c r="M53" s="561">
         <f>M49+N49</f>
-        <v>1125016</v>
-      </c>
-      <c r="N53" s="537"/>
+        <v>1234326.5</v>
+      </c>
+      <c r="N53" s="562"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -21733,7 +21747,7 @@
       </c>
       <c r="C67" s="519">
         <f>SUM(C5:C61)</f>
-        <v>161307.5</v>
+        <v>183820.5</v>
       </c>
       <c r="D67" s="520"/>
       <c r="E67" s="521" t="s">
@@ -21741,7 +21755,7 @@
       </c>
       <c r="F67" s="522">
         <f>SUM(F5:F61)</f>
-        <v>1350232</v>
+        <v>1484094</v>
       </c>
       <c r="G67" s="523"/>
       <c r="H67" s="521" t="s">
@@ -21749,7 +21763,7 @@
       </c>
       <c r="I67" s="524">
         <f>SUM(I5:I61)</f>
-        <v>19408.5</v>
+        <v>21447</v>
       </c>
       <c r="J67" s="525"/>
       <c r="K67" s="526" t="s">
@@ -21775,53 +21789,55 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="566" t="s">
+      <c r="H69" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="567"/>
+      <c r="I69" s="556"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="568">
+      <c r="K69" s="557">
         <f>I67+L67</f>
-        <v>125092</v>
-      </c>
-      <c r="L69" s="569"/>
+        <v>127130.5</v>
+      </c>
+      <c r="L69" s="558"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="560" t="s">
+      <c r="D70" s="549" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="560"/>
+      <c r="E70" s="549"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
-        <v>1063832.5</v>
+        <v>1173143</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="561" t="s">
+      <c r="D71" s="550" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="561"/>
+      <c r="E71" s="550"/>
       <c r="F71" s="101">
         <v>0</v>
       </c>
-      <c r="I71" s="562" t="s">
+      <c r="I71" s="551" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="563"/>
-      <c r="K71" s="564">
+      <c r="J71" s="552"/>
+      <c r="K71" s="553">
         <f>F73+F74+F75</f>
-        <v>3884383.81</v>
-      </c>
-      <c r="L71" s="564"/>
+        <v>3993694.31</v>
+      </c>
+      <c r="L71" s="553"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
-      <c r="O71" s="160"/>
+      <c r="O71" s="160">
+        <v>85</v>
+      </c>
       <c r="P71" s="159"/>
       <c r="Q71" s="159"/>
     </row>
@@ -21839,7 +21855,9 @@
       <c r="L72" s="167"/>
       <c r="M72" s="159"/>
       <c r="N72" s="159"/>
-      <c r="O72" s="160"/>
+      <c r="O72" s="160">
+        <v>19</v>
+      </c>
       <c r="P72" s="159"/>
       <c r="Q72" s="159"/>
     </row>
@@ -21852,18 +21870,22 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>1063832.5</v>
+        <v>1173143</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="565">
+      <c r="K73" s="554">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="564"/>
+      <c r="L73" s="553"/>
+      <c r="O73" s="594">
+        <f>SUM(O71:O72)</f>
+        <v>104</v>
+      </c>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -21880,22 +21902,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="553" t="s">
+      <c r="D75" s="542" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="554"/>
+      <c r="E75" s="543"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="555" t="s">
+      <c r="I75" s="544" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="556"/>
-      <c r="K75" s="557">
+      <c r="J75" s="545"/>
+      <c r="K75" s="546">
         <f>K71+K73</f>
-        <v>752996.77</v>
-      </c>
-      <c r="L75" s="557"/>
+        <v>862307.27</v>
+      </c>
+      <c r="L75" s="546"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -22040,12 +22062,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -22062,6 +22078,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27208,23 +27230,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="540"/>
-      <c r="C1" s="542" t="s">
+      <c r="B1" s="565"/>
+      <c r="C1" s="567" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="543"/>
-      <c r="E1" s="543"/>
-      <c r="F1" s="543"/>
-      <c r="G1" s="543"/>
-      <c r="H1" s="543"/>
-      <c r="I1" s="543"/>
-      <c r="J1" s="543"/>
-      <c r="K1" s="543"/>
-      <c r="L1" s="543"/>
-      <c r="M1" s="543"/>
+      <c r="D1" s="568"/>
+      <c r="E1" s="568"/>
+      <c r="F1" s="568"/>
+      <c r="G1" s="568"/>
+      <c r="H1" s="568"/>
+      <c r="I1" s="568"/>
+      <c r="J1" s="568"/>
+      <c r="K1" s="568"/>
+      <c r="L1" s="568"/>
+      <c r="M1" s="568"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="541"/>
+      <c r="B2" s="566"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27234,24 +27256,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="544" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="545"/>
+      <c r="B3" s="569" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="570"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="546" t="s">
+      <c r="H3" s="571" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="546"/>
+      <c r="I3" s="571"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="538" t="s">
+      <c r="P3" s="563" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="547" t="s">
+      <c r="R3" s="536" t="s">
         <v>3</v>
       </c>
     </row>
@@ -27266,14 +27288,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="549" t="s">
+      <c r="E4" s="538" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="550"/>
-      <c r="H4" s="551" t="s">
+      <c r="F4" s="539"/>
+      <c r="H4" s="540" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="552"/>
+      <c r="I4" s="541"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27283,11 +27305,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="539"/>
+      <c r="P4" s="564"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="548"/>
+      <c r="R4" s="537"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -29263,11 +29285,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="558">
+      <c r="M49" s="547">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="558">
+      <c r="N49" s="547">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -29275,7 +29297,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="570">
+      <c r="Q49" s="559">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -29308,10 +29330,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="559"/>
-      <c r="N50" s="559"/>
+      <c r="M50" s="548"/>
+      <c r="N50" s="548"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="571"/>
+      <c r="Q50" s="560"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -29402,11 +29424,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="536">
+      <c r="M53" s="561">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="537"/>
+      <c r="N53" s="562"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -29965,26 +29987,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="566" t="s">
+      <c r="H77" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="567"/>
+      <c r="I77" s="556"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="568">
+      <c r="K77" s="557">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="569"/>
+      <c r="L77" s="558"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="560" t="s">
+      <c r="D78" s="549" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="560"/>
+      <c r="E78" s="549"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -29993,22 +30015,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="561" t="s">
+      <c r="D79" s="550" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="561"/>
+      <c r="E79" s="550"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="562" t="s">
+      <c r="I79" s="551" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="563"/>
-      <c r="K79" s="564">
+      <c r="J79" s="552"/>
+      <c r="K79" s="553">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="564"/>
+      <c r="L79" s="553"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -30049,11 +30071,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="565">
+      <c r="K81" s="554">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="564"/>
+      <c r="L81" s="553"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -30070,10 +30092,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="553" t="s">
+      <c r="D83" s="542" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="554"/>
+      <c r="E83" s="543"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
@@ -30232,12 +30254,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30254,6 +30270,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -32965,23 +32987,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="540"/>
-      <c r="C1" s="542" t="s">
+      <c r="B1" s="565"/>
+      <c r="C1" s="567" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="543"/>
-      <c r="E1" s="543"/>
-      <c r="F1" s="543"/>
-      <c r="G1" s="543"/>
-      <c r="H1" s="543"/>
-      <c r="I1" s="543"/>
-      <c r="J1" s="543"/>
-      <c r="K1" s="543"/>
-      <c r="L1" s="543"/>
-      <c r="M1" s="543"/>
+      <c r="D1" s="568"/>
+      <c r="E1" s="568"/>
+      <c r="F1" s="568"/>
+      <c r="G1" s="568"/>
+      <c r="H1" s="568"/>
+      <c r="I1" s="568"/>
+      <c r="J1" s="568"/>
+      <c r="K1" s="568"/>
+      <c r="L1" s="568"/>
+      <c r="M1" s="568"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="541"/>
+      <c r="B2" s="566"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -32991,21 +33013,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="544" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="545"/>
+      <c r="B3" s="569" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="570"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="546" t="s">
+      <c r="H3" s="571" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="546"/>
+      <c r="I3" s="571"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="538" t="s">
+      <c r="P3" s="563" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="592" t="s">
@@ -33023,14 +33045,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="549" t="s">
+      <c r="E4" s="538" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="550"/>
-      <c r="H4" s="551" t="s">
+      <c r="F4" s="539"/>
+      <c r="H4" s="540" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="552"/>
+      <c r="I4" s="541"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33040,7 +33062,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="539"/>
+      <c r="P4" s="564"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -35025,11 +35047,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="558">
+      <c r="M49" s="547">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="558">
+      <c r="N49" s="547">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -35037,7 +35059,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="570">
+      <c r="Q49" s="559">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -35070,10 +35092,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="559"/>
-      <c r="N50" s="559"/>
+      <c r="M50" s="548"/>
+      <c r="N50" s="548"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="571"/>
+      <c r="Q50" s="560"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -35164,11 +35186,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="536">
+      <c r="M53" s="561">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="537"/>
+      <c r="N53" s="562"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -35647,26 +35669,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="566" t="s">
+      <c r="H77" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="567"/>
+      <c r="I77" s="556"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="568">
+      <c r="K77" s="557">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="569"/>
+      <c r="L77" s="558"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="560" t="s">
+      <c r="D78" s="549" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="560"/>
+      <c r="E78" s="549"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -35675,22 +35697,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="561" t="s">
+      <c r="D79" s="550" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="561"/>
+      <c r="E79" s="550"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="562" t="s">
+      <c r="I79" s="551" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="563"/>
-      <c r="K79" s="564">
+      <c r="J79" s="552"/>
+      <c r="K79" s="553">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="564"/>
+      <c r="L79" s="553"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -35731,11 +35753,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="565">
+      <c r="K81" s="554">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="564"/>
+      <c r="L81" s="553"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -35752,22 +35774,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="553" t="s">
+      <c r="D83" s="542" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="554"/>
+      <c r="E83" s="543"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="555" t="s">
+      <c r="I83" s="544" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="556"/>
-      <c r="K83" s="557">
+      <c r="J83" s="545"/>
+      <c r="K83" s="546">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="557"/>
+      <c r="L83" s="546"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -35914,6 +35936,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -35930,12 +35958,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38509,23 +38531,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="540"/>
-      <c r="C1" s="542" t="s">
+      <c r="B1" s="565"/>
+      <c r="C1" s="567" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="543"/>
-      <c r="E1" s="543"/>
-      <c r="F1" s="543"/>
-      <c r="G1" s="543"/>
-      <c r="H1" s="543"/>
-      <c r="I1" s="543"/>
-      <c r="J1" s="543"/>
-      <c r="K1" s="543"/>
-      <c r="L1" s="543"/>
-      <c r="M1" s="543"/>
+      <c r="D1" s="568"/>
+      <c r="E1" s="568"/>
+      <c r="F1" s="568"/>
+      <c r="G1" s="568"/>
+      <c r="H1" s="568"/>
+      <c r="I1" s="568"/>
+      <c r="J1" s="568"/>
+      <c r="K1" s="568"/>
+      <c r="L1" s="568"/>
+      <c r="M1" s="568"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="541"/>
+      <c r="B2" s="566"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -38535,21 +38557,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="544" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="545"/>
+      <c r="B3" s="569" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="570"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="546" t="s">
+      <c r="H3" s="571" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="546"/>
+      <c r="I3" s="571"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="538" t="s">
+      <c r="P3" s="563" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="592" t="s">
@@ -38567,14 +38589,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="549" t="s">
+      <c r="E4" s="538" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="550"/>
-      <c r="H4" s="551" t="s">
+      <c r="F4" s="539"/>
+      <c r="H4" s="540" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="552"/>
+      <c r="I4" s="541"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -38584,7 +38606,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="539"/>
+      <c r="P4" s="564"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -40609,11 +40631,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="558">
+      <c r="M49" s="547">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="558">
+      <c r="N49" s="547">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -40621,7 +40643,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="570">
+      <c r="Q49" s="559">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -40648,10 +40670,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="559"/>
-      <c r="N50" s="559"/>
+      <c r="M50" s="548"/>
+      <c r="N50" s="548"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="571"/>
+      <c r="Q50" s="560"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -40725,11 +40747,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="536">
+      <c r="M53" s="561">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="537"/>
+      <c r="N53" s="562"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -41358,26 +41380,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="566" t="s">
+      <c r="H79" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="567"/>
+      <c r="I79" s="556"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="568">
+      <c r="K79" s="557">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="569"/>
+      <c r="L79" s="558"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="560" t="s">
+      <c r="D80" s="549" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="560"/>
+      <c r="E80" s="549"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -41386,22 +41408,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="561" t="s">
+      <c r="D81" s="550" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="561"/>
+      <c r="E81" s="550"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="562" t="s">
+      <c r="I81" s="551" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="563"/>
-      <c r="K81" s="564">
+      <c r="J81" s="552"/>
+      <c r="K81" s="553">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="564"/>
+      <c r="L81" s="553"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -41442,11 +41464,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="565">
+      <c r="K83" s="554">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="564"/>
+      <c r="L83" s="553"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -41463,22 +41485,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="553" t="s">
+      <c r="D85" s="542" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="554"/>
+      <c r="E85" s="543"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="555" t="s">
+      <c r="I85" s="544" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="556"/>
-      <c r="K85" s="557">
+      <c r="J85" s="545"/>
+      <c r="K85" s="546">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="557"/>
+      <c r="L85" s="546"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -41626,12 +41648,6 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -41648,6 +41664,12 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44302,23 +44324,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="540"/>
-      <c r="C1" s="542" t="s">
+      <c r="B1" s="565"/>
+      <c r="C1" s="567" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="543"/>
-      <c r="E1" s="543"/>
-      <c r="F1" s="543"/>
-      <c r="G1" s="543"/>
-      <c r="H1" s="543"/>
-      <c r="I1" s="543"/>
-      <c r="J1" s="543"/>
-      <c r="K1" s="543"/>
-      <c r="L1" s="543"/>
-      <c r="M1" s="543"/>
+      <c r="D1" s="568"/>
+      <c r="E1" s="568"/>
+      <c r="F1" s="568"/>
+      <c r="G1" s="568"/>
+      <c r="H1" s="568"/>
+      <c r="I1" s="568"/>
+      <c r="J1" s="568"/>
+      <c r="K1" s="568"/>
+      <c r="L1" s="568"/>
+      <c r="M1" s="568"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="541"/>
+      <c r="B2" s="566"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -44328,21 +44350,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="544" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="545"/>
+      <c r="B3" s="569" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="570"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="546" t="s">
+      <c r="H3" s="571" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="546"/>
+      <c r="I3" s="571"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="538" t="s">
+      <c r="P3" s="563" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -44363,14 +44385,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="549" t="s">
+      <c r="E4" s="538" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="550"/>
-      <c r="H4" s="551" t="s">
+      <c r="F4" s="539"/>
+      <c r="H4" s="540" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="552"/>
+      <c r="I4" s="541"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -44380,7 +44402,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="539"/>
+      <c r="P4" s="564"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -46387,11 +46409,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="558">
+      <c r="M49" s="547">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="558">
+      <c r="N49" s="547">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -46399,7 +46421,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="570">
+      <c r="Q49" s="559">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -46432,10 +46454,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="559"/>
-      <c r="N50" s="559"/>
+      <c r="M50" s="548"/>
+      <c r="N50" s="548"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="571"/>
+      <c r="Q50" s="560"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -46514,11 +46536,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="536">
+      <c r="M53" s="561">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="537"/>
+      <c r="N53" s="562"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -46997,26 +47019,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="566" t="s">
+      <c r="H77" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="567"/>
+      <c r="I77" s="556"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="568">
+      <c r="K77" s="557">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="569"/>
+      <c r="L77" s="558"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="560" t="s">
+      <c r="D78" s="549" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="560"/>
+      <c r="E78" s="549"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -47025,22 +47047,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="561" t="s">
+      <c r="D79" s="550" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="561"/>
+      <c r="E79" s="550"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="562" t="s">
+      <c r="I79" s="551" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="563"/>
-      <c r="K79" s="564">
+      <c r="J79" s="552"/>
+      <c r="K79" s="553">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="564"/>
+      <c r="L79" s="553"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -47081,11 +47103,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="565">
+      <c r="K81" s="554">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="564"/>
+      <c r="L81" s="553"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -47102,10 +47124,10 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="553" t="s">
+      <c r="D83" s="542" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="554"/>
+      <c r="E83" s="543"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
@@ -47265,6 +47287,12 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47281,12 +47309,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="783">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2886,6 +2886,9 @@
   </si>
   <si>
     <t>LONGANIZA-QUESOS-CHISTORRA-POLLO</t>
+  </si>
+  <si>
+    <t>BIMBO-QUESOS-MILANESA-PASTOR-RETAZO</t>
   </si>
 </sst>
 </file>
@@ -5576,6 +5579,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5651,39 +5690,6 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5749,9 +5755,6 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9138,23 +9141,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="565"/>
-      <c r="C1" s="567" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="568"/>
-      <c r="E1" s="568"/>
-      <c r="F1" s="568"/>
-      <c r="G1" s="568"/>
-      <c r="H1" s="568"/>
-      <c r="I1" s="568"/>
-      <c r="J1" s="568"/>
-      <c r="K1" s="568"/>
-      <c r="L1" s="568"/>
-      <c r="M1" s="568"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="566"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9164,24 +9167,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="569" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="570"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="571" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="571"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="563" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="536" t="s">
+      <c r="R3" s="548" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9196,14 +9199,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="538" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="539"/>
-      <c r="H4" s="540" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="541"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9213,11 +9216,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="564"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="537"/>
+      <c r="R4" s="549"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11052,11 +11055,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="547">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="547">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -11064,7 +11067,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="559">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -11085,10 +11088,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="548"/>
-      <c r="N50" s="548"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="560"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -11143,11 +11146,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="561">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="562"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11572,26 +11575,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="555" t="s">
+      <c r="H77" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="556"/>
+      <c r="I77" s="568"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="557">
+      <c r="K77" s="569">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="558"/>
+      <c r="L77" s="570"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="549" t="s">
+      <c r="D78" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="549"/>
+      <c r="E78" s="561"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -11600,22 +11603,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="550" t="s">
+      <c r="D79" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="550"/>
+      <c r="E79" s="562"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="551" t="s">
+      <c r="I79" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="552"/>
-      <c r="K79" s="553">
+      <c r="J79" s="564"/>
+      <c r="K79" s="565">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="553"/>
+      <c r="L79" s="565"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11656,11 +11659,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="554">
+      <c r="K81" s="566">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="553"/>
+      <c r="L81" s="565"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11677,22 +11680,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="542" t="s">
+      <c r="D83" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="543"/>
+      <c r="E83" s="555"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="544" t="s">
+      <c r="I83" s="556" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="545"/>
-      <c r="K83" s="546">
+      <c r="J83" s="557"/>
+      <c r="K83" s="558">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="546"/>
+      <c r="L83" s="558"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11839,12 +11842,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -11861,6 +11858,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13030,10 +13033,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="575" t="s">
+      <c r="I37" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="576"/>
+      <c r="J37" s="577"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -13052,8 +13055,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="577"/>
-      <c r="J38" s="578"/>
+      <c r="I38" s="578"/>
+      <c r="J38" s="579"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -13072,8 +13075,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="579"/>
-      <c r="J39" s="580"/>
+      <c r="I39" s="580"/>
+      <c r="J39" s="581"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -13631,10 +13634,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="581" t="s">
+      <c r="I67" s="582" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="582"/>
+      <c r="J67" s="583"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -13656,11 +13659,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="585" t="s">
+      <c r="G68" s="586" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="590"/>
-      <c r="J68" s="591"/>
+      <c r="I68" s="591"/>
+      <c r="J68" s="592"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -13671,7 +13674,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="586"/>
+      <c r="G69" s="587"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -14259,23 +14262,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="565"/>
-      <c r="C1" s="567" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="568"/>
-      <c r="E1" s="568"/>
-      <c r="F1" s="568"/>
-      <c r="G1" s="568"/>
-      <c r="H1" s="568"/>
-      <c r="I1" s="568"/>
-      <c r="J1" s="568"/>
-      <c r="K1" s="568"/>
-      <c r="L1" s="568"/>
-      <c r="M1" s="568"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="566"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -14285,27 +14288,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="569" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="570"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="571" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="571"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="563" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="592" t="s">
+      <c r="R3" s="593" t="s">
         <v>3</v>
       </c>
     </row>
@@ -14320,14 +14323,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="538" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="539"/>
-      <c r="H4" s="540" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="541"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -14337,11 +14340,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="564"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="593"/>
+      <c r="R4" s="594"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -16397,11 +16400,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="547">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="547">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -16409,7 +16412,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="559">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -16442,10 +16445,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="548"/>
-      <c r="N50" s="548"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="560"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -16530,11 +16533,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="561">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="562"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -16863,26 +16866,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="555" t="s">
+      <c r="H69" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="556"/>
+      <c r="I69" s="568"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="557">
+      <c r="K69" s="569">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="558"/>
+      <c r="L69" s="570"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="549" t="s">
+      <c r="D70" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="549"/>
+      <c r="E70" s="561"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -16891,23 +16894,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="550" t="s">
+      <c r="D71" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="550"/>
+      <c r="E71" s="562"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="551" t="s">
+      <c r="I71" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="552"/>
-      <c r="K71" s="553">
+      <c r="J71" s="564"/>
+      <c r="K71" s="565">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="553"/>
+      <c r="L71" s="565"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -16949,11 +16952,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="554">
+      <c r="K73" s="566">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="553"/>
+      <c r="L73" s="565"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -16970,22 +16973,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="542" t="s">
+      <c r="D75" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="543"/>
+      <c r="E75" s="555"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="544" t="s">
+      <c r="I75" s="556" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="545"/>
-      <c r="K75" s="546">
+      <c r="J75" s="557"/>
+      <c r="K75" s="558">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="546"/>
+      <c r="L75" s="558"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -17133,6 +17136,12 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17149,12 +17158,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18324,10 +18327,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="575" t="s">
+      <c r="I37" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="576"/>
+      <c r="J37" s="577"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -18346,8 +18349,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="577"/>
-      <c r="J38" s="578"/>
+      <c r="I38" s="578"/>
+      <c r="J38" s="579"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -18366,8 +18369,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="579"/>
-      <c r="J39" s="580"/>
+      <c r="I39" s="580"/>
+      <c r="J39" s="581"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -18925,10 +18928,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="581" t="s">
+      <c r="I67" s="582" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="582"/>
+      <c r="J67" s="583"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -18950,11 +18953,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="585" t="s">
+      <c r="G68" s="586" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="590"/>
-      <c r="J68" s="591"/>
+      <c r="I68" s="591"/>
+      <c r="J68" s="592"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -18965,7 +18968,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="586"/>
+      <c r="G69" s="587"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -19527,8 +19530,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19554,23 +19557,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="565"/>
-      <c r="C1" s="567" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="568"/>
-      <c r="E1" s="568"/>
-      <c r="F1" s="568"/>
-      <c r="G1" s="568"/>
-      <c r="H1" s="568"/>
-      <c r="I1" s="568"/>
-      <c r="J1" s="568"/>
-      <c r="K1" s="568"/>
-      <c r="L1" s="568"/>
-      <c r="M1" s="568"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="566"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -19580,25 +19583,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="569" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="570"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="571" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="571"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="563" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="592" t="s">
+      <c r="R3" s="593" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19613,14 +19616,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="538" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="539"/>
-      <c r="H4" s="540" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="541"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -19630,11 +19633,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="564"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="593"/>
+      <c r="R4" s="594"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -20167,29 +20170,44 @@
       <c r="B15" s="32">
         <v>45118</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="33">
+        <v>13656</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>782</v>
+      </c>
       <c r="E15" s="35">
         <v>45118</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="36">
+        <v>138846</v>
+      </c>
       <c r="G15" s="37"/>
       <c r="H15" s="38">
         <v>45118</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="49"/>
+      <c r="I15" s="39">
+        <v>2611</v>
+      </c>
+      <c r="J15" s="40">
+        <v>45118</v>
+      </c>
+      <c r="K15" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="49">
+        <v>8046</v>
+      </c>
       <c r="M15" s="42">
-        <v>0</v>
+        <f>49275+1594+6106</f>
+        <v>56975</v>
       </c>
       <c r="N15" s="43">
-        <v>0</v>
+        <v>57558</v>
       </c>
       <c r="P15" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>138846</v>
       </c>
       <c r="Q15" s="45">
         <f t="shared" si="1"/>
@@ -21413,19 +21431,19 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="547">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
-        <v>645824.5</v>
-      </c>
-      <c r="N49" s="547">
+        <v>702799.5</v>
+      </c>
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
-        <v>588502</v>
+        <v>646060</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>1517563</v>
-      </c>
-      <c r="Q49" s="559">
+        <v>1656409</v>
+      </c>
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>28972</v>
       </c>
@@ -21446,10 +21464,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="548"/>
-      <c r="N50" s="548"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="560"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>3094</v>
@@ -21504,11 +21522,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="561">
+      <c r="M53" s="537">
         <f>M49+N49</f>
-        <v>1234326.5</v>
-      </c>
-      <c r="N53" s="562"/>
+        <v>1348859.5</v>
+      </c>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -21747,7 +21765,7 @@
       </c>
       <c r="C67" s="519">
         <f>SUM(C5:C61)</f>
-        <v>183820.5</v>
+        <v>197476.5</v>
       </c>
       <c r="D67" s="520"/>
       <c r="E67" s="521" t="s">
@@ -21755,7 +21773,7 @@
       </c>
       <c r="F67" s="522">
         <f>SUM(F5:F61)</f>
-        <v>1484094</v>
+        <v>1622940</v>
       </c>
       <c r="G67" s="523"/>
       <c r="H67" s="521" t="s">
@@ -21763,7 +21781,7 @@
       </c>
       <c r="I67" s="524">
         <f>SUM(I5:I61)</f>
-        <v>21447</v>
+        <v>24058</v>
       </c>
       <c r="J67" s="525"/>
       <c r="K67" s="526" t="s">
@@ -21771,7 +21789,7 @@
       </c>
       <c r="L67" s="527">
         <f>SUM(L5:L65)-L26</f>
-        <v>105683.5</v>
+        <v>113729.5</v>
       </c>
       <c r="M67" s="150"/>
       <c r="N67" s="150"/>
@@ -21789,50 +21807,50 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="555" t="s">
+      <c r="H69" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="556"/>
+      <c r="I69" s="568"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="557">
+      <c r="K69" s="569">
         <f>I67+L67</f>
-        <v>127130.5</v>
-      </c>
-      <c r="L69" s="558"/>
+        <v>137787.5</v>
+      </c>
+      <c r="L69" s="570"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="549" t="s">
+      <c r="D70" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="549"/>
+      <c r="E70" s="561"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
-        <v>1173143</v>
+        <v>1287676</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="550" t="s">
+      <c r="D71" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="550"/>
+      <c r="E71" s="562"/>
       <c r="F71" s="101">
         <v>0</v>
       </c>
-      <c r="I71" s="551" t="s">
+      <c r="I71" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="552"/>
-      <c r="K71" s="553">
+      <c r="J71" s="564"/>
+      <c r="K71" s="565">
         <f>F73+F74+F75</f>
-        <v>3993694.31</v>
-      </c>
-      <c r="L71" s="553"/>
+        <v>4108227.31</v>
+      </c>
+      <c r="L71" s="565"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -21870,19 +21888,19 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>1173143</v>
+        <v>1287676</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="554">
+      <c r="K73" s="566">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="553"/>
-      <c r="O73" s="594">
+      <c r="L73" s="565"/>
+      <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
       </c>
@@ -21902,22 +21920,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="542" t="s">
+      <c r="D75" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="543"/>
+      <c r="E75" s="555"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="544" t="s">
+      <c r="I75" s="556" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="545"/>
-      <c r="K75" s="546">
+      <c r="J75" s="557"/>
+      <c r="K75" s="558">
         <f>K71+K73</f>
-        <v>862307.27</v>
-      </c>
-      <c r="L75" s="546"/>
+        <v>976840.27</v>
+      </c>
+      <c r="L75" s="558"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -22062,6 +22080,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -22078,12 +22102,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23252,10 +23270,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="575" t="s">
+      <c r="I37" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="576"/>
+      <c r="J37" s="577"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -23274,8 +23292,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="577"/>
-      <c r="J38" s="578"/>
+      <c r="I38" s="578"/>
+      <c r="J38" s="579"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -23294,8 +23312,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="579"/>
-      <c r="J39" s="580"/>
+      <c r="I39" s="580"/>
+      <c r="J39" s="581"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -23853,10 +23871,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="581" t="s">
+      <c r="I67" s="582" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="582"/>
+      <c r="J67" s="583"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -23878,11 +23896,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="585" t="s">
+      <c r="G68" s="586" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="590"/>
-      <c r="J68" s="591"/>
+      <c r="I68" s="591"/>
+      <c r="J68" s="592"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -23893,7 +23911,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="586"/>
+      <c r="G69" s="587"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -25924,10 +25942,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="572"/>
-      <c r="J36" s="573"/>
-      <c r="K36" s="573"/>
-      <c r="L36" s="574"/>
+      <c r="I36" s="573"/>
+      <c r="J36" s="574"/>
+      <c r="K36" s="574"/>
+      <c r="L36" s="575"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -25954,10 +25972,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="572"/>
-      <c r="J37" s="573"/>
-      <c r="K37" s="573"/>
-      <c r="L37" s="574"/>
+      <c r="I37" s="573"/>
+      <c r="J37" s="574"/>
+      <c r="K37" s="574"/>
+      <c r="L37" s="575"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -26014,10 +26032,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="575" t="s">
+      <c r="I40" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="576"/>
+      <c r="J40" s="577"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -26036,8 +26054,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="577"/>
-      <c r="J41" s="578"/>
+      <c r="I41" s="578"/>
+      <c r="J41" s="579"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -26056,8 +26074,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="579"/>
-      <c r="J42" s="580"/>
+      <c r="I42" s="580"/>
+      <c r="J42" s="581"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -26561,10 +26579,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="581" t="s">
+      <c r="I67" s="582" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="582"/>
+      <c r="J67" s="583"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -26584,11 +26602,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="585" t="s">
+      <c r="G68" s="586" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="583"/>
-      <c r="J68" s="584"/>
+      <c r="I68" s="584"/>
+      <c r="J68" s="585"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -26599,7 +26617,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="586"/>
+      <c r="G69" s="587"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -27230,23 +27248,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="565"/>
-      <c r="C1" s="567" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="568"/>
-      <c r="E1" s="568"/>
-      <c r="F1" s="568"/>
-      <c r="G1" s="568"/>
-      <c r="H1" s="568"/>
-      <c r="I1" s="568"/>
-      <c r="J1" s="568"/>
-      <c r="K1" s="568"/>
-      <c r="L1" s="568"/>
-      <c r="M1" s="568"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="566"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27256,24 +27274,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="569" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="570"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="571" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="571"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="563" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="536" t="s">
+      <c r="R3" s="548" t="s">
         <v>3</v>
       </c>
     </row>
@@ -27288,14 +27306,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="538" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="539"/>
-      <c r="H4" s="540" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="541"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27305,11 +27323,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="564"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="537"/>
+      <c r="R4" s="549"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -29285,11 +29303,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="547">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="547">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -29297,7 +29315,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="559">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -29330,10 +29348,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="548"/>
-      <c r="N50" s="548"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="560"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -29424,11 +29442,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="561">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="562"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -29987,26 +30005,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="555" t="s">
+      <c r="H77" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="556"/>
+      <c r="I77" s="568"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="557">
+      <c r="K77" s="569">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="558"/>
+      <c r="L77" s="570"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="549" t="s">
+      <c r="D78" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="549"/>
+      <c r="E78" s="561"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -30015,22 +30033,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="550" t="s">
+      <c r="D79" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="550"/>
+      <c r="E79" s="562"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="551" t="s">
+      <c r="I79" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="552"/>
-      <c r="K79" s="553">
+      <c r="J79" s="564"/>
+      <c r="K79" s="565">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="553"/>
+      <c r="L79" s="565"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -30071,11 +30089,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="554">
+      <c r="K81" s="566">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="553"/>
+      <c r="L81" s="565"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -30092,22 +30110,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="542" t="s">
+      <c r="D83" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="543"/>
+      <c r="E83" s="555"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="587" t="s">
+      <c r="I83" s="588" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="588"/>
-      <c r="K83" s="589">
+      <c r="J83" s="589"/>
+      <c r="K83" s="590">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="589"/>
+      <c r="L83" s="590"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -30254,6 +30272,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30270,12 +30294,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -31687,10 +31705,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="572"/>
-      <c r="J36" s="573"/>
-      <c r="K36" s="573"/>
-      <c r="L36" s="574"/>
+      <c r="I36" s="573"/>
+      <c r="J36" s="574"/>
+      <c r="K36" s="574"/>
+      <c r="L36" s="575"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -31717,10 +31735,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="572"/>
-      <c r="J37" s="573"/>
-      <c r="K37" s="573"/>
-      <c r="L37" s="574"/>
+      <c r="I37" s="573"/>
+      <c r="J37" s="574"/>
+      <c r="K37" s="574"/>
+      <c r="L37" s="575"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -31787,10 +31805,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="575" t="s">
+      <c r="I40" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="576"/>
+      <c r="J40" s="577"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -31809,8 +31827,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="577"/>
-      <c r="J41" s="578"/>
+      <c r="I41" s="578"/>
+      <c r="J41" s="579"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -31829,8 +31847,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="579"/>
-      <c r="J42" s="580"/>
+      <c r="I42" s="580"/>
+      <c r="J42" s="581"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -32334,10 +32352,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="581" t="s">
+      <c r="I67" s="582" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="582"/>
+      <c r="J67" s="583"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -32357,11 +32375,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="585" t="s">
+      <c r="G68" s="586" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="590"/>
-      <c r="J68" s="591"/>
+      <c r="I68" s="591"/>
+      <c r="J68" s="592"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -32372,7 +32390,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="586"/>
+      <c r="G69" s="587"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -32987,23 +33005,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="565"/>
-      <c r="C1" s="567" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="568"/>
-      <c r="E1" s="568"/>
-      <c r="F1" s="568"/>
-      <c r="G1" s="568"/>
-      <c r="H1" s="568"/>
-      <c r="I1" s="568"/>
-      <c r="J1" s="568"/>
-      <c r="K1" s="568"/>
-      <c r="L1" s="568"/>
-      <c r="M1" s="568"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="566"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33013,24 +33031,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="569" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="570"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="571" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="571"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="563" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="592" t="s">
+      <c r="R3" s="593" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33045,14 +33063,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="538" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="539"/>
-      <c r="H4" s="540" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="541"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33062,11 +33080,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="564"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="593"/>
+      <c r="R4" s="594"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -35047,11 +35065,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="547">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="547">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -35059,7 +35077,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="559">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -35092,10 +35110,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="548"/>
-      <c r="N50" s="548"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="560"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -35186,11 +35204,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="561">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="562"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -35669,26 +35687,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="555" t="s">
+      <c r="H77" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="556"/>
+      <c r="I77" s="568"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="557">
+      <c r="K77" s="569">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="558"/>
+      <c r="L77" s="570"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="549" t="s">
+      <c r="D78" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="549"/>
+      <c r="E78" s="561"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -35697,22 +35715,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="550" t="s">
+      <c r="D79" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="550"/>
+      <c r="E79" s="562"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="551" t="s">
+      <c r="I79" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="552"/>
-      <c r="K79" s="553">
+      <c r="J79" s="564"/>
+      <c r="K79" s="565">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="553"/>
+      <c r="L79" s="565"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -35753,11 +35771,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="554">
+      <c r="K81" s="566">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="553"/>
+      <c r="L81" s="565"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -35774,22 +35792,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="542" t="s">
+      <c r="D83" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="543"/>
+      <c r="E83" s="555"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="544" t="s">
+      <c r="I83" s="556" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="545"/>
-      <c r="K83" s="546">
+      <c r="J83" s="557"/>
+      <c r="K83" s="558">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="546"/>
+      <c r="L83" s="558"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -35936,12 +35954,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -35958,6 +35970,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37260,10 +37278,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="572"/>
-      <c r="J36" s="573"/>
-      <c r="K36" s="573"/>
-      <c r="L36" s="574"/>
+      <c r="I36" s="573"/>
+      <c r="J36" s="574"/>
+      <c r="K36" s="574"/>
+      <c r="L36" s="575"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -37280,10 +37298,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="572"/>
-      <c r="J37" s="573"/>
-      <c r="K37" s="573"/>
-      <c r="L37" s="574"/>
+      <c r="I37" s="573"/>
+      <c r="J37" s="574"/>
+      <c r="K37" s="574"/>
+      <c r="L37" s="575"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -37340,10 +37358,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="575" t="s">
+      <c r="I40" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="576"/>
+      <c r="J40" s="577"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -37362,8 +37380,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="577"/>
-      <c r="J41" s="578"/>
+      <c r="I41" s="578"/>
+      <c r="J41" s="579"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -37382,8 +37400,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="579"/>
-      <c r="J42" s="580"/>
+      <c r="I42" s="580"/>
+      <c r="J42" s="581"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -37887,10 +37905,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="581" t="s">
+      <c r="I67" s="582" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="582"/>
+      <c r="J67" s="583"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -37910,11 +37928,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="585" t="s">
+      <c r="G68" s="586" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="590"/>
-      <c r="J68" s="591"/>
+      <c r="I68" s="591"/>
+      <c r="J68" s="592"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -37925,7 +37943,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="586"/>
+      <c r="G69" s="587"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -38531,23 +38549,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="565"/>
-      <c r="C1" s="567" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="568"/>
-      <c r="E1" s="568"/>
-      <c r="F1" s="568"/>
-      <c r="G1" s="568"/>
-      <c r="H1" s="568"/>
-      <c r="I1" s="568"/>
-      <c r="J1" s="568"/>
-      <c r="K1" s="568"/>
-      <c r="L1" s="568"/>
-      <c r="M1" s="568"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="566"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -38557,24 +38575,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="569" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="570"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="571" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="571"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="563" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="592" t="s">
+      <c r="R3" s="593" t="s">
         <v>3</v>
       </c>
     </row>
@@ -38589,14 +38607,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="538" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="539"/>
-      <c r="H4" s="540" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="541"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -38606,11 +38624,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="564"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="593"/>
+      <c r="R4" s="594"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -40631,11 +40649,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="547">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="547">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -40643,7 +40661,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="559">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -40670,10 +40688,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="548"/>
-      <c r="N50" s="548"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="560"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -40747,11 +40765,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="561">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="562"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -41380,26 +41398,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="555" t="s">
+      <c r="H79" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="556"/>
+      <c r="I79" s="568"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="557">
+      <c r="K79" s="569">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="558"/>
+      <c r="L79" s="570"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="549" t="s">
+      <c r="D80" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="549"/>
+      <c r="E80" s="561"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -41408,22 +41426,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="550" t="s">
+      <c r="D81" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="550"/>
+      <c r="E81" s="562"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="551" t="s">
+      <c r="I81" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="552"/>
-      <c r="K81" s="553">
+      <c r="J81" s="564"/>
+      <c r="K81" s="565">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="553"/>
+      <c r="L81" s="565"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -41464,11 +41482,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="554">
+      <c r="K83" s="566">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="553"/>
+      <c r="L83" s="565"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -41485,22 +41503,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="542" t="s">
+      <c r="D85" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="543"/>
+      <c r="E85" s="555"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="544" t="s">
+      <c r="I85" s="556" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="545"/>
-      <c r="K85" s="546">
+      <c r="J85" s="557"/>
+      <c r="K85" s="558">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="546"/>
+      <c r="L85" s="558"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -41648,6 +41666,12 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -41664,12 +41688,6 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -42989,10 +43007,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="572"/>
-      <c r="J36" s="573"/>
-      <c r="K36" s="573"/>
-      <c r="L36" s="574"/>
+      <c r="I36" s="573"/>
+      <c r="J36" s="574"/>
+      <c r="K36" s="574"/>
+      <c r="L36" s="575"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -43015,10 +43033,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="572"/>
-      <c r="J37" s="573"/>
-      <c r="K37" s="573"/>
-      <c r="L37" s="574"/>
+      <c r="I37" s="573"/>
+      <c r="J37" s="574"/>
+      <c r="K37" s="574"/>
+      <c r="L37" s="575"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -43093,10 +43111,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="575" t="s">
+      <c r="I40" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="576"/>
+      <c r="J40" s="577"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -43121,8 +43139,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="577"/>
-      <c r="J41" s="578"/>
+      <c r="I41" s="578"/>
+      <c r="J41" s="579"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -43147,8 +43165,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="579"/>
-      <c r="J42" s="580"/>
+      <c r="I42" s="580"/>
+      <c r="J42" s="581"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -43670,10 +43688,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="581" t="s">
+      <c r="I67" s="582" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="582"/>
+      <c r="J67" s="583"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -43693,11 +43711,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="585" t="s">
+      <c r="G68" s="586" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="590"/>
-      <c r="J68" s="591"/>
+      <c r="I68" s="591"/>
+      <c r="J68" s="592"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -43708,7 +43726,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="586"/>
+      <c r="G69" s="587"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -44324,23 +44342,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="565"/>
-      <c r="C1" s="567" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="568"/>
-      <c r="E1" s="568"/>
-      <c r="F1" s="568"/>
-      <c r="G1" s="568"/>
-      <c r="H1" s="568"/>
-      <c r="I1" s="568"/>
-      <c r="J1" s="568"/>
-      <c r="K1" s="568"/>
-      <c r="L1" s="568"/>
-      <c r="M1" s="568"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="566"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -44350,27 +44368,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="569" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="570"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="571" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="571"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="563" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="592" t="s">
+      <c r="R3" s="593" t="s">
         <v>3</v>
       </c>
     </row>
@@ -44385,14 +44403,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="538" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="539"/>
-      <c r="H4" s="540" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="541"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -44402,11 +44420,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="564"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="593"/>
+      <c r="R4" s="594"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -46409,11 +46427,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="547">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="547">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -46421,7 +46439,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="559">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -46454,10 +46472,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="548"/>
-      <c r="N50" s="548"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="560"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -46536,11 +46554,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="561">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="562"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -47019,26 +47037,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="555" t="s">
+      <c r="H77" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="556"/>
+      <c r="I77" s="568"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="557">
+      <c r="K77" s="569">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="558"/>
+      <c r="L77" s="570"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="549" t="s">
+      <c r="D78" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="549"/>
+      <c r="E78" s="561"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -47047,22 +47065,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="550" t="s">
+      <c r="D79" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="550"/>
+      <c r="E79" s="562"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="551" t="s">
+      <c r="I79" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="552"/>
-      <c r="K79" s="553">
+      <c r="J79" s="564"/>
+      <c r="K79" s="565">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="553"/>
+      <c r="L79" s="565"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -47103,11 +47121,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="554">
+      <c r="K81" s="566">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="553"/>
+      <c r="L81" s="565"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -47124,22 +47142,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="542" t="s">
+      <c r="D83" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="543"/>
+      <c r="E83" s="555"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="587" t="s">
+      <c r="I83" s="588" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="588"/>
-      <c r="K83" s="589">
+      <c r="J83" s="589"/>
+      <c r="K83" s="590">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="589"/>
+      <c r="L83" s="590"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -47287,12 +47305,6 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47309,6 +47321,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
@@ -5582,39 +5582,6 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5689,6 +5656,39 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9141,23 +9141,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="566"/>
+      <c r="C1" s="568" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="569"/>
+      <c r="E1" s="569"/>
+      <c r="F1" s="569"/>
+      <c r="G1" s="569"/>
+      <c r="H1" s="569"/>
+      <c r="I1" s="569"/>
+      <c r="J1" s="569"/>
+      <c r="K1" s="569"/>
+      <c r="L1" s="569"/>
+      <c r="M1" s="569"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="567"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9167,24 +9167,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="571"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="572" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="572"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="564" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="548" t="s">
+      <c r="R3" s="537" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9199,14 +9199,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="539" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9216,11 +9216,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="549"/>
+      <c r="R4" s="538"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11055,11 +11055,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="559">
+      <c r="M49" s="548">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="548">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -11067,7 +11067,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="560">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -11088,10 +11088,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="549"/>
+      <c r="N50" s="549"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="561"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -11146,11 +11146,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="537">
+      <c r="M53" s="562">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="563"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11575,26 +11575,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="567" t="s">
+      <c r="H77" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="568"/>
+      <c r="I77" s="557"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="569">
+      <c r="K77" s="558">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="570"/>
+      <c r="L77" s="559"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="561" t="s">
+      <c r="D78" s="550" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="561"/>
+      <c r="E78" s="550"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -11603,22 +11603,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="562" t="s">
+      <c r="D79" s="551" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="562"/>
+      <c r="E79" s="551"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="563" t="s">
+      <c r="I79" s="552" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="564"/>
-      <c r="K79" s="565">
+      <c r="J79" s="553"/>
+      <c r="K79" s="554">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="565"/>
+      <c r="L79" s="554"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11659,11 +11659,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="566">
+      <c r="K81" s="555">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="565"/>
+      <c r="L81" s="554"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11680,22 +11680,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="554" t="s">
+      <c r="D83" s="543" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="555"/>
+      <c r="E83" s="544"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="556" t="s">
+      <c r="I83" s="545" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="557"/>
-      <c r="K83" s="558">
+      <c r="J83" s="546"/>
+      <c r="K83" s="547">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="558"/>
+      <c r="L83" s="547"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11842,6 +11842,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -11858,12 +11864,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14262,23 +14262,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="566"/>
+      <c r="C1" s="568" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="569"/>
+      <c r="E1" s="569"/>
+      <c r="F1" s="569"/>
+      <c r="G1" s="569"/>
+      <c r="H1" s="569"/>
+      <c r="I1" s="569"/>
+      <c r="J1" s="569"/>
+      <c r="K1" s="569"/>
+      <c r="L1" s="569"/>
+      <c r="M1" s="569"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="567"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -14288,21 +14288,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="571"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="572" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="572"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="564" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -14323,14 +14323,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="539" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -14340,7 +14340,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -16400,11 +16400,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="559">
+      <c r="M49" s="548">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="548">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -16412,7 +16412,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="560">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -16445,10 +16445,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="549"/>
+      <c r="N50" s="549"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="561"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -16533,11 +16533,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="537">
+      <c r="M53" s="562">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="563"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -16866,26 +16866,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="567" t="s">
+      <c r="H69" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="568"/>
+      <c r="I69" s="557"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="569">
+      <c r="K69" s="558">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="570"/>
+      <c r="L69" s="559"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="561" t="s">
+      <c r="D70" s="550" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="561"/>
+      <c r="E70" s="550"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -16894,23 +16894,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="562" t="s">
+      <c r="D71" s="551" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="562"/>
+      <c r="E71" s="551"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="563" t="s">
+      <c r="I71" s="552" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="564"/>
-      <c r="K71" s="565">
+      <c r="J71" s="553"/>
+      <c r="K71" s="554">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="565"/>
+      <c r="L71" s="554"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -16952,11 +16952,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="566">
+      <c r="K73" s="555">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="565"/>
+      <c r="L73" s="554"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -16973,22 +16973,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="554" t="s">
+      <c r="D75" s="543" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="555"/>
+      <c r="E75" s="544"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="556" t="s">
+      <c r="I75" s="545" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="557"/>
-      <c r="K75" s="558">
+      <c r="J75" s="546"/>
+      <c r="K75" s="547">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="558"/>
+      <c r="L75" s="547"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -17136,12 +17136,6 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17158,6 +17152,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19531,7 +19531,7 @@
   <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19557,23 +19557,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="566"/>
+      <c r="C1" s="568" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="569"/>
+      <c r="E1" s="569"/>
+      <c r="F1" s="569"/>
+      <c r="G1" s="569"/>
+      <c r="H1" s="569"/>
+      <c r="I1" s="569"/>
+      <c r="J1" s="569"/>
+      <c r="K1" s="569"/>
+      <c r="L1" s="569"/>
+      <c r="M1" s="569"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="567"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -19583,21 +19583,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="571"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="572" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="572"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="564" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -19616,14 +19616,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="539" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -19633,7 +19633,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -21431,11 +21431,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="559">
+      <c r="M49" s="548">
         <f>SUM(M5:M40)</f>
         <v>702799.5</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="548">
         <f>SUM(N5:N40)</f>
         <v>646060</v>
       </c>
@@ -21443,7 +21443,7 @@
         <f>SUM(P5:P40)</f>
         <v>1656409</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="560">
         <f>SUM(Q5:Q40)</f>
         <v>28972</v>
       </c>
@@ -21464,10 +21464,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="549"/>
+      <c r="N50" s="549"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="561"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>3094</v>
@@ -21522,11 +21522,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="537">
+      <c r="M53" s="562">
         <f>M49+N49</f>
         <v>1348859.5</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="563"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -21807,26 +21807,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="567" t="s">
+      <c r="H69" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="568"/>
+      <c r="I69" s="557"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="569">
+      <c r="K69" s="558">
         <f>I67+L67</f>
         <v>137787.5</v>
       </c>
-      <c r="L69" s="570"/>
+      <c r="L69" s="559"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="561" t="s">
+      <c r="D70" s="550" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="561"/>
+      <c r="E70" s="550"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1287676</v>
@@ -21835,22 +21835,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="562" t="s">
+      <c r="D71" s="551" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="562"/>
+      <c r="E71" s="551"/>
       <c r="F71" s="101">
         <v>0</v>
       </c>
-      <c r="I71" s="563" t="s">
+      <c r="I71" s="552" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="564"/>
-      <c r="K71" s="565">
+      <c r="J71" s="553"/>
+      <c r="K71" s="554">
         <f>F73+F74+F75</f>
         <v>4108227.31</v>
       </c>
-      <c r="L71" s="565"/>
+      <c r="L71" s="554"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -21895,11 +21895,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="566">
+      <c r="K73" s="555">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="565"/>
+      <c r="L73" s="554"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -21920,22 +21920,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="554" t="s">
+      <c r="D75" s="543" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="555"/>
+      <c r="E75" s="544"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="556" t="s">
+      <c r="I75" s="545" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="557"/>
-      <c r="K75" s="558">
+      <c r="J75" s="546"/>
+      <c r="K75" s="547">
         <f>K71+K73</f>
         <v>976840.27</v>
       </c>
-      <c r="L75" s="558"/>
+      <c r="L75" s="547"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -22080,12 +22080,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -22102,6 +22096,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27248,23 +27248,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="566"/>
+      <c r="C1" s="568" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="569"/>
+      <c r="E1" s="569"/>
+      <c r="F1" s="569"/>
+      <c r="G1" s="569"/>
+      <c r="H1" s="569"/>
+      <c r="I1" s="569"/>
+      <c r="J1" s="569"/>
+      <c r="K1" s="569"/>
+      <c r="L1" s="569"/>
+      <c r="M1" s="569"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="567"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27274,24 +27274,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="571"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="572" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="572"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="564" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="548" t="s">
+      <c r="R3" s="537" t="s">
         <v>3</v>
       </c>
     </row>
@@ -27306,14 +27306,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="539" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27323,11 +27323,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="549"/>
+      <c r="R4" s="538"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -29303,11 +29303,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="559">
+      <c r="M49" s="548">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="548">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -29315,7 +29315,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="560">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -29348,10 +29348,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="549"/>
+      <c r="N50" s="549"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="561"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -29442,11 +29442,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="537">
+      <c r="M53" s="562">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="563"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -30005,26 +30005,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="567" t="s">
+      <c r="H77" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="568"/>
+      <c r="I77" s="557"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="569">
+      <c r="K77" s="558">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="570"/>
+      <c r="L77" s="559"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="561" t="s">
+      <c r="D78" s="550" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="561"/>
+      <c r="E78" s="550"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -30033,22 +30033,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="562" t="s">
+      <c r="D79" s="551" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="562"/>
+      <c r="E79" s="551"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="563" t="s">
+      <c r="I79" s="552" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="564"/>
-      <c r="K79" s="565">
+      <c r="J79" s="553"/>
+      <c r="K79" s="554">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="565"/>
+      <c r="L79" s="554"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -30089,11 +30089,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="566">
+      <c r="K81" s="555">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="565"/>
+      <c r="L81" s="554"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -30110,10 +30110,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="554" t="s">
+      <c r="D83" s="543" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="555"/>
+      <c r="E83" s="544"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
@@ -30272,12 +30272,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30294,6 +30288,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33005,23 +33005,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="566"/>
+      <c r="C1" s="568" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="569"/>
+      <c r="E1" s="569"/>
+      <c r="F1" s="569"/>
+      <c r="G1" s="569"/>
+      <c r="H1" s="569"/>
+      <c r="I1" s="569"/>
+      <c r="J1" s="569"/>
+      <c r="K1" s="569"/>
+      <c r="L1" s="569"/>
+      <c r="M1" s="569"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="567"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33031,21 +33031,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="571"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="572" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="572"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="564" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="593" t="s">
@@ -33063,14 +33063,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="539" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33080,7 +33080,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -35065,11 +35065,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="559">
+      <c r="M49" s="548">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="548">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -35077,7 +35077,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="560">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -35110,10 +35110,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="549"/>
+      <c r="N50" s="549"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="561"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -35204,11 +35204,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="537">
+      <c r="M53" s="562">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="563"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -35687,26 +35687,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="567" t="s">
+      <c r="H77" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="568"/>
+      <c r="I77" s="557"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="569">
+      <c r="K77" s="558">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="570"/>
+      <c r="L77" s="559"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="561" t="s">
+      <c r="D78" s="550" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="561"/>
+      <c r="E78" s="550"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -35715,22 +35715,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="562" t="s">
+      <c r="D79" s="551" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="562"/>
+      <c r="E79" s="551"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="563" t="s">
+      <c r="I79" s="552" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="564"/>
-      <c r="K79" s="565">
+      <c r="J79" s="553"/>
+      <c r="K79" s="554">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="565"/>
+      <c r="L79" s="554"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -35771,11 +35771,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="566">
+      <c r="K81" s="555">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="565"/>
+      <c r="L81" s="554"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -35792,22 +35792,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="554" t="s">
+      <c r="D83" s="543" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="555"/>
+      <c r="E83" s="544"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="556" t="s">
+      <c r="I83" s="545" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="557"/>
-      <c r="K83" s="558">
+      <c r="J83" s="546"/>
+      <c r="K83" s="547">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="558"/>
+      <c r="L83" s="547"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -35954,6 +35954,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -35970,12 +35976,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38549,23 +38549,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="566"/>
+      <c r="C1" s="568" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="569"/>
+      <c r="E1" s="569"/>
+      <c r="F1" s="569"/>
+      <c r="G1" s="569"/>
+      <c r="H1" s="569"/>
+      <c r="I1" s="569"/>
+      <c r="J1" s="569"/>
+      <c r="K1" s="569"/>
+      <c r="L1" s="569"/>
+      <c r="M1" s="569"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="567"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -38575,21 +38575,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="571"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="572" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="572"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="564" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="593" t="s">
@@ -38607,14 +38607,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="539" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -38624,7 +38624,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -40649,11 +40649,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="559">
+      <c r="M49" s="548">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="548">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -40661,7 +40661,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="560">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -40688,10 +40688,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="549"/>
+      <c r="N50" s="549"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="561"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -40765,11 +40765,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="537">
+      <c r="M53" s="562">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="563"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -41398,26 +41398,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="567" t="s">
+      <c r="H79" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="568"/>
+      <c r="I79" s="557"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="569">
+      <c r="K79" s="558">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="570"/>
+      <c r="L79" s="559"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="561" t="s">
+      <c r="D80" s="550" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="561"/>
+      <c r="E80" s="550"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -41426,22 +41426,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="562" t="s">
+      <c r="D81" s="551" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="562"/>
+      <c r="E81" s="551"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="563" t="s">
+      <c r="I81" s="552" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="564"/>
-      <c r="K81" s="565">
+      <c r="J81" s="553"/>
+      <c r="K81" s="554">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="565"/>
+      <c r="L81" s="554"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -41482,11 +41482,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="566">
+      <c r="K83" s="555">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="565"/>
+      <c r="L83" s="554"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -41503,22 +41503,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="554" t="s">
+      <c r="D85" s="543" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="555"/>
+      <c r="E85" s="544"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="556" t="s">
+      <c r="I85" s="545" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="557"/>
-      <c r="K85" s="558">
+      <c r="J85" s="546"/>
+      <c r="K85" s="547">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="558"/>
+      <c r="L85" s="547"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -41666,12 +41666,6 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -41688,6 +41682,12 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44342,23 +44342,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="566"/>
+      <c r="C1" s="568" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="569"/>
+      <c r="E1" s="569"/>
+      <c r="F1" s="569"/>
+      <c r="G1" s="569"/>
+      <c r="H1" s="569"/>
+      <c r="I1" s="569"/>
+      <c r="J1" s="569"/>
+      <c r="K1" s="569"/>
+      <c r="L1" s="569"/>
+      <c r="M1" s="569"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="567"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -44368,21 +44368,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="571"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="572" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="572"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="564" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -44403,14 +44403,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="539" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -44420,7 +44420,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -46427,11 +46427,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="559">
+      <c r="M49" s="548">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="548">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -46439,7 +46439,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="560">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -46472,10 +46472,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="549"/>
+      <c r="N50" s="549"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="561"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -46554,11 +46554,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="537">
+      <c r="M53" s="562">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="563"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -47037,26 +47037,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="567" t="s">
+      <c r="H77" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="568"/>
+      <c r="I77" s="557"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="569">
+      <c r="K77" s="558">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="570"/>
+      <c r="L77" s="559"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="561" t="s">
+      <c r="D78" s="550" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="561"/>
+      <c r="E78" s="550"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -47065,22 +47065,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="562" t="s">
+      <c r="D79" s="551" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="562"/>
+      <c r="E79" s="551"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="563" t="s">
+      <c r="I79" s="552" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="564"/>
-      <c r="K79" s="565">
+      <c r="J79" s="553"/>
+      <c r="K79" s="554">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="565"/>
+      <c r="L79" s="554"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -47121,11 +47121,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="566">
+      <c r="K81" s="555">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="565"/>
+      <c r="L81" s="554"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -47142,10 +47142,10 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="554" t="s">
+      <c r="D83" s="543" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="555"/>
+      <c r="E83" s="544"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
@@ -47305,6 +47305,12 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47321,12 +47327,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="785">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2889,6 +2889,12 @@
   </si>
   <si>
     <t>BIMBO-QUESOS-MILANESA-PASTOR-RETAZO</t>
+  </si>
+  <si>
+    <t>LENGUA-´PÑÑP-QIESos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOCUMENTO ZAVALETA </t>
   </si>
 </sst>
 </file>
@@ -5582,6 +5588,39 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5656,39 +5695,6 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9141,23 +9147,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="566"/>
-      <c r="C1" s="568" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="569"/>
-      <c r="E1" s="569"/>
-      <c r="F1" s="569"/>
-      <c r="G1" s="569"/>
-      <c r="H1" s="569"/>
-      <c r="I1" s="569"/>
-      <c r="J1" s="569"/>
-      <c r="K1" s="569"/>
-      <c r="L1" s="569"/>
-      <c r="M1" s="569"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="567"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9167,24 +9173,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="570" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="571"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="572" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="572"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="537" t="s">
+      <c r="R3" s="548" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9199,14 +9205,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9216,11 +9222,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="538"/>
+      <c r="R4" s="549"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11055,11 +11061,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="548">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="548">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -11067,7 +11073,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="560">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -11088,10 +11094,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="549"/>
-      <c r="N50" s="549"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="561"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -11146,11 +11152,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="562">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="563"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11575,26 +11581,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="556" t="s">
+      <c r="H77" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="557"/>
+      <c r="I77" s="568"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="558">
+      <c r="K77" s="569">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="559"/>
+      <c r="L77" s="570"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="550" t="s">
+      <c r="D78" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="550"/>
+      <c r="E78" s="561"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -11603,22 +11609,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="551" t="s">
+      <c r="D79" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="551"/>
+      <c r="E79" s="562"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="552" t="s">
+      <c r="I79" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="553"/>
-      <c r="K79" s="554">
+      <c r="J79" s="564"/>
+      <c r="K79" s="565">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="554"/>
+      <c r="L79" s="565"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11659,11 +11665,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="555">
+      <c r="K81" s="566">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="554"/>
+      <c r="L81" s="565"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11680,22 +11686,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="543" t="s">
+      <c r="D83" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="544"/>
+      <c r="E83" s="555"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="545" t="s">
+      <c r="I83" s="556" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="546"/>
-      <c r="K83" s="547">
+      <c r="J83" s="557"/>
+      <c r="K83" s="558">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="547"/>
+      <c r="L83" s="558"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11842,12 +11848,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -11864,6 +11864,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14262,23 +14268,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="566"/>
-      <c r="C1" s="568" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="569"/>
-      <c r="E1" s="569"/>
-      <c r="F1" s="569"/>
-      <c r="G1" s="569"/>
-      <c r="H1" s="569"/>
-      <c r="I1" s="569"/>
-      <c r="J1" s="569"/>
-      <c r="K1" s="569"/>
-      <c r="L1" s="569"/>
-      <c r="M1" s="569"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="567"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -14288,21 +14294,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="570" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="571"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="572" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="572"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -14323,14 +14329,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -14340,7 +14346,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -16400,11 +16406,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="548">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="548">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -16412,7 +16418,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="560">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -16445,10 +16451,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="549"/>
-      <c r="N50" s="549"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="561"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -16533,11 +16539,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="562">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="563"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -16866,26 +16872,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="556" t="s">
+      <c r="H69" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="557"/>
+      <c r="I69" s="568"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="558">
+      <c r="K69" s="569">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="559"/>
+      <c r="L69" s="570"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="550" t="s">
+      <c r="D70" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="550"/>
+      <c r="E70" s="561"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -16894,23 +16900,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="551" t="s">
+      <c r="D71" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="551"/>
+      <c r="E71" s="562"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="552" t="s">
+      <c r="I71" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="553"/>
-      <c r="K71" s="554">
+      <c r="J71" s="564"/>
+      <c r="K71" s="565">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="554"/>
+      <c r="L71" s="565"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -16952,11 +16958,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="555">
+      <c r="K73" s="566">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="554"/>
+      <c r="L73" s="565"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -16973,22 +16979,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="543" t="s">
+      <c r="D75" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="544"/>
+      <c r="E75" s="555"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="545" t="s">
+      <c r="I75" s="556" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="546"/>
-      <c r="K75" s="547">
+      <c r="J75" s="557"/>
+      <c r="K75" s="558">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="547"/>
+      <c r="L75" s="558"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -17136,6 +17142,12 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17152,12 +17164,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19531,7 +19537,7 @@
   <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19557,23 +19563,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="566"/>
-      <c r="C1" s="568" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="569"/>
-      <c r="E1" s="569"/>
-      <c r="F1" s="569"/>
-      <c r="G1" s="569"/>
-      <c r="H1" s="569"/>
-      <c r="I1" s="569"/>
-      <c r="J1" s="569"/>
-      <c r="K1" s="569"/>
-      <c r="L1" s="569"/>
-      <c r="M1" s="569"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="567"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -19583,21 +19589,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="570" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="571"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="572" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="572"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -19616,14 +19622,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -19633,7 +19639,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -20221,43 +20227,57 @@
       <c r="U15" s="233"/>
       <c r="V15" s="233"/>
     </row>
-    <row r="16" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="504" t="s">
         <v>653</v>
       </c>
       <c r="B16" s="32">
         <v>45119</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="33">
+        <v>12503</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>783</v>
+      </c>
       <c r="E16" s="35">
         <v>45119</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="36">
+        <v>181252</v>
+      </c>
       <c r="G16" s="37"/>
       <c r="H16" s="38">
         <v>45119</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="342"/>
-      <c r="L16" s="13"/>
+      <c r="I16" s="39">
+        <v>1010.5</v>
+      </c>
+      <c r="J16" s="40">
+        <v>45119</v>
+      </c>
+      <c r="K16" s="342" t="s">
+        <v>784</v>
+      </c>
+      <c r="L16" s="13">
+        <v>293293</v>
+      </c>
       <c r="M16" s="42">
-        <v>0</v>
+        <f>59119.5+196090+2185+1069+6611</f>
+        <v>265074.5</v>
       </c>
       <c r="N16" s="43">
-        <v>0</v>
+        <v>46646</v>
       </c>
       <c r="P16" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>618527</v>
       </c>
       <c r="Q16" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="46">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R16" s="282">
+        <v>437275</v>
       </c>
       <c r="S16" s="233" t="s">
         <v>11</v>
@@ -21431,19 +21451,19 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="548">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
-        <v>702799.5</v>
-      </c>
-      <c r="N49" s="548">
+        <v>967874</v>
+      </c>
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
-        <v>646060</v>
+        <v>692706</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>1656409</v>
-      </c>
-      <c r="Q49" s="560">
+        <v>2274936</v>
+      </c>
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>28972</v>
       </c>
@@ -21464,13 +21484,13 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="549"/>
-      <c r="N50" s="549"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="561"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
-        <v>3094</v>
+        <v>440369</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21522,11 +21542,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="562">
+      <c r="M53" s="537">
         <f>M49+N49</f>
-        <v>1348859.5</v>
-      </c>
-      <c r="N53" s="563"/>
+        <v>1660580</v>
+      </c>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -21765,7 +21785,7 @@
       </c>
       <c r="C67" s="519">
         <f>SUM(C5:C61)</f>
-        <v>197476.5</v>
+        <v>209979.5</v>
       </c>
       <c r="D67" s="520"/>
       <c r="E67" s="521" t="s">
@@ -21773,7 +21793,7 @@
       </c>
       <c r="F67" s="522">
         <f>SUM(F5:F61)</f>
-        <v>1622940</v>
+        <v>1804192</v>
       </c>
       <c r="G67" s="523"/>
       <c r="H67" s="521" t="s">
@@ -21781,7 +21801,7 @@
       </c>
       <c r="I67" s="524">
         <f>SUM(I5:I61)</f>
-        <v>24058</v>
+        <v>25068.5</v>
       </c>
       <c r="J67" s="525"/>
       <c r="K67" s="526" t="s">
@@ -21789,7 +21809,7 @@
       </c>
       <c r="L67" s="527">
         <f>SUM(L5:L65)-L26</f>
-        <v>113729.5</v>
+        <v>407022.5</v>
       </c>
       <c r="M67" s="150"/>
       <c r="N67" s="150"/>
@@ -21807,50 +21827,50 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="556" t="s">
+      <c r="H69" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="557"/>
+      <c r="I69" s="568"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="558">
+      <c r="K69" s="569">
         <f>I67+L67</f>
-        <v>137787.5</v>
-      </c>
-      <c r="L69" s="559"/>
+        <v>432091</v>
+      </c>
+      <c r="L69" s="570"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="550" t="s">
+      <c r="D70" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="550"/>
+      <c r="E70" s="561"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
-        <v>1287676</v>
+        <v>1162121.5</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="551" t="s">
+      <c r="D71" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="551"/>
+      <c r="E71" s="562"/>
       <c r="F71" s="101">
         <v>0</v>
       </c>
-      <c r="I71" s="552" t="s">
+      <c r="I71" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="553"/>
-      <c r="K71" s="554">
+      <c r="J71" s="564"/>
+      <c r="K71" s="565">
         <f>F73+F74+F75</f>
-        <v>4108227.31</v>
-      </c>
-      <c r="L71" s="554"/>
+        <v>3982672.81</v>
+      </c>
+      <c r="L71" s="565"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -21888,18 +21908,18 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>1287676</v>
+        <v>1162121.5</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="555">
+      <c r="K73" s="566">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="554"/>
+      <c r="L73" s="565"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -21920,22 +21940,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="543" t="s">
+      <c r="D75" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="544"/>
+      <c r="E75" s="555"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="545" t="s">
+      <c r="I75" s="556" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="546"/>
-      <c r="K75" s="547">
+      <c r="J75" s="557"/>
+      <c r="K75" s="558">
         <f>K71+K73</f>
-        <v>976840.27</v>
-      </c>
-      <c r="L75" s="547"/>
+        <v>851285.77</v>
+      </c>
+      <c r="L75" s="558"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -22080,6 +22100,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -22096,12 +22122,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27248,23 +27268,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="566"/>
-      <c r="C1" s="568" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="569"/>
-      <c r="E1" s="569"/>
-      <c r="F1" s="569"/>
-      <c r="G1" s="569"/>
-      <c r="H1" s="569"/>
-      <c r="I1" s="569"/>
-      <c r="J1" s="569"/>
-      <c r="K1" s="569"/>
-      <c r="L1" s="569"/>
-      <c r="M1" s="569"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="567"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27274,24 +27294,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="570" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="571"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="572" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="572"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="537" t="s">
+      <c r="R3" s="548" t="s">
         <v>3</v>
       </c>
     </row>
@@ -27306,14 +27326,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27323,11 +27343,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="538"/>
+      <c r="R4" s="549"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -29303,11 +29323,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="548">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="548">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -29315,7 +29335,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="560">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -29348,10 +29368,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="549"/>
-      <c r="N50" s="549"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="561"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -29442,11 +29462,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="562">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="563"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -30005,26 +30025,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="556" t="s">
+      <c r="H77" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="557"/>
+      <c r="I77" s="568"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="558">
+      <c r="K77" s="569">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="559"/>
+      <c r="L77" s="570"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="550" t="s">
+      <c r="D78" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="550"/>
+      <c r="E78" s="561"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -30033,22 +30053,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="551" t="s">
+      <c r="D79" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="551"/>
+      <c r="E79" s="562"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="552" t="s">
+      <c r="I79" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="553"/>
-      <c r="K79" s="554">
+      <c r="J79" s="564"/>
+      <c r="K79" s="565">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="554"/>
+      <c r="L79" s="565"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -30089,11 +30109,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="555">
+      <c r="K81" s="566">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="554"/>
+      <c r="L81" s="565"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -30110,10 +30130,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="543" t="s">
+      <c r="D83" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="544"/>
+      <c r="E83" s="555"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
@@ -30272,6 +30292,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30288,12 +30314,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33005,23 +33025,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="566"/>
-      <c r="C1" s="568" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="569"/>
-      <c r="E1" s="569"/>
-      <c r="F1" s="569"/>
-      <c r="G1" s="569"/>
-      <c r="H1" s="569"/>
-      <c r="I1" s="569"/>
-      <c r="J1" s="569"/>
-      <c r="K1" s="569"/>
-      <c r="L1" s="569"/>
-      <c r="M1" s="569"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="567"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33031,21 +33051,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="570" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="571"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="572" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="572"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="593" t="s">
@@ -33063,14 +33083,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33080,7 +33100,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -35065,11 +35085,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="548">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="548">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -35077,7 +35097,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="560">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -35110,10 +35130,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="549"/>
-      <c r="N50" s="549"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="561"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -35204,11 +35224,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="562">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="563"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -35687,26 +35707,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="556" t="s">
+      <c r="H77" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="557"/>
+      <c r="I77" s="568"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="558">
+      <c r="K77" s="569">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="559"/>
+      <c r="L77" s="570"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="550" t="s">
+      <c r="D78" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="550"/>
+      <c r="E78" s="561"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -35715,22 +35735,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="551" t="s">
+      <c r="D79" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="551"/>
+      <c r="E79" s="562"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="552" t="s">
+      <c r="I79" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="553"/>
-      <c r="K79" s="554">
+      <c r="J79" s="564"/>
+      <c r="K79" s="565">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="554"/>
+      <c r="L79" s="565"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -35771,11 +35791,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="555">
+      <c r="K81" s="566">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="554"/>
+      <c r="L81" s="565"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -35792,22 +35812,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="543" t="s">
+      <c r="D83" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="544"/>
+      <c r="E83" s="555"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="545" t="s">
+      <c r="I83" s="556" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="546"/>
-      <c r="K83" s="547">
+      <c r="J83" s="557"/>
+      <c r="K83" s="558">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="547"/>
+      <c r="L83" s="558"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -35954,12 +35974,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -35976,6 +35990,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38549,23 +38569,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="566"/>
-      <c r="C1" s="568" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="569"/>
-      <c r="E1" s="569"/>
-      <c r="F1" s="569"/>
-      <c r="G1" s="569"/>
-      <c r="H1" s="569"/>
-      <c r="I1" s="569"/>
-      <c r="J1" s="569"/>
-      <c r="K1" s="569"/>
-      <c r="L1" s="569"/>
-      <c r="M1" s="569"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="567"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -38575,21 +38595,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="570" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="571"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="572" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="572"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="593" t="s">
@@ -38607,14 +38627,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -38624,7 +38644,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -40649,11 +40669,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="548">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="548">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -40661,7 +40681,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="560">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -40688,10 +40708,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="549"/>
-      <c r="N50" s="549"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="561"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -40765,11 +40785,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="562">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="563"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -41398,26 +41418,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="556" t="s">
+      <c r="H79" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="557"/>
+      <c r="I79" s="568"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="558">
+      <c r="K79" s="569">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="559"/>
+      <c r="L79" s="570"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="550" t="s">
+      <c r="D80" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="550"/>
+      <c r="E80" s="561"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -41426,22 +41446,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="551" t="s">
+      <c r="D81" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="551"/>
+      <c r="E81" s="562"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="552" t="s">
+      <c r="I81" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="553"/>
-      <c r="K81" s="554">
+      <c r="J81" s="564"/>
+      <c r="K81" s="565">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="554"/>
+      <c r="L81" s="565"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -41482,11 +41502,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="555">
+      <c r="K83" s="566">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="554"/>
+      <c r="L83" s="565"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -41503,22 +41523,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="543" t="s">
+      <c r="D85" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="544"/>
+      <c r="E85" s="555"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="545" t="s">
+      <c r="I85" s="556" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="546"/>
-      <c r="K85" s="547">
+      <c r="J85" s="557"/>
+      <c r="K85" s="558">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="547"/>
+      <c r="L85" s="558"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -41666,6 +41686,12 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -41682,12 +41708,6 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44342,23 +44362,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="566"/>
-      <c r="C1" s="568" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="569"/>
-      <c r="E1" s="569"/>
-      <c r="F1" s="569"/>
-      <c r="G1" s="569"/>
-      <c r="H1" s="569"/>
-      <c r="I1" s="569"/>
-      <c r="J1" s="569"/>
-      <c r="K1" s="569"/>
-      <c r="L1" s="569"/>
-      <c r="M1" s="569"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="567"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -44368,21 +44388,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="570" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="571"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="572" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="572"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -44403,14 +44423,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -44420,7 +44440,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -46427,11 +46447,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="548">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="548">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -46439,7 +46459,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="560">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -46472,10 +46492,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="549"/>
-      <c r="N50" s="549"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="561"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -46554,11 +46574,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="562">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="563"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -47037,26 +47057,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="556" t="s">
+      <c r="H77" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="557"/>
+      <c r="I77" s="568"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="558">
+      <c r="K77" s="569">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="559"/>
+      <c r="L77" s="570"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="550" t="s">
+      <c r="D78" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="550"/>
+      <c r="E78" s="561"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -47065,22 +47085,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="551" t="s">
+      <c r="D79" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="551"/>
+      <c r="E79" s="562"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="552" t="s">
+      <c r="I79" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="553"/>
-      <c r="K79" s="554">
+      <c r="J79" s="564"/>
+      <c r="K79" s="565">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="554"/>
+      <c r="L79" s="565"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -47121,11 +47141,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="555">
+      <c r="K81" s="566">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="554"/>
+      <c r="L81" s="565"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -47142,10 +47162,10 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="543" t="s">
+      <c r="D83" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="544"/>
+      <c r="E83" s="555"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
@@ -47305,12 +47325,6 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47327,6 +47341,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="2" r:id="rId1"/>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="790">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2895,6 +2895,21 @@
   </si>
   <si>
     <t xml:space="preserve">DOCUMENTO ZAVALETA </t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-SAL</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-JAMON-SALSAS</t>
+  </si>
+  <si>
+    <t>MAIZ-JAMON-POLLO-QUESOS-MOLE-SALCHICHA</t>
+  </si>
+  <si>
+    <t>NOMINA # 28</t>
+  </si>
+  <si>
+    <t>PASTOR--ARABE-QUESOS-JAMON-CHISTORRA-CHORIZO</t>
   </si>
 </sst>
 </file>
@@ -5588,39 +5603,6 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5695,6 +5677,39 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9147,23 +9162,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="566"/>
+      <c r="C1" s="568" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="569"/>
+      <c r="E1" s="569"/>
+      <c r="F1" s="569"/>
+      <c r="G1" s="569"/>
+      <c r="H1" s="569"/>
+      <c r="I1" s="569"/>
+      <c r="J1" s="569"/>
+      <c r="K1" s="569"/>
+      <c r="L1" s="569"/>
+      <c r="M1" s="569"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="567"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9173,24 +9188,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="571"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="572" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="572"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="564" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="548" t="s">
+      <c r="R3" s="537" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9205,14 +9220,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="539" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9222,11 +9237,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="549"/>
+      <c r="R4" s="538"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11061,11 +11076,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="559">
+      <c r="M49" s="548">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="548">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -11073,7 +11088,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="560">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -11094,10 +11109,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="549"/>
+      <c r="N50" s="549"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="561"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -11152,11 +11167,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="537">
+      <c r="M53" s="562">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="563"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11581,26 +11596,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="567" t="s">
+      <c r="H77" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="568"/>
+      <c r="I77" s="557"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="569">
+      <c r="K77" s="558">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="570"/>
+      <c r="L77" s="559"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="561" t="s">
+      <c r="D78" s="550" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="561"/>
+      <c r="E78" s="550"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -11609,22 +11624,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="562" t="s">
+      <c r="D79" s="551" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="562"/>
+      <c r="E79" s="551"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="563" t="s">
+      <c r="I79" s="552" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="564"/>
-      <c r="K79" s="565">
+      <c r="J79" s="553"/>
+      <c r="K79" s="554">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="565"/>
+      <c r="L79" s="554"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11665,11 +11680,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="566">
+      <c r="K81" s="555">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="565"/>
+      <c r="L81" s="554"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11686,22 +11701,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="554" t="s">
+      <c r="D83" s="543" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="555"/>
+      <c r="E83" s="544"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="556" t="s">
+      <c r="I83" s="545" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="557"/>
-      <c r="K83" s="558">
+      <c r="J83" s="546"/>
+      <c r="K83" s="547">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="558"/>
+      <c r="L83" s="547"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11848,6 +11863,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -11864,12 +11885,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14268,23 +14283,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="566"/>
+      <c r="C1" s="568" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="569"/>
+      <c r="E1" s="569"/>
+      <c r="F1" s="569"/>
+      <c r="G1" s="569"/>
+      <c r="H1" s="569"/>
+      <c r="I1" s="569"/>
+      <c r="J1" s="569"/>
+      <c r="K1" s="569"/>
+      <c r="L1" s="569"/>
+      <c r="M1" s="569"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="567"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -14294,21 +14309,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="571"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="572" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="572"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="564" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -14329,14 +14344,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="539" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -14346,7 +14361,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -16406,11 +16421,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="559">
+      <c r="M49" s="548">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="548">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -16418,7 +16433,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="560">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -16451,10 +16466,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="549"/>
+      <c r="N50" s="549"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="561"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -16539,11 +16554,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="537">
+      <c r="M53" s="562">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="563"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -16872,26 +16887,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="567" t="s">
+      <c r="H69" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="568"/>
+      <c r="I69" s="557"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="569">
+      <c r="K69" s="558">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="570"/>
+      <c r="L69" s="559"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="561" t="s">
+      <c r="D70" s="550" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="561"/>
+      <c r="E70" s="550"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -16900,23 +16915,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="562" t="s">
+      <c r="D71" s="551" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="562"/>
+      <c r="E71" s="551"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="563" t="s">
+      <c r="I71" s="552" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="564"/>
-      <c r="K71" s="565">
+      <c r="J71" s="553"/>
+      <c r="K71" s="554">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="565"/>
+      <c r="L71" s="554"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -16958,11 +16973,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="566">
+      <c r="K73" s="555">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="565"/>
+      <c r="L73" s="554"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -16979,22 +16994,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="554" t="s">
+      <c r="D75" s="543" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="555"/>
+      <c r="E75" s="544"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="556" t="s">
+      <c r="I75" s="545" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="557"/>
-      <c r="K75" s="558">
+      <c r="J75" s="546"/>
+      <c r="K75" s="547">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="558"/>
+      <c r="L75" s="547"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -17142,12 +17157,6 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17164,6 +17173,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19536,8 +19551,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19563,23 +19578,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="566"/>
+      <c r="C1" s="568" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="569"/>
+      <c r="E1" s="569"/>
+      <c r="F1" s="569"/>
+      <c r="G1" s="569"/>
+      <c r="H1" s="569"/>
+      <c r="I1" s="569"/>
+      <c r="J1" s="569"/>
+      <c r="K1" s="569"/>
+      <c r="L1" s="569"/>
+      <c r="M1" s="569"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="567"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -19589,21 +19604,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="571"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="572" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="572"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="564" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -19622,14 +19637,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="539" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -19639,7 +19654,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -20227,7 +20242,7 @@
       <c r="U15" s="233"/>
       <c r="V15" s="233"/>
     </row>
-    <row r="16" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="504" t="s">
         <v>653</v>
       </c>
@@ -20293,37 +20308,46 @@
       <c r="B17" s="32">
         <v>45120</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="47"/>
+      <c r="C17" s="33">
+        <v>3833</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>785</v>
+      </c>
       <c r="E17" s="35">
         <v>45120</v>
       </c>
-      <c r="F17" s="36"/>
+      <c r="F17" s="36">
+        <v>123280</v>
+      </c>
       <c r="G17" s="37"/>
       <c r="H17" s="38">
         <v>45120</v>
       </c>
-      <c r="I17" s="39"/>
+      <c r="I17" s="39">
+        <v>1075</v>
+      </c>
       <c r="J17" s="40"/>
       <c r="K17" s="65"/>
       <c r="L17" s="55"/>
       <c r="M17" s="42">
-        <v>0</v>
+        <f>6664.66+66024</f>
+        <v>72688.66</v>
       </c>
       <c r="N17" s="43">
-        <v>0</v>
+        <v>45684</v>
       </c>
       <c r="O17" s="499"/>
       <c r="P17" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>123280.66</v>
       </c>
       <c r="Q17" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="46">
-        <v>0</v>
+        <v>0.66000000000349246</v>
+      </c>
+      <c r="R17" s="46" t="s">
+        <v>10</v>
       </c>
       <c r="S17" s="233"/>
       <c r="T17" s="233"/>
@@ -20337,29 +20361,38 @@
       <c r="B18" s="32">
         <v>45121</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="51"/>
+      <c r="C18" s="33">
+        <v>14381</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>786</v>
+      </c>
       <c r="E18" s="35">
         <v>45121</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="36">
+        <v>161578</v>
+      </c>
       <c r="G18" s="37"/>
       <c r="H18" s="38">
         <v>45121</v>
       </c>
-      <c r="I18" s="39"/>
+      <c r="I18" s="39">
+        <v>1927</v>
+      </c>
       <c r="J18" s="40"/>
       <c r="K18" s="58"/>
       <c r="L18" s="49"/>
       <c r="M18" s="42">
-        <v>0</v>
+        <f>92824+5932</f>
+        <v>98756</v>
       </c>
       <c r="N18" s="43">
-        <v>0</v>
+        <v>46514</v>
       </c>
       <c r="P18" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>161578</v>
       </c>
       <c r="Q18" s="45">
         <f t="shared" si="1"/>
@@ -20380,30 +20413,45 @@
       <c r="B19" s="32">
         <v>45122</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="47"/>
+      <c r="C19" s="33">
+        <v>11918</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>787</v>
+      </c>
       <c r="E19" s="35">
         <v>45122</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="36">
+        <v>169322</v>
+      </c>
       <c r="G19" s="37"/>
       <c r="H19" s="38">
         <v>45122</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="344"/>
-      <c r="L19" s="59"/>
+      <c r="I19" s="39">
+        <v>6179</v>
+      </c>
+      <c r="J19" s="40">
+        <v>45122</v>
+      </c>
+      <c r="K19" s="344" t="s">
+        <v>788</v>
+      </c>
+      <c r="L19" s="59">
+        <v>22183</v>
+      </c>
       <c r="M19" s="42">
-        <v>0</v>
+        <f>59255</f>
+        <v>59255</v>
       </c>
       <c r="N19" s="43">
-        <v>0</v>
+        <v>69787</v>
       </c>
       <c r="O19" s="499"/>
       <c r="P19" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>169322</v>
       </c>
       <c r="Q19" s="45">
         <f t="shared" si="1"/>
@@ -20424,29 +20472,38 @@
       <c r="B20" s="32">
         <v>45123</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="47"/>
+      <c r="C20" s="33">
+        <f>14885+6185</f>
+        <v>21070</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>789</v>
+      </c>
       <c r="E20" s="35">
         <v>45123</v>
       </c>
-      <c r="F20" s="36"/>
+      <c r="F20" s="36">
+        <v>134627</v>
+      </c>
       <c r="G20" s="37"/>
       <c r="H20" s="38">
         <v>45123</v>
       </c>
-      <c r="I20" s="39"/>
+      <c r="I20" s="39">
+        <v>1320</v>
+      </c>
       <c r="J20" s="40"/>
       <c r="K20" s="60"/>
       <c r="L20" s="55"/>
       <c r="M20" s="42">
-        <v>0</v>
+        <v>53178</v>
       </c>
       <c r="N20" s="43">
-        <v>0</v>
+        <v>59059</v>
       </c>
       <c r="P20" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>134627</v>
       </c>
       <c r="Q20" s="45">
         <f t="shared" si="1"/>
@@ -21004,12 +21061,11 @@
         <v>0</v>
       </c>
       <c r="P34" s="69">
-        <f t="shared" si="0"/>
-        <v>28972</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="45">
         <f t="shared" si="1"/>
-        <v>28972</v>
+        <v>0</v>
       </c>
       <c r="R34" s="46">
         <v>0</v>
@@ -21064,9 +21120,15 @@
       <c r="G36" s="92"/>
       <c r="H36" s="38"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="338"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="49"/>
+      <c r="J36" s="338">
+        <v>45122</v>
+      </c>
+      <c r="K36" s="88" t="s">
+        <v>788</v>
+      </c>
+      <c r="L36" s="49">
+        <v>30176</v>
+      </c>
       <c r="M36" s="42">
         <v>0</v>
       </c>
@@ -21451,21 +21513,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="559">
+      <c r="M49" s="548">
         <f>SUM(M5:M40)</f>
-        <v>967874</v>
-      </c>
-      <c r="N49" s="559">
+        <v>1251751.6600000001</v>
+      </c>
+      <c r="N49" s="548">
         <f>SUM(N5:N40)</f>
-        <v>692706</v>
+        <v>913750</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>2274936</v>
-      </c>
-      <c r="Q49" s="571">
+        <v>2834771.66</v>
+      </c>
+      <c r="Q49" s="560">
         <f>SUM(Q5:Q40)</f>
-        <v>28972</v>
+        <v>0.66000000000349246</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -21484,10 +21546,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="549"/>
+      <c r="N50" s="549"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="561"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -21542,11 +21604,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="537">
+      <c r="M53" s="562">
         <f>M49+N49</f>
-        <v>1660580</v>
-      </c>
-      <c r="N53" s="538"/>
+        <v>2165501.66</v>
+      </c>
+      <c r="N53" s="563"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -21785,7 +21847,7 @@
       </c>
       <c r="C67" s="519">
         <f>SUM(C5:C61)</f>
-        <v>209979.5</v>
+        <v>261181.5</v>
       </c>
       <c r="D67" s="520"/>
       <c r="E67" s="521" t="s">
@@ -21793,7 +21855,7 @@
       </c>
       <c r="F67" s="522">
         <f>SUM(F5:F61)</f>
-        <v>1804192</v>
+        <v>2392999</v>
       </c>
       <c r="G67" s="523"/>
       <c r="H67" s="521" t="s">
@@ -21801,7 +21863,7 @@
       </c>
       <c r="I67" s="524">
         <f>SUM(I5:I61)</f>
-        <v>25068.5</v>
+        <v>35569.5</v>
       </c>
       <c r="J67" s="525"/>
       <c r="K67" s="526" t="s">
@@ -21809,7 +21871,7 @@
       </c>
       <c r="L67" s="527">
         <f>SUM(L5:L65)-L26</f>
-        <v>407022.5</v>
+        <v>459381.5</v>
       </c>
       <c r="M67" s="150"/>
       <c r="N67" s="150"/>
@@ -21827,50 +21889,50 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="567" t="s">
+      <c r="H69" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="568"/>
+      <c r="I69" s="557"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="569">
+      <c r="K69" s="558">
         <f>I67+L67</f>
-        <v>432091</v>
-      </c>
-      <c r="L69" s="570"/>
+        <v>494951</v>
+      </c>
+      <c r="L69" s="559"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="561" t="s">
+      <c r="D70" s="550" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="561"/>
+      <c r="E70" s="550"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
-        <v>1162121.5</v>
+        <v>1636866.5</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="562" t="s">
+      <c r="D71" s="551" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="562"/>
+      <c r="E71" s="551"/>
       <c r="F71" s="101">
         <v>0</v>
       </c>
-      <c r="I71" s="563" t="s">
+      <c r="I71" s="552" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="564"/>
-      <c r="K71" s="565">
+      <c r="J71" s="553"/>
+      <c r="K71" s="554">
         <f>F73+F74+F75</f>
-        <v>3982672.81</v>
-      </c>
-      <c r="L71" s="565"/>
+        <v>4457417.8100000005</v>
+      </c>
+      <c r="L71" s="554"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -21908,18 +21970,18 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>1162121.5</v>
+        <v>1636866.5</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="566">
+      <c r="K73" s="555">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="565"/>
+      <c r="L73" s="554"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -21940,22 +22002,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="554" t="s">
+      <c r="D75" s="543" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="555"/>
+      <c r="E75" s="544"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="556" t="s">
+      <c r="I75" s="545" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="557"/>
-      <c r="K75" s="558">
+      <c r="J75" s="546"/>
+      <c r="K75" s="547">
         <f>K71+K73</f>
-        <v>851285.77</v>
-      </c>
-      <c r="L75" s="558"/>
+        <v>1326030.7700000005</v>
+      </c>
+      <c r="L75" s="547"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -22100,12 +22162,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -22122,6 +22178,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27268,23 +27330,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="566"/>
+      <c r="C1" s="568" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="569"/>
+      <c r="E1" s="569"/>
+      <c r="F1" s="569"/>
+      <c r="G1" s="569"/>
+      <c r="H1" s="569"/>
+      <c r="I1" s="569"/>
+      <c r="J1" s="569"/>
+      <c r="K1" s="569"/>
+      <c r="L1" s="569"/>
+      <c r="M1" s="569"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="567"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27294,24 +27356,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="571"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="572" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="572"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="564" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="548" t="s">
+      <c r="R3" s="537" t="s">
         <v>3</v>
       </c>
     </row>
@@ -27326,14 +27388,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="539" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27343,11 +27405,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="549"/>
+      <c r="R4" s="538"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -29323,11 +29385,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="559">
+      <c r="M49" s="548">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="548">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -29335,7 +29397,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="560">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -29368,10 +29430,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="549"/>
+      <c r="N50" s="549"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="561"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -29462,11 +29524,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="537">
+      <c r="M53" s="562">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="563"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -30025,26 +30087,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="567" t="s">
+      <c r="H77" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="568"/>
+      <c r="I77" s="557"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="569">
+      <c r="K77" s="558">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="570"/>
+      <c r="L77" s="559"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="561" t="s">
+      <c r="D78" s="550" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="561"/>
+      <c r="E78" s="550"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -30053,22 +30115,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="562" t="s">
+      <c r="D79" s="551" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="562"/>
+      <c r="E79" s="551"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="563" t="s">
+      <c r="I79" s="552" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="564"/>
-      <c r="K79" s="565">
+      <c r="J79" s="553"/>
+      <c r="K79" s="554">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="565"/>
+      <c r="L79" s="554"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -30109,11 +30171,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="566">
+      <c r="K81" s="555">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="565"/>
+      <c r="L81" s="554"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -30130,10 +30192,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="554" t="s">
+      <c r="D83" s="543" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="555"/>
+      <c r="E83" s="544"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
@@ -30292,12 +30354,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30314,6 +30370,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33025,23 +33087,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="566"/>
+      <c r="C1" s="568" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="569"/>
+      <c r="E1" s="569"/>
+      <c r="F1" s="569"/>
+      <c r="G1" s="569"/>
+      <c r="H1" s="569"/>
+      <c r="I1" s="569"/>
+      <c r="J1" s="569"/>
+      <c r="K1" s="569"/>
+      <c r="L1" s="569"/>
+      <c r="M1" s="569"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="567"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33051,21 +33113,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="571"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="572" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="572"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="564" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="593" t="s">
@@ -33083,14 +33145,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="539" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33100,7 +33162,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -35085,11 +35147,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="559">
+      <c r="M49" s="548">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="548">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -35097,7 +35159,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="560">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -35130,10 +35192,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="549"/>
+      <c r="N50" s="549"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="561"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -35224,11 +35286,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="537">
+      <c r="M53" s="562">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="563"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -35707,26 +35769,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="567" t="s">
+      <c r="H77" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="568"/>
+      <c r="I77" s="557"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="569">
+      <c r="K77" s="558">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="570"/>
+      <c r="L77" s="559"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="561" t="s">
+      <c r="D78" s="550" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="561"/>
+      <c r="E78" s="550"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -35735,22 +35797,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="562" t="s">
+      <c r="D79" s="551" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="562"/>
+      <c r="E79" s="551"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="563" t="s">
+      <c r="I79" s="552" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="564"/>
-      <c r="K79" s="565">
+      <c r="J79" s="553"/>
+      <c r="K79" s="554">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="565"/>
+      <c r="L79" s="554"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -35791,11 +35853,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="566">
+      <c r="K81" s="555">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="565"/>
+      <c r="L81" s="554"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -35812,22 +35874,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="554" t="s">
+      <c r="D83" s="543" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="555"/>
+      <c r="E83" s="544"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="556" t="s">
+      <c r="I83" s="545" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="557"/>
-      <c r="K83" s="558">
+      <c r="J83" s="546"/>
+      <c r="K83" s="547">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="558"/>
+      <c r="L83" s="547"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -35974,6 +36036,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -35990,12 +36058,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38569,23 +38631,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="566"/>
+      <c r="C1" s="568" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="569"/>
+      <c r="E1" s="569"/>
+      <c r="F1" s="569"/>
+      <c r="G1" s="569"/>
+      <c r="H1" s="569"/>
+      <c r="I1" s="569"/>
+      <c r="J1" s="569"/>
+      <c r="K1" s="569"/>
+      <c r="L1" s="569"/>
+      <c r="M1" s="569"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="567"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -38595,21 +38657,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="571"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="572" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="572"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="564" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="593" t="s">
@@ -38627,14 +38689,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="539" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -38644,7 +38706,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -40669,11 +40731,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="559">
+      <c r="M49" s="548">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="548">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -40681,7 +40743,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="560">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -40708,10 +40770,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="549"/>
+      <c r="N50" s="549"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="561"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -40785,11 +40847,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="537">
+      <c r="M53" s="562">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="563"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -41418,26 +41480,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="567" t="s">
+      <c r="H79" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="568"/>
+      <c r="I79" s="557"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="569">
+      <c r="K79" s="558">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="570"/>
+      <c r="L79" s="559"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="561" t="s">
+      <c r="D80" s="550" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="561"/>
+      <c r="E80" s="550"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -41446,22 +41508,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="562" t="s">
+      <c r="D81" s="551" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="562"/>
+      <c r="E81" s="551"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="563" t="s">
+      <c r="I81" s="552" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="564"/>
-      <c r="K81" s="565">
+      <c r="J81" s="553"/>
+      <c r="K81" s="554">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="565"/>
+      <c r="L81" s="554"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -41502,11 +41564,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="566">
+      <c r="K83" s="555">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="565"/>
+      <c r="L83" s="554"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -41523,22 +41585,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="554" t="s">
+      <c r="D85" s="543" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="555"/>
+      <c r="E85" s="544"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="556" t="s">
+      <c r="I85" s="545" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="557"/>
-      <c r="K85" s="558">
+      <c r="J85" s="546"/>
+      <c r="K85" s="547">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="558"/>
+      <c r="L85" s="547"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -41686,12 +41748,6 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -41708,6 +41764,12 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44362,23 +44424,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="566"/>
+      <c r="C1" s="568" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="569"/>
+      <c r="E1" s="569"/>
+      <c r="F1" s="569"/>
+      <c r="G1" s="569"/>
+      <c r="H1" s="569"/>
+      <c r="I1" s="569"/>
+      <c r="J1" s="569"/>
+      <c r="K1" s="569"/>
+      <c r="L1" s="569"/>
+      <c r="M1" s="569"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="567"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -44388,21 +44450,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="571"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="572" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="572"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="564" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -44423,14 +44485,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="539" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -44440,7 +44502,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="565"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -46447,11 +46509,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="559">
+      <c r="M49" s="548">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="548">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -46459,7 +46521,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="560">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -46492,10 +46554,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="549"/>
+      <c r="N50" s="549"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="561"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -46574,11 +46636,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="537">
+      <c r="M53" s="562">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="563"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -47057,26 +47119,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="567" t="s">
+      <c r="H77" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="568"/>
+      <c r="I77" s="557"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="569">
+      <c r="K77" s="558">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="570"/>
+      <c r="L77" s="559"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="561" t="s">
+      <c r="D78" s="550" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="561"/>
+      <c r="E78" s="550"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -47085,22 +47147,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="562" t="s">
+      <c r="D79" s="551" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="562"/>
+      <c r="E79" s="551"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="563" t="s">
+      <c r="I79" s="552" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="564"/>
-      <c r="K79" s="565">
+      <c r="J79" s="553"/>
+      <c r="K79" s="554">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="565"/>
+      <c r="L79" s="554"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -47141,11 +47203,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="566">
+      <c r="K81" s="555">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="565"/>
+      <c r="L81" s="554"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -47162,10 +47224,10 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="554" t="s">
+      <c r="D83" s="543" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="555"/>
+      <c r="E83" s="544"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
@@ -47325,6 +47387,12 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47341,12 +47409,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="805">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2910,6 +2910,51 @@
   </si>
   <si>
     <t>PASTOR--ARABE-QUESOS-JAMON-CHISTORRA-CHORIZO</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-CHORIZO-JAMON-SALCHICHA</t>
+  </si>
+  <si>
+    <t>BIMBO-QUESOS-POLLO-JAMON-LONGANIZA</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 3492</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 4153</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 4812</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 4952</t>
+  </si>
+  <si>
+    <t>Licencia Zavaleta</t>
+  </si>
+  <si>
+    <t>BIMBO-PASTOR-POLLO-QUESOS-CEBOLLA</t>
+  </si>
+  <si>
+    <t>QUESOS-JAMON-POLLO-SALCHICAS-NATA</t>
+  </si>
+  <si>
+    <t>NOMINA # 29</t>
+  </si>
+  <si>
+    <t>PASTOR-QUESOS-CHISTORRA-JAMON</t>
+  </si>
+  <si>
+    <t>CHORIZO-SALCHICHA-MAIZ-JAMON-QUESOS-POLLO</t>
+  </si>
+  <si>
+    <t>BIMBO-SALCHICHA-SALMON-QUESOS-POLLO-SALSAS</t>
+  </si>
+  <si>
+    <t>POLLO-ROASBEF-QUSOS-ARABE</t>
+  </si>
+  <si>
+    <t>SAL-PASTOR-POLLO</t>
   </si>
 </sst>
 </file>
@@ -4593,7 +4638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="595">
+  <cellXfs count="596">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5603,6 +5648,39 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5678,39 +5756,6 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5776,6 +5821,9 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9162,23 +9210,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="566"/>
-      <c r="C1" s="568" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="569"/>
-      <c r="E1" s="569"/>
-      <c r="F1" s="569"/>
-      <c r="G1" s="569"/>
-      <c r="H1" s="569"/>
-      <c r="I1" s="569"/>
-      <c r="J1" s="569"/>
-      <c r="K1" s="569"/>
-      <c r="L1" s="569"/>
-      <c r="M1" s="569"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="567"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9188,24 +9236,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="570" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="571"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="572" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="572"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="537" t="s">
+      <c r="R3" s="548" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9220,14 +9268,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9237,11 +9285,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="538"/>
+      <c r="R4" s="549"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11076,11 +11124,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="548">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="548">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -11088,7 +11136,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="560">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -11109,10 +11157,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="549"/>
-      <c r="N50" s="549"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="561"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -11167,11 +11215,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="562">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="563"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11596,26 +11644,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="556" t="s">
+      <c r="H77" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="557"/>
+      <c r="I77" s="568"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="558">
+      <c r="K77" s="569">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="559"/>
+      <c r="L77" s="570"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="550" t="s">
+      <c r="D78" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="550"/>
+      <c r="E78" s="561"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -11624,22 +11672,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="551" t="s">
+      <c r="D79" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="551"/>
+      <c r="E79" s="562"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="552" t="s">
+      <c r="I79" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="553"/>
-      <c r="K79" s="554">
+      <c r="J79" s="564"/>
+      <c r="K79" s="565">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="554"/>
+      <c r="L79" s="565"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11680,11 +11728,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="555">
+      <c r="K81" s="566">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="554"/>
+      <c r="L81" s="565"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11701,22 +11749,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="543" t="s">
+      <c r="D83" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="544"/>
+      <c r="E83" s="555"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="545" t="s">
+      <c r="I83" s="556" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="546"/>
-      <c r="K83" s="547">
+      <c r="J83" s="557"/>
+      <c r="K83" s="558">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="547"/>
+      <c r="L83" s="558"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11863,12 +11911,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -11885,6 +11927,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14283,23 +14331,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="566"/>
-      <c r="C1" s="568" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="569"/>
-      <c r="E1" s="569"/>
-      <c r="F1" s="569"/>
-      <c r="G1" s="569"/>
-      <c r="H1" s="569"/>
-      <c r="I1" s="569"/>
-      <c r="J1" s="569"/>
-      <c r="K1" s="569"/>
-      <c r="L1" s="569"/>
-      <c r="M1" s="569"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="567"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -14309,21 +14357,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="570" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="571"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="572" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="572"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -14344,14 +14392,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -14361,7 +14409,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -16421,11 +16469,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="548">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="548">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -16433,7 +16481,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="560">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -16466,10 +16514,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="549"/>
-      <c r="N50" s="549"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="561"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -16554,11 +16602,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="562">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="563"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -16887,26 +16935,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="556" t="s">
+      <c r="H69" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="557"/>
+      <c r="I69" s="568"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="558">
+      <c r="K69" s="569">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="559"/>
+      <c r="L69" s="570"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="550" t="s">
+      <c r="D70" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="550"/>
+      <c r="E70" s="561"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -16915,23 +16963,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="551" t="s">
+      <c r="D71" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="551"/>
+      <c r="E71" s="562"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="552" t="s">
+      <c r="I71" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="553"/>
-      <c r="K71" s="554">
+      <c r="J71" s="564"/>
+      <c r="K71" s="565">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="554"/>
+      <c r="L71" s="565"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -16973,11 +17021,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="555">
+      <c r="K73" s="566">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="554"/>
+      <c r="L73" s="565"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -16994,22 +17042,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="543" t="s">
+      <c r="D75" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="544"/>
+      <c r="E75" s="555"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="545" t="s">
+      <c r="I75" s="556" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="546"/>
-      <c r="K75" s="547">
+      <c r="J75" s="557"/>
+      <c r="K75" s="558">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="547"/>
+      <c r="L75" s="558"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -17157,6 +17205,12 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17173,12 +17227,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19551,8 +19599,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19578,23 +19626,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="566"/>
-      <c r="C1" s="568" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="569"/>
-      <c r="E1" s="569"/>
-      <c r="F1" s="569"/>
-      <c r="G1" s="569"/>
-      <c r="H1" s="569"/>
-      <c r="I1" s="569"/>
-      <c r="J1" s="569"/>
-      <c r="K1" s="569"/>
-      <c r="L1" s="569"/>
-      <c r="M1" s="569"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="567"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -19604,21 +19652,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="570" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="571"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="572" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="572"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -19637,14 +19685,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -19654,7 +19702,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -19703,7 +19751,7 @@
         <v>84700</v>
       </c>
       <c r="P5" s="44">
-        <f t="shared" ref="P5:P34" si="0">N5+M5+L5+I5+C5</f>
+        <f t="shared" ref="P5:P33" si="0">N5+M5+L5+I5+C5</f>
         <v>187028</v>
       </c>
       <c r="Q5" s="45">
@@ -20524,33 +20572,42 @@
       <c r="B21" s="32">
         <v>45124</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="47"/>
+      <c r="C21" s="33">
+        <v>17173</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>790</v>
+      </c>
       <c r="E21" s="35">
         <v>45124</v>
       </c>
-      <c r="F21" s="36"/>
+      <c r="F21" s="36">
+        <v>161118</v>
+      </c>
       <c r="G21" s="37"/>
       <c r="H21" s="38">
         <v>45124</v>
       </c>
-      <c r="I21" s="39"/>
+      <c r="I21" s="39">
+        <v>2328</v>
+      </c>
       <c r="J21" s="40"/>
       <c r="K21" s="402"/>
       <c r="L21" s="55"/>
       <c r="M21" s="42">
-        <v>0</v>
+        <f>95440.5+1108</f>
+        <v>96548.5</v>
       </c>
       <c r="N21" s="43">
-        <v>0</v>
+        <v>45068</v>
       </c>
       <c r="P21" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>161117.5</v>
       </c>
       <c r="Q21" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R21" s="46">
         <v>0</v>
@@ -20564,29 +20621,38 @@
       <c r="B22" s="32">
         <v>45125</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="33">
+        <v>26528</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>791</v>
+      </c>
       <c r="E22" s="35">
         <v>45125</v>
       </c>
-      <c r="F22" s="36"/>
+      <c r="F22" s="36">
+        <v>247019</v>
+      </c>
       <c r="G22" s="37"/>
       <c r="H22" s="38">
         <v>45125</v>
       </c>
-      <c r="I22" s="359"/>
+      <c r="I22" s="359">
+        <v>2429</v>
+      </c>
       <c r="J22" s="40"/>
       <c r="K22" s="506"/>
       <c r="L22" s="62"/>
       <c r="M22" s="42">
-        <v>0</v>
+        <f>93028+44000</f>
+        <v>137028</v>
       </c>
       <c r="N22" s="43">
-        <v>0</v>
+        <v>81034</v>
       </c>
       <c r="P22" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>247019</v>
       </c>
       <c r="Q22" s="45">
         <f t="shared" si="1"/>
@@ -20604,33 +20670,48 @@
       <c r="B23" s="32">
         <v>45126</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="47"/>
+      <c r="C23" s="33">
+        <v>6578</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>88</v>
+      </c>
       <c r="E23" s="35">
         <v>45126</v>
       </c>
-      <c r="F23" s="36"/>
+      <c r="F23" s="36">
+        <v>212178</v>
+      </c>
       <c r="G23" s="37"/>
       <c r="H23" s="38">
         <v>45126</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="55"/>
+      <c r="I23" s="39">
+        <v>1822</v>
+      </c>
+      <c r="J23" s="64">
+        <v>45126</v>
+      </c>
+      <c r="K23" s="65" t="s">
+        <v>796</v>
+      </c>
+      <c r="L23" s="55">
+        <v>7209</v>
+      </c>
       <c r="M23" s="42">
-        <v>0</v>
+        <f>127627+1347+4280+8806.6</f>
+        <v>142060.6</v>
       </c>
       <c r="N23" s="43">
-        <v>0</v>
+        <v>54508</v>
       </c>
       <c r="P23" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>212177.6</v>
       </c>
       <c r="Q23" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.39999999999417923</v>
       </c>
       <c r="R23" s="46">
         <v>0</v>
@@ -20644,29 +20725,37 @@
       <c r="B24" s="32">
         <v>45127</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="51"/>
+      <c r="C24" s="33">
+        <v>8756</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>797</v>
+      </c>
       <c r="E24" s="35">
         <v>45127</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="36">
+        <v>187038</v>
+      </c>
       <c r="G24" s="37"/>
       <c r="H24" s="38">
         <v>45127</v>
       </c>
-      <c r="I24" s="39"/>
+      <c r="I24" s="39">
+        <v>1963</v>
+      </c>
       <c r="J24" s="66"/>
       <c r="K24" s="65"/>
       <c r="L24" s="67"/>
       <c r="M24" s="42">
-        <v>0</v>
+        <v>110733</v>
       </c>
       <c r="N24" s="43">
-        <v>0</v>
+        <v>65586</v>
       </c>
       <c r="P24" s="49">
         <f>N24+M24+L24+I24+C24</f>
-        <v>0</v>
+        <v>187038</v>
       </c>
       <c r="Q24" s="45">
         <f t="shared" si="1"/>
@@ -20684,29 +20773,38 @@
       <c r="B25" s="32">
         <v>45128</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="33">
+        <v>19396</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>798</v>
+      </c>
       <c r="E25" s="35">
         <v>45128</v>
       </c>
-      <c r="F25" s="36"/>
+      <c r="F25" s="36">
+        <v>209280</v>
+      </c>
       <c r="G25" s="37"/>
       <c r="H25" s="38">
         <v>45128</v>
       </c>
-      <c r="I25" s="39"/>
+      <c r="I25" s="39">
+        <v>2127</v>
+      </c>
       <c r="J25" s="64"/>
       <c r="K25" s="65"/>
       <c r="L25" s="68"/>
       <c r="M25" s="42">
-        <v>0</v>
+        <f>112366+1905</f>
+        <v>114271</v>
       </c>
       <c r="N25" s="43">
-        <v>0</v>
+        <v>73486</v>
       </c>
       <c r="P25" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>209280</v>
       </c>
       <c r="Q25" s="45">
         <f t="shared" si="1"/>
@@ -20724,32 +20822,48 @@
       <c r="B26" s="32">
         <v>45129</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="47"/>
+      <c r="C26" s="33">
+        <v>11325</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>86</v>
+      </c>
       <c r="E26" s="35">
         <v>45129</v>
       </c>
-      <c r="F26" s="36"/>
+      <c r="F26" s="36">
+        <v>196587</v>
+      </c>
       <c r="G26" s="37"/>
       <c r="H26" s="38">
         <v>45129</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
+      <c r="I26" s="39">
+        <v>2556.5</v>
+      </c>
+      <c r="J26" s="40">
+        <v>45129</v>
+      </c>
+      <c r="K26" s="595" t="s">
+        <v>799</v>
+      </c>
+      <c r="L26" s="71">
+        <f>22683+2100</f>
+        <v>24783</v>
+      </c>
       <c r="M26" s="42">
-        <v>0</v>
+        <f>85748.5</f>
+        <v>85748.5</v>
       </c>
       <c r="N26" s="43">
-        <v>0</v>
+        <v>72174</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P26" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>196587</v>
       </c>
       <c r="Q26" s="45">
         <f t="shared" si="1"/>
@@ -20769,29 +20883,37 @@
       <c r="B27" s="32">
         <v>45130</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="51"/>
+      <c r="C27" s="33">
+        <v>19047</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>800</v>
+      </c>
       <c r="E27" s="35">
         <v>45130</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="36">
+        <v>104829</v>
+      </c>
       <c r="G27" s="37"/>
       <c r="H27" s="38">
         <v>45130</v>
       </c>
-      <c r="I27" s="39"/>
+      <c r="I27" s="39">
+        <v>1268</v>
+      </c>
       <c r="J27" s="337"/>
       <c r="K27" s="345"/>
       <c r="L27" s="68"/>
       <c r="M27" s="42">
-        <v>0</v>
+        <v>46629</v>
       </c>
       <c r="N27" s="43">
-        <v>0</v>
+        <v>37885</v>
       </c>
       <c r="P27" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>104829</v>
       </c>
       <c r="Q27" s="45">
         <f t="shared" si="1"/>
@@ -20809,29 +20931,38 @@
       <c r="B28" s="32">
         <v>45131</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="33">
+        <v>24947.5</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>801</v>
+      </c>
       <c r="E28" s="35">
         <v>45131</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="36">
+        <v>149695</v>
+      </c>
       <c r="G28" s="37"/>
       <c r="H28" s="38">
         <v>45131</v>
       </c>
-      <c r="I28" s="39"/>
+      <c r="I28" s="39">
+        <v>2693</v>
+      </c>
       <c r="J28" s="338"/>
       <c r="K28" s="70"/>
       <c r="L28" s="68"/>
       <c r="M28" s="42">
-        <v>0</v>
+        <f>58763.5+1992</f>
+        <v>60755.5</v>
       </c>
       <c r="N28" s="43">
-        <v>0</v>
+        <v>61299</v>
       </c>
       <c r="P28" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>149695</v>
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="1"/>
@@ -20849,29 +20980,38 @@
       <c r="B29" s="32">
         <v>45132</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="76"/>
+      <c r="C29" s="33">
+        <v>17903</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>802</v>
+      </c>
       <c r="E29" s="35">
         <v>45132</v>
       </c>
-      <c r="F29" s="36"/>
+      <c r="F29" s="36">
+        <v>156042</v>
+      </c>
       <c r="G29" s="37"/>
       <c r="H29" s="38">
         <v>45132</v>
       </c>
-      <c r="I29" s="39"/>
+      <c r="I29" s="39">
+        <v>1685</v>
+      </c>
       <c r="J29" s="339"/>
       <c r="K29" s="346"/>
       <c r="L29" s="68"/>
       <c r="M29" s="42">
-        <v>0</v>
+        <f>87594+321</f>
+        <v>87915</v>
       </c>
       <c r="N29" s="43">
-        <v>0</v>
+        <v>48539</v>
       </c>
       <c r="P29" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>156042</v>
       </c>
       <c r="Q29" s="45">
         <f t="shared" si="1"/>
@@ -20889,29 +21029,38 @@
       <c r="B30" s="32">
         <v>45133</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="76"/>
+      <c r="C30" s="33">
+        <v>12784</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>803</v>
+      </c>
       <c r="E30" s="35">
         <v>45133</v>
       </c>
-      <c r="F30" s="36"/>
+      <c r="F30" s="36">
+        <v>197865</v>
+      </c>
       <c r="G30" s="37"/>
       <c r="H30" s="38">
         <v>45133</v>
       </c>
-      <c r="I30" s="39"/>
+      <c r="I30" s="39">
+        <v>994</v>
+      </c>
       <c r="J30" s="338"/>
       <c r="K30" s="65"/>
       <c r="L30" s="49"/>
       <c r="M30" s="42">
-        <v>0</v>
+        <f>121720+6600</f>
+        <v>128320</v>
       </c>
       <c r="N30" s="43">
-        <v>0</v>
+        <v>55767</v>
       </c>
       <c r="P30" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>197865</v>
       </c>
       <c r="Q30" s="45">
         <f t="shared" si="1"/>
@@ -20929,29 +21078,37 @@
       <c r="B31" s="32">
         <v>45134</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="33">
+        <v>4749</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>804</v>
+      </c>
       <c r="E31" s="35">
         <v>45134</v>
       </c>
-      <c r="F31" s="36"/>
+      <c r="F31" s="36">
+        <v>135472</v>
+      </c>
       <c r="G31" s="37"/>
       <c r="H31" s="38">
         <v>45134</v>
       </c>
-      <c r="I31" s="39"/>
+      <c r="I31" s="39">
+        <v>2852</v>
+      </c>
       <c r="J31" s="338"/>
       <c r="K31" s="347"/>
       <c r="L31" s="68"/>
       <c r="M31" s="42">
-        <v>0</v>
+        <v>78371</v>
       </c>
       <c r="N31" s="43">
-        <v>0</v>
+        <v>49500</v>
       </c>
       <c r="P31" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>135472</v>
       </c>
       <c r="Q31" s="45">
         <f t="shared" si="1"/>
@@ -21076,9 +21233,15 @@
     </row>
     <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="504"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="79"/>
+      <c r="B35" s="32">
+        <v>45108</v>
+      </c>
+      <c r="C35" s="86">
+        <v>9070</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>792</v>
+      </c>
       <c r="E35" s="35"/>
       <c r="F35" s="36"/>
       <c r="G35" s="37"/>
@@ -21112,9 +21275,15 @@
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="94"/>
+      <c r="B36" s="32">
+        <v>45108</v>
+      </c>
+      <c r="C36" s="90">
+        <v>10034</v>
+      </c>
+      <c r="D36" s="94" t="s">
+        <v>793</v>
+      </c>
       <c r="E36" s="35"/>
       <c r="F36" s="36"/>
       <c r="G36" s="92"/>
@@ -21148,17 +21317,29 @@
     </row>
     <row r="37" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="94"/>
+      <c r="B37" s="32">
+        <v>45108</v>
+      </c>
+      <c r="C37" s="93">
+        <v>12993</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>794</v>
+      </c>
       <c r="E37" s="35"/>
       <c r="F37" s="36"/>
       <c r="G37" s="92"/>
       <c r="H37" s="38"/>
       <c r="I37" s="39"/>
-      <c r="J37" s="338"/>
-      <c r="K37" s="350"/>
-      <c r="L37" s="49"/>
+      <c r="J37" s="338">
+        <v>45129</v>
+      </c>
+      <c r="K37" s="350" t="s">
+        <v>799</v>
+      </c>
+      <c r="L37" s="49">
+        <v>29754</v>
+      </c>
       <c r="M37" s="42">
         <v>0</v>
       </c>
@@ -21178,9 +21359,15 @@
     </row>
     <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="512"/>
+      <c r="B38" s="32">
+        <v>45108</v>
+      </c>
+      <c r="C38" s="93">
+        <v>3546</v>
+      </c>
+      <c r="D38" s="94" t="s">
+        <v>795</v>
+      </c>
       <c r="E38" s="35"/>
       <c r="F38" s="36"/>
       <c r="G38" s="92"/>
@@ -21513,21 +21700,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="548">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
-        <v>1251751.6600000001</v>
-      </c>
-      <c r="N49" s="548">
+        <v>2340131.7600000002</v>
+      </c>
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
-        <v>913750</v>
+        <v>1558596</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>2834771.66</v>
-      </c>
-      <c r="Q49" s="560">
+        <v>4791893.76</v>
+      </c>
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
-        <v>0.66000000000349246</v>
+        <v>-0.23999999999068677</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -21546,10 +21733,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="549"/>
-      <c r="N50" s="549"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="561"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -21604,11 +21791,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="562">
+      <c r="M53" s="537">
         <f>M49+N49</f>
-        <v>2165501.66</v>
-      </c>
-      <c r="N53" s="563"/>
+        <v>3898727.7600000002</v>
+      </c>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -21847,7 +22034,7 @@
       </c>
       <c r="C67" s="519">
         <f>SUM(C5:C61)</f>
-        <v>261181.5</v>
+        <v>466011</v>
       </c>
       <c r="D67" s="520"/>
       <c r="E67" s="521" t="s">
@@ -21855,7 +22042,7 @@
       </c>
       <c r="F67" s="522">
         <f>SUM(F5:F61)</f>
-        <v>2392999</v>
+        <v>4350122</v>
       </c>
       <c r="G67" s="523"/>
       <c r="H67" s="521" t="s">
@@ -21863,7 +22050,7 @@
       </c>
       <c r="I67" s="524">
         <f>SUM(I5:I61)</f>
-        <v>35569.5</v>
+        <v>58287</v>
       </c>
       <c r="J67" s="525"/>
       <c r="K67" s="526" t="s">
@@ -21871,7 +22058,7 @@
       </c>
       <c r="L67" s="527">
         <f>SUM(L5:L65)-L26</f>
-        <v>459381.5</v>
+        <v>496344.5</v>
       </c>
       <c r="M67" s="150"/>
       <c r="N67" s="150"/>
@@ -21889,50 +22076,50 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="556" t="s">
+      <c r="H69" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="557"/>
+      <c r="I69" s="568"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="558">
+      <c r="K69" s="569">
         <f>I67+L67</f>
-        <v>494951</v>
-      </c>
-      <c r="L69" s="559"/>
+        <v>554631.5</v>
+      </c>
+      <c r="L69" s="570"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="550" t="s">
+      <c r="D70" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="550"/>
+      <c r="E70" s="561"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
-        <v>1636866.5</v>
+        <v>3329479.5</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="551" t="s">
+      <c r="D71" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="551"/>
+      <c r="E71" s="562"/>
       <c r="F71" s="101">
         <v>0</v>
       </c>
-      <c r="I71" s="552" t="s">
+      <c r="I71" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="553"/>
-      <c r="K71" s="554">
+      <c r="J71" s="564"/>
+      <c r="K71" s="565">
         <f>F73+F74+F75</f>
-        <v>4457417.8100000005</v>
-      </c>
-      <c r="L71" s="554"/>
+        <v>6150030.8100000005</v>
+      </c>
+      <c r="L71" s="565"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -21970,18 +22157,18 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>1636866.5</v>
+        <v>3329479.5</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="555">
+      <c r="K73" s="566">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="554"/>
+      <c r="L73" s="565"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -22002,22 +22189,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="543" t="s">
+      <c r="D75" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="544"/>
+      <c r="E75" s="555"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="545" t="s">
+      <c r="I75" s="556" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="546"/>
-      <c r="K75" s="547">
+      <c r="J75" s="557"/>
+      <c r="K75" s="558">
         <f>K71+K73</f>
-        <v>1326030.7700000005</v>
-      </c>
-      <c r="L75" s="547"/>
+        <v>3018643.7700000005</v>
+      </c>
+      <c r="L75" s="558"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -22162,6 +22349,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -22178,12 +22371,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27330,23 +27517,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="566"/>
-      <c r="C1" s="568" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="569"/>
-      <c r="E1" s="569"/>
-      <c r="F1" s="569"/>
-      <c r="G1" s="569"/>
-      <c r="H1" s="569"/>
-      <c r="I1" s="569"/>
-      <c r="J1" s="569"/>
-      <c r="K1" s="569"/>
-      <c r="L1" s="569"/>
-      <c r="M1" s="569"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="567"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27356,24 +27543,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="570" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="571"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="572" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="572"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="537" t="s">
+      <c r="R3" s="548" t="s">
         <v>3</v>
       </c>
     </row>
@@ -27388,14 +27575,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27405,11 +27592,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="538"/>
+      <c r="R4" s="549"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -29385,11 +29572,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="548">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="548">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -29397,7 +29584,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="560">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -29430,10 +29617,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="549"/>
-      <c r="N50" s="549"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="561"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -29524,11 +29711,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="562">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="563"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -30087,26 +30274,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="556" t="s">
+      <c r="H77" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="557"/>
+      <c r="I77" s="568"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="558">
+      <c r="K77" s="569">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="559"/>
+      <c r="L77" s="570"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="550" t="s">
+      <c r="D78" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="550"/>
+      <c r="E78" s="561"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -30115,22 +30302,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="551" t="s">
+      <c r="D79" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="551"/>
+      <c r="E79" s="562"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="552" t="s">
+      <c r="I79" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="553"/>
-      <c r="K79" s="554">
+      <c r="J79" s="564"/>
+      <c r="K79" s="565">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="554"/>
+      <c r="L79" s="565"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -30171,11 +30358,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="555">
+      <c r="K81" s="566">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="554"/>
+      <c r="L81" s="565"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -30192,10 +30379,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="543" t="s">
+      <c r="D83" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="544"/>
+      <c r="E83" s="555"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
@@ -30354,6 +30541,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30370,12 +30563,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33087,23 +33274,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="566"/>
-      <c r="C1" s="568" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="569"/>
-      <c r="E1" s="569"/>
-      <c r="F1" s="569"/>
-      <c r="G1" s="569"/>
-      <c r="H1" s="569"/>
-      <c r="I1" s="569"/>
-      <c r="J1" s="569"/>
-      <c r="K1" s="569"/>
-      <c r="L1" s="569"/>
-      <c r="M1" s="569"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="567"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33113,21 +33300,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="570" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="571"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="572" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="572"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="593" t="s">
@@ -33145,14 +33332,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33162,7 +33349,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -35147,11 +35334,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="548">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="548">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -35159,7 +35346,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="560">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -35192,10 +35379,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="549"/>
-      <c r="N50" s="549"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="561"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -35286,11 +35473,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="562">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="563"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -35769,26 +35956,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="556" t="s">
+      <c r="H77" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="557"/>
+      <c r="I77" s="568"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="558">
+      <c r="K77" s="569">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="559"/>
+      <c r="L77" s="570"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="550" t="s">
+      <c r="D78" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="550"/>
+      <c r="E78" s="561"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -35797,22 +35984,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="551" t="s">
+      <c r="D79" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="551"/>
+      <c r="E79" s="562"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="552" t="s">
+      <c r="I79" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="553"/>
-      <c r="K79" s="554">
+      <c r="J79" s="564"/>
+      <c r="K79" s="565">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="554"/>
+      <c r="L79" s="565"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -35853,11 +36040,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="555">
+      <c r="K81" s="566">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="554"/>
+      <c r="L81" s="565"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -35874,22 +36061,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="543" t="s">
+      <c r="D83" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="544"/>
+      <c r="E83" s="555"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="545" t="s">
+      <c r="I83" s="556" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="546"/>
-      <c r="K83" s="547">
+      <c r="J83" s="557"/>
+      <c r="K83" s="558">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="547"/>
+      <c r="L83" s="558"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -36036,12 +36223,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36058,6 +36239,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38631,23 +38818,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="566"/>
-      <c r="C1" s="568" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="569"/>
-      <c r="E1" s="569"/>
-      <c r="F1" s="569"/>
-      <c r="G1" s="569"/>
-      <c r="H1" s="569"/>
-      <c r="I1" s="569"/>
-      <c r="J1" s="569"/>
-      <c r="K1" s="569"/>
-      <c r="L1" s="569"/>
-      <c r="M1" s="569"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="567"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -38657,21 +38844,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="570" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="571"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="572" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="572"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="593" t="s">
@@ -38689,14 +38876,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -38706,7 +38893,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -40731,11 +40918,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="548">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="548">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -40743,7 +40930,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="560">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -40770,10 +40957,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="549"/>
-      <c r="N50" s="549"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="561"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -40847,11 +41034,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="562">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="563"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -41480,26 +41667,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="556" t="s">
+      <c r="H79" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="557"/>
+      <c r="I79" s="568"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="558">
+      <c r="K79" s="569">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="559"/>
+      <c r="L79" s="570"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="550" t="s">
+      <c r="D80" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="550"/>
+      <c r="E80" s="561"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -41508,22 +41695,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="551" t="s">
+      <c r="D81" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="551"/>
+      <c r="E81" s="562"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="552" t="s">
+      <c r="I81" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="553"/>
-      <c r="K81" s="554">
+      <c r="J81" s="564"/>
+      <c r="K81" s="565">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="554"/>
+      <c r="L81" s="565"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -41564,11 +41751,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="555">
+      <c r="K83" s="566">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="554"/>
+      <c r="L83" s="565"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -41585,22 +41772,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="543" t="s">
+      <c r="D85" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="544"/>
+      <c r="E85" s="555"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="545" t="s">
+      <c r="I85" s="556" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="546"/>
-      <c r="K85" s="547">
+      <c r="J85" s="557"/>
+      <c r="K85" s="558">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="547"/>
+      <c r="L85" s="558"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -41748,6 +41935,12 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -41764,12 +41957,6 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44424,23 +44611,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="566"/>
-      <c r="C1" s="568" t="s">
+      <c r="B1" s="541"/>
+      <c r="C1" s="543" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="569"/>
-      <c r="E1" s="569"/>
-      <c r="F1" s="569"/>
-      <c r="G1" s="569"/>
-      <c r="H1" s="569"/>
-      <c r="I1" s="569"/>
-      <c r="J1" s="569"/>
-      <c r="K1" s="569"/>
-      <c r="L1" s="569"/>
-      <c r="M1" s="569"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="567"/>
+      <c r="B2" s="542"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -44450,21 +44637,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="570" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="571"/>
+      <c r="B3" s="545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="546"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="572" t="s">
+      <c r="H3" s="547" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="572"/>
+      <c r="I3" s="547"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="564" t="s">
+      <c r="P3" s="539" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -44485,14 +44672,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="550" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="551"/>
+      <c r="H4" s="552" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="553"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -44502,7 +44689,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="565"/>
+      <c r="P4" s="540"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -46509,11 +46696,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="548">
+      <c r="M49" s="559">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="548">
+      <c r="N49" s="559">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -46521,7 +46708,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="560">
+      <c r="Q49" s="571">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -46554,10 +46741,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="549"/>
-      <c r="N50" s="549"/>
+      <c r="M50" s="560"/>
+      <c r="N50" s="560"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="561"/>
+      <c r="Q50" s="572"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -46636,11 +46823,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="562">
+      <c r="M53" s="537">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="563"/>
+      <c r="N53" s="538"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -47119,26 +47306,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="556" t="s">
+      <c r="H77" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="557"/>
+      <c r="I77" s="568"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="558">
+      <c r="K77" s="569">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="559"/>
+      <c r="L77" s="570"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="550" t="s">
+      <c r="D78" s="561" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="550"/>
+      <c r="E78" s="561"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -47147,22 +47334,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="551" t="s">
+      <c r="D79" s="562" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="551"/>
+      <c r="E79" s="562"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="552" t="s">
+      <c r="I79" s="563" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="553"/>
-      <c r="K79" s="554">
+      <c r="J79" s="564"/>
+      <c r="K79" s="565">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="554"/>
+      <c r="L79" s="565"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -47203,11 +47390,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="555">
+      <c r="K81" s="566">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="554"/>
+      <c r="L81" s="565"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -47224,10 +47411,10 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="543" t="s">
+      <c r="D83" s="554" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="544"/>
+      <c r="E83" s="555"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
@@ -47387,12 +47574,6 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47409,6 +47590,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="12" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="2" r:id="rId1"/>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="813">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2955,6 +2955,30 @@
   </si>
   <si>
     <t>SAL-PASTOR-POLLO</t>
+  </si>
+  <si>
+    <t>cargon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basura </t>
+  </si>
+  <si>
+    <t>Limpieza trampa</t>
+  </si>
+  <si>
+    <t>Anticipo RES</t>
+  </si>
+  <si>
+    <t>Calendarios</t>
+  </si>
+  <si>
+    <t>Seguro Cargas</t>
+  </si>
+  <si>
+    <t>Completo RES</t>
+  </si>
+  <si>
+    <t>ADT PRIVATE</t>
   </si>
 </sst>
 </file>
@@ -5648,6 +5672,9 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5821,9 +5848,6 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9210,23 +9234,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="542"/>
+      <c r="C1" s="544" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="545"/>
+      <c r="F1" s="545"/>
+      <c r="G1" s="545"/>
+      <c r="H1" s="545"/>
+      <c r="I1" s="545"/>
+      <c r="J1" s="545"/>
+      <c r="K1" s="545"/>
+      <c r="L1" s="545"/>
+      <c r="M1" s="545"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="543"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9236,24 +9260,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="547"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="548" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="548"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="540" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="548" t="s">
+      <c r="R3" s="549" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9268,14 +9292,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="551" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="552"/>
+      <c r="H4" s="553" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="554"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9285,11 +9309,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="541"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="549"/>
+      <c r="R4" s="550"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11124,11 +11148,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="559">
+      <c r="M49" s="560">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="560">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -11136,7 +11160,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="572">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -11157,10 +11181,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="561"/>
+      <c r="N50" s="561"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="573"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -11215,11 +11239,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="537">
+      <c r="M53" s="538">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="539"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11644,26 +11668,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="567" t="s">
+      <c r="H77" s="568" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="568"/>
+      <c r="I77" s="569"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="569">
+      <c r="K77" s="570">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="570"/>
+      <c r="L77" s="571"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="561" t="s">
+      <c r="D78" s="562" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="561"/>
+      <c r="E78" s="562"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -11672,22 +11696,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="562" t="s">
+      <c r="D79" s="563" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="562"/>
+      <c r="E79" s="563"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="563" t="s">
+      <c r="I79" s="564" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="564"/>
-      <c r="K79" s="565">
+      <c r="J79" s="565"/>
+      <c r="K79" s="566">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="565"/>
+      <c r="L79" s="566"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11728,11 +11752,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="566">
+      <c r="K81" s="567">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="565"/>
+      <c r="L81" s="566"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11749,22 +11773,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="554" t="s">
+      <c r="D83" s="555" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="555"/>
+      <c r="E83" s="556"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="556" t="s">
+      <c r="I83" s="557" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="557"/>
-      <c r="K83" s="558">
+      <c r="J83" s="558"/>
+      <c r="K83" s="559">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="558"/>
+      <c r="L83" s="559"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -13102,10 +13126,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="576" t="s">
+      <c r="I37" s="577" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="577"/>
+      <c r="J37" s="578"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -13124,8 +13148,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="578"/>
-      <c r="J38" s="579"/>
+      <c r="I38" s="579"/>
+      <c r="J38" s="580"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -13144,8 +13168,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="580"/>
-      <c r="J39" s="581"/>
+      <c r="I39" s="581"/>
+      <c r="J39" s="582"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -13703,10 +13727,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="582" t="s">
+      <c r="I67" s="583" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="583"/>
+      <c r="J67" s="584"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -13728,11 +13752,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="586" t="s">
+      <c r="G68" s="587" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="591"/>
-      <c r="J68" s="592"/>
+      <c r="I68" s="592"/>
+      <c r="J68" s="593"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -13743,7 +13767,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="587"/>
+      <c r="G69" s="588"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -14304,8 +14328,8 @@
   </sheetPr>
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView topLeftCell="I5" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14331,23 +14355,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="542"/>
+      <c r="C1" s="544" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="545"/>
+      <c r="F1" s="545"/>
+      <c r="G1" s="545"/>
+      <c r="H1" s="545"/>
+      <c r="I1" s="545"/>
+      <c r="J1" s="545"/>
+      <c r="K1" s="545"/>
+      <c r="L1" s="545"/>
+      <c r="M1" s="545"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="543"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -14357,27 +14381,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="547"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="548" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="548"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="540" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="593" t="s">
+      <c r="R3" s="594" t="s">
         <v>3</v>
       </c>
     </row>
@@ -14392,14 +14416,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="551" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="552"/>
+      <c r="H4" s="553" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="554"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -14409,11 +14433,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="541"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="594"/>
+      <c r="R4" s="595"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -16469,11 +16493,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="559">
+      <c r="M49" s="560">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="560">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -16481,7 +16505,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="572">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -16514,10 +16538,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="561"/>
+      <c r="N50" s="561"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="573"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -16602,11 +16626,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="537">
+      <c r="M53" s="538">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="539"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -16935,26 +16959,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="567" t="s">
+      <c r="H69" s="568" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="568"/>
+      <c r="I69" s="569"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="569">
+      <c r="K69" s="570">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="570"/>
+      <c r="L69" s="571"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="561" t="s">
+      <c r="D70" s="562" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="561"/>
+      <c r="E70" s="562"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -16963,23 +16987,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="562" t="s">
+      <c r="D71" s="563" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="562"/>
+      <c r="E71" s="563"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="563" t="s">
+      <c r="I71" s="564" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="564"/>
-      <c r="K71" s="565">
+      <c r="J71" s="565"/>
+      <c r="K71" s="566">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="565"/>
+      <c r="L71" s="566"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -17021,11 +17045,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="566">
+      <c r="K73" s="567">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="565"/>
+      <c r="L73" s="566"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -17042,22 +17066,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="554" t="s">
+      <c r="D75" s="555" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="555"/>
+      <c r="E75" s="556"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="556" t="s">
+      <c r="I75" s="557" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="557"/>
-      <c r="K75" s="558">
+      <c r="J75" s="558"/>
+      <c r="K75" s="559">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="558"/>
+      <c r="L75" s="559"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -18396,10 +18420,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="576" t="s">
+      <c r="I37" s="577" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="577"/>
+      <c r="J37" s="578"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -18418,8 +18442,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="578"/>
-      <c r="J38" s="579"/>
+      <c r="I38" s="579"/>
+      <c r="J38" s="580"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -18438,8 +18462,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="580"/>
-      <c r="J39" s="581"/>
+      <c r="I39" s="581"/>
+      <c r="J39" s="582"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -18997,10 +19021,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="582" t="s">
+      <c r="I67" s="583" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="583"/>
+      <c r="J67" s="584"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -19022,11 +19046,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="586" t="s">
+      <c r="G68" s="587" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="591"/>
-      <c r="J68" s="592"/>
+      <c r="I68" s="592"/>
+      <c r="J68" s="593"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -19037,7 +19061,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="587"/>
+      <c r="G69" s="588"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -19599,8 +19623,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19626,23 +19650,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="542"/>
+      <c r="C1" s="544" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="545"/>
+      <c r="F1" s="545"/>
+      <c r="G1" s="545"/>
+      <c r="H1" s="545"/>
+      <c r="I1" s="545"/>
+      <c r="J1" s="545"/>
+      <c r="K1" s="545"/>
+      <c r="L1" s="545"/>
+      <c r="M1" s="545"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="543"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -19652,25 +19676,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="547"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="548" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="548"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="540" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="593" t="s">
+      <c r="R3" s="594" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19685,14 +19709,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="551" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="552"/>
+      <c r="H4" s="553" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="554"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -19702,11 +19726,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="541"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="594"/>
+      <c r="R4" s="595"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -20844,7 +20868,7 @@
       <c r="J26" s="40">
         <v>45129</v>
       </c>
-      <c r="K26" s="595" t="s">
+      <c r="K26" s="537" t="s">
         <v>799</v>
       </c>
       <c r="L26" s="71">
@@ -21110,9 +21134,8 @@
         <f t="shared" si="0"/>
         <v>135472</v>
       </c>
-      <c r="Q31" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="Q31" s="45" t="s">
+        <v>10</v>
       </c>
       <c r="R31" s="46">
         <v>0</v>
@@ -21126,32 +21149,40 @@
       <c r="B32" s="32">
         <v>45135</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="305"/>
+      <c r="C32" s="33">
+        <v>6551</v>
+      </c>
+      <c r="D32" s="305" t="s">
+        <v>431</v>
+      </c>
       <c r="E32" s="35">
         <v>45135</v>
       </c>
-      <c r="F32" s="36"/>
+      <c r="F32" s="36">
+        <v>135865</v>
+      </c>
       <c r="G32" s="37"/>
       <c r="H32" s="38">
         <v>45135</v>
       </c>
-      <c r="I32" s="39"/>
+      <c r="I32" s="39">
+        <v>2197</v>
+      </c>
       <c r="J32" s="367"/>
       <c r="K32" s="368"/>
       <c r="L32" s="369"/>
       <c r="M32" s="42">
-        <v>0</v>
+        <v>81977</v>
       </c>
       <c r="N32" s="43">
-        <v>0</v>
+        <v>45140</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P32" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>135865</v>
       </c>
       <c r="Q32" s="45">
         <f t="shared" si="1"/>
@@ -21395,9 +21426,15 @@
     </row>
     <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="94"/>
+      <c r="B39" s="32">
+        <v>45114</v>
+      </c>
+      <c r="C39" s="93">
+        <v>70000</v>
+      </c>
+      <c r="D39" s="94" t="s">
+        <v>808</v>
+      </c>
       <c r="E39" s="35"/>
       <c r="F39" s="97"/>
       <c r="G39" s="92"/>
@@ -21425,17 +21462,31 @@
     </row>
     <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="35"/>
+      <c r="B40" s="32">
+        <v>45121</v>
+      </c>
+      <c r="C40" s="93">
+        <v>2784</v>
+      </c>
+      <c r="D40" s="94" t="s">
+        <v>810</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>10</v>
+      </c>
       <c r="F40" s="97"/>
       <c r="G40" s="37"/>
       <c r="H40" s="38"/>
       <c r="I40" s="98"/>
-      <c r="J40" s="338"/>
-      <c r="K40" s="343"/>
-      <c r="L40" s="49"/>
+      <c r="J40" s="338">
+        <v>45111</v>
+      </c>
+      <c r="K40" s="343" t="s">
+        <v>214</v>
+      </c>
+      <c r="L40" s="49">
+        <v>14500</v>
+      </c>
       <c r="M40" s="42">
         <v>0</v>
       </c>
@@ -21454,17 +21505,29 @@
     </row>
     <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="102"/>
+      <c r="B41" s="32">
+        <v>45124</v>
+      </c>
+      <c r="C41" s="93">
+        <v>100000</v>
+      </c>
+      <c r="D41" s="102" t="s">
+        <v>232</v>
+      </c>
       <c r="E41" s="35"/>
       <c r="F41" s="97"/>
       <c r="G41" s="37"/>
       <c r="H41" s="38"/>
       <c r="I41" s="103"/>
-      <c r="J41" s="338"/>
-      <c r="K41" s="347"/>
-      <c r="L41" s="49"/>
+      <c r="J41" s="338">
+        <v>45112</v>
+      </c>
+      <c r="K41" s="347" t="s">
+        <v>331</v>
+      </c>
+      <c r="L41" s="49">
+        <v>1856</v>
+      </c>
       <c r="M41" s="42">
         <v>0</v>
       </c>
@@ -21484,17 +21547,29 @@
     </row>
     <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="102"/>
+      <c r="B42" s="32">
+        <v>45128</v>
+      </c>
+      <c r="C42" s="93">
+        <v>100000</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>808</v>
+      </c>
       <c r="E42" s="35"/>
       <c r="F42" s="97"/>
       <c r="G42" s="37"/>
       <c r="H42" s="38"/>
       <c r="I42" s="103"/>
-      <c r="J42" s="340"/>
-      <c r="K42" s="347"/>
-      <c r="L42" s="49"/>
+      <c r="J42" s="340">
+        <v>45112</v>
+      </c>
+      <c r="K42" s="347" t="s">
+        <v>805</v>
+      </c>
+      <c r="L42" s="49">
+        <v>10753.2</v>
+      </c>
       <c r="M42" s="42">
         <v>0</v>
       </c>
@@ -21514,17 +21589,29 @@
     </row>
     <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="102"/>
+      <c r="B43" s="32">
+        <v>45132</v>
+      </c>
+      <c r="C43" s="93">
+        <v>119630.7</v>
+      </c>
+      <c r="D43" s="102" t="s">
+        <v>811</v>
+      </c>
       <c r="E43" s="35"/>
       <c r="F43" s="97"/>
       <c r="G43" s="37"/>
       <c r="H43" s="38"/>
       <c r="I43" s="103"/>
-      <c r="J43" s="338"/>
-      <c r="K43" s="343"/>
-      <c r="L43" s="49"/>
+      <c r="J43" s="338">
+        <v>45113</v>
+      </c>
+      <c r="K43" s="343" t="s">
+        <v>806</v>
+      </c>
+      <c r="L43" s="49">
+        <v>4908.49</v>
+      </c>
       <c r="M43" s="42">
         <v>0</v>
       </c>
@@ -21544,17 +21631,29 @@
     </row>
     <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="102"/>
+      <c r="B44" s="32">
+        <v>45135</v>
+      </c>
+      <c r="C44" s="93">
+        <v>100000</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>808</v>
+      </c>
       <c r="E44" s="35"/>
       <c r="F44" s="97"/>
       <c r="G44" s="37"/>
       <c r="H44" s="38"/>
       <c r="I44" s="103"/>
-      <c r="J44" s="338"/>
-      <c r="K44" s="471"/>
-      <c r="L44" s="49"/>
+      <c r="J44" s="338">
+        <v>45113</v>
+      </c>
+      <c r="K44" s="471" t="s">
+        <v>807</v>
+      </c>
+      <c r="L44" s="49">
+        <v>850</v>
+      </c>
       <c r="M44" s="42">
         <v>0</v>
       </c>
@@ -21582,9 +21681,15 @@
       <c r="G45" s="37"/>
       <c r="H45" s="38"/>
       <c r="I45" s="103"/>
-      <c r="J45" s="338"/>
-      <c r="K45" s="343"/>
-      <c r="L45" s="49"/>
+      <c r="J45" s="338">
+        <v>45120</v>
+      </c>
+      <c r="K45" s="343" t="s">
+        <v>809</v>
+      </c>
+      <c r="L45" s="49">
+        <v>3420</v>
+      </c>
       <c r="M45" s="42">
         <v>0</v>
       </c>
@@ -21612,9 +21717,15 @@
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
       <c r="I46" s="103"/>
-      <c r="J46" s="338"/>
-      <c r="K46" s="349"/>
-      <c r="L46" s="49"/>
+      <c r="J46" s="338">
+        <v>45135</v>
+      </c>
+      <c r="K46" s="349" t="s">
+        <v>812</v>
+      </c>
+      <c r="L46" s="49">
+        <v>1298.04</v>
+      </c>
       <c r="M46" s="42">
         <v>0</v>
       </c>
@@ -21700,19 +21811,19 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="559">
+      <c r="M49" s="560">
         <f>SUM(M5:M40)</f>
-        <v>2340131.7600000002</v>
-      </c>
-      <c r="N49" s="559">
+        <v>2422108.7600000002</v>
+      </c>
+      <c r="N49" s="560">
         <f>SUM(N5:N40)</f>
-        <v>1558596</v>
+        <v>1603736</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>4791893.76</v>
-      </c>
-      <c r="Q49" s="571">
+        <v>4927758.76</v>
+      </c>
+      <c r="Q49" s="572">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -21733,10 +21844,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="561"/>
+      <c r="N50" s="561"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="573"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -21791,11 +21902,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="537">
+      <c r="M53" s="538">
         <f>M49+N49</f>
-        <v>3898727.7600000002</v>
-      </c>
-      <c r="N53" s="538"/>
+        <v>4025844.7600000002</v>
+      </c>
+      <c r="N53" s="539"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -22034,7 +22145,7 @@
       </c>
       <c r="C67" s="519">
         <f>SUM(C5:C61)</f>
-        <v>466011</v>
+        <v>964976.7</v>
       </c>
       <c r="D67" s="520"/>
       <c r="E67" s="521" t="s">
@@ -22042,7 +22153,7 @@
       </c>
       <c r="F67" s="522">
         <f>SUM(F5:F61)</f>
-        <v>4350122</v>
+        <v>4485987</v>
       </c>
       <c r="G67" s="523"/>
       <c r="H67" s="521" t="s">
@@ -22050,7 +22161,7 @@
       </c>
       <c r="I67" s="524">
         <f>SUM(I5:I61)</f>
-        <v>58287</v>
+        <v>60484</v>
       </c>
       <c r="J67" s="525"/>
       <c r="K67" s="526" t="s">
@@ -22058,7 +22169,7 @@
       </c>
       <c r="L67" s="527">
         <f>SUM(L5:L65)-L26</f>
-        <v>496344.5</v>
+        <v>533930.23</v>
       </c>
       <c r="M67" s="150"/>
       <c r="N67" s="150"/>
@@ -22076,50 +22187,50 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="567" t="s">
+      <c r="H69" s="568" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="568"/>
+      <c r="I69" s="569"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="569">
+      <c r="K69" s="570">
         <f>I67+L67</f>
-        <v>554631.5</v>
-      </c>
-      <c r="L69" s="570"/>
+        <v>594414.23</v>
+      </c>
+      <c r="L69" s="571"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="561" t="s">
+      <c r="D70" s="562" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="561"/>
+      <c r="E70" s="562"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
-        <v>3329479.5</v>
+        <v>2926596.0700000003</v>
       </c>
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="562" t="s">
+      <c r="D71" s="563" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="562"/>
+      <c r="E71" s="563"/>
       <c r="F71" s="101">
         <v>0</v>
       </c>
-      <c r="I71" s="563" t="s">
+      <c r="I71" s="564" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="564"/>
-      <c r="K71" s="565">
+      <c r="J71" s="565"/>
+      <c r="K71" s="566">
         <f>F73+F74+F75</f>
-        <v>6150030.8100000005</v>
-      </c>
-      <c r="L71" s="565"/>
+        <v>5747147.3800000008</v>
+      </c>
+      <c r="L71" s="566"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -22157,18 +22268,18 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>3329479.5</v>
+        <v>2926596.0700000003</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="566">
+      <c r="K73" s="567">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="565"/>
+      <c r="L73" s="566"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -22189,22 +22300,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="554" t="s">
+      <c r="D75" s="555" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="555"/>
+      <c r="E75" s="556"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="556" t="s">
+      <c r="I75" s="557" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="557"/>
-      <c r="K75" s="558">
+      <c r="J75" s="558"/>
+      <c r="K75" s="559">
         <f>K71+K73</f>
-        <v>3018643.7700000005</v>
-      </c>
-      <c r="L75" s="558"/>
+        <v>2615760.3400000008</v>
+      </c>
+      <c r="L75" s="559"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -23539,10 +23650,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="576" t="s">
+      <c r="I37" s="577" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="577"/>
+      <c r="J37" s="578"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -23561,8 +23672,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="578"/>
-      <c r="J38" s="579"/>
+      <c r="I38" s="579"/>
+      <c r="J38" s="580"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -23581,8 +23692,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="580"/>
-      <c r="J39" s="581"/>
+      <c r="I39" s="581"/>
+      <c r="J39" s="582"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -24140,10 +24251,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="582" t="s">
+      <c r="I67" s="583" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="583"/>
+      <c r="J67" s="584"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -24165,11 +24276,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="586" t="s">
+      <c r="G68" s="587" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="591"/>
-      <c r="J68" s="592"/>
+      <c r="I68" s="592"/>
+      <c r="J68" s="593"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -24180,7 +24291,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="587"/>
+      <c r="G69" s="588"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -26211,10 +26322,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="573"/>
-      <c r="J36" s="574"/>
-      <c r="K36" s="574"/>
-      <c r="L36" s="575"/>
+      <c r="I36" s="574"/>
+      <c r="J36" s="575"/>
+      <c r="K36" s="575"/>
+      <c r="L36" s="576"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -26241,10 +26352,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="573"/>
-      <c r="J37" s="574"/>
-      <c r="K37" s="574"/>
-      <c r="L37" s="575"/>
+      <c r="I37" s="574"/>
+      <c r="J37" s="575"/>
+      <c r="K37" s="575"/>
+      <c r="L37" s="576"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -26301,10 +26412,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="576" t="s">
+      <c r="I40" s="577" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="577"/>
+      <c r="J40" s="578"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -26323,8 +26434,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="578"/>
-      <c r="J41" s="579"/>
+      <c r="I41" s="579"/>
+      <c r="J41" s="580"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -26343,8 +26454,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="580"/>
-      <c r="J42" s="581"/>
+      <c r="I42" s="581"/>
+      <c r="J42" s="582"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -26848,10 +26959,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="582" t="s">
+      <c r="I67" s="583" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="583"/>
+      <c r="J67" s="584"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -26871,11 +26982,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="586" t="s">
+      <c r="G68" s="587" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="584"/>
-      <c r="J68" s="585"/>
+      <c r="I68" s="585"/>
+      <c r="J68" s="586"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -26886,7 +26997,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="587"/>
+      <c r="G69" s="588"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -27517,23 +27628,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="542"/>
+      <c r="C1" s="544" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="545"/>
+      <c r="F1" s="545"/>
+      <c r="G1" s="545"/>
+      <c r="H1" s="545"/>
+      <c r="I1" s="545"/>
+      <c r="J1" s="545"/>
+      <c r="K1" s="545"/>
+      <c r="L1" s="545"/>
+      <c r="M1" s="545"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="543"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27543,24 +27654,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="547"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="548" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="548"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="540" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="548" t="s">
+      <c r="R3" s="549" t="s">
         <v>3</v>
       </c>
     </row>
@@ -27575,14 +27686,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="551" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="552"/>
+      <c r="H4" s="553" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="554"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27592,11 +27703,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="541"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="549"/>
+      <c r="R4" s="550"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -29572,11 +29683,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="559">
+      <c r="M49" s="560">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="560">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -29584,7 +29695,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="572">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -29617,10 +29728,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="561"/>
+      <c r="N50" s="561"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="573"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -29711,11 +29822,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="537">
+      <c r="M53" s="538">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="539"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -30274,26 +30385,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="567" t="s">
+      <c r="H77" s="568" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="568"/>
+      <c r="I77" s="569"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="569">
+      <c r="K77" s="570">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="570"/>
+      <c r="L77" s="571"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="561" t="s">
+      <c r="D78" s="562" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="561"/>
+      <c r="E78" s="562"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -30302,22 +30413,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="562" t="s">
+      <c r="D79" s="563" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="562"/>
+      <c r="E79" s="563"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="563" t="s">
+      <c r="I79" s="564" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="564"/>
-      <c r="K79" s="565">
+      <c r="J79" s="565"/>
+      <c r="K79" s="566">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="565"/>
+      <c r="L79" s="566"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -30358,11 +30469,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="566">
+      <c r="K81" s="567">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="565"/>
+      <c r="L81" s="566"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -30379,22 +30490,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="554" t="s">
+      <c r="D83" s="555" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="555"/>
+      <c r="E83" s="556"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="588" t="s">
+      <c r="I83" s="589" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="589"/>
-      <c r="K83" s="590">
+      <c r="J83" s="590"/>
+      <c r="K83" s="591">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="590"/>
+      <c r="L83" s="591"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -31974,10 +32085,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="573"/>
-      <c r="J36" s="574"/>
-      <c r="K36" s="574"/>
-      <c r="L36" s="575"/>
+      <c r="I36" s="574"/>
+      <c r="J36" s="575"/>
+      <c r="K36" s="575"/>
+      <c r="L36" s="576"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -32004,10 +32115,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="573"/>
-      <c r="J37" s="574"/>
-      <c r="K37" s="574"/>
-      <c r="L37" s="575"/>
+      <c r="I37" s="574"/>
+      <c r="J37" s="575"/>
+      <c r="K37" s="575"/>
+      <c r="L37" s="576"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -32074,10 +32185,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="576" t="s">
+      <c r="I40" s="577" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="577"/>
+      <c r="J40" s="578"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -32096,8 +32207,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="578"/>
-      <c r="J41" s="579"/>
+      <c r="I41" s="579"/>
+      <c r="J41" s="580"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -32116,8 +32227,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="580"/>
-      <c r="J42" s="581"/>
+      <c r="I42" s="581"/>
+      <c r="J42" s="582"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -32621,10 +32732,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="582" t="s">
+      <c r="I67" s="583" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="583"/>
+      <c r="J67" s="584"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -32644,11 +32755,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="586" t="s">
+      <c r="G68" s="587" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="591"/>
-      <c r="J68" s="592"/>
+      <c r="I68" s="592"/>
+      <c r="J68" s="593"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -32659,7 +32770,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="587"/>
+      <c r="G69" s="588"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -33274,23 +33385,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="542"/>
+      <c r="C1" s="544" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="545"/>
+      <c r="F1" s="545"/>
+      <c r="G1" s="545"/>
+      <c r="H1" s="545"/>
+      <c r="I1" s="545"/>
+      <c r="J1" s="545"/>
+      <c r="K1" s="545"/>
+      <c r="L1" s="545"/>
+      <c r="M1" s="545"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="543"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33300,24 +33411,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="547"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="548" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="548"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="540" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="593" t="s">
+      <c r="R3" s="594" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33332,14 +33443,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="551" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="552"/>
+      <c r="H4" s="553" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="554"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33349,11 +33460,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="541"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="594"/>
+      <c r="R4" s="595"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -35334,11 +35445,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="559">
+      <c r="M49" s="560">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="560">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -35346,7 +35457,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="572">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -35379,10 +35490,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="561"/>
+      <c r="N50" s="561"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="573"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -35473,11 +35584,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="537">
+      <c r="M53" s="538">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="539"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -35956,26 +36067,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="567" t="s">
+      <c r="H77" s="568" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="568"/>
+      <c r="I77" s="569"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="569">
+      <c r="K77" s="570">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="570"/>
+      <c r="L77" s="571"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="561" t="s">
+      <c r="D78" s="562" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="561"/>
+      <c r="E78" s="562"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -35984,22 +36095,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="562" t="s">
+      <c r="D79" s="563" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="562"/>
+      <c r="E79" s="563"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="563" t="s">
+      <c r="I79" s="564" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="564"/>
-      <c r="K79" s="565">
+      <c r="J79" s="565"/>
+      <c r="K79" s="566">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="565"/>
+      <c r="L79" s="566"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -36040,11 +36151,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="566">
+      <c r="K81" s="567">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="565"/>
+      <c r="L81" s="566"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -36061,22 +36172,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="554" t="s">
+      <c r="D83" s="555" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="555"/>
+      <c r="E83" s="556"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="556" t="s">
+      <c r="I83" s="557" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="557"/>
-      <c r="K83" s="558">
+      <c r="J83" s="558"/>
+      <c r="K83" s="559">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="558"/>
+      <c r="L83" s="559"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -37547,10 +37658,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="573"/>
-      <c r="J36" s="574"/>
-      <c r="K36" s="574"/>
-      <c r="L36" s="575"/>
+      <c r="I36" s="574"/>
+      <c r="J36" s="575"/>
+      <c r="K36" s="575"/>
+      <c r="L36" s="576"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -37567,10 +37678,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="573"/>
-      <c r="J37" s="574"/>
-      <c r="K37" s="574"/>
-      <c r="L37" s="575"/>
+      <c r="I37" s="574"/>
+      <c r="J37" s="575"/>
+      <c r="K37" s="575"/>
+      <c r="L37" s="576"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -37627,10 +37738,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="576" t="s">
+      <c r="I40" s="577" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="577"/>
+      <c r="J40" s="578"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -37649,8 +37760,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="578"/>
-      <c r="J41" s="579"/>
+      <c r="I41" s="579"/>
+      <c r="J41" s="580"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -37669,8 +37780,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="580"/>
-      <c r="J42" s="581"/>
+      <c r="I42" s="581"/>
+      <c r="J42" s="582"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -38174,10 +38285,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="582" t="s">
+      <c r="I67" s="583" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="583"/>
+      <c r="J67" s="584"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -38197,11 +38308,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="586" t="s">
+      <c r="G68" s="587" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="591"/>
-      <c r="J68" s="592"/>
+      <c r="I68" s="592"/>
+      <c r="J68" s="593"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -38212,7 +38323,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="587"/>
+      <c r="G69" s="588"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -38818,23 +38929,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="542"/>
+      <c r="C1" s="544" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="545"/>
+      <c r="F1" s="545"/>
+      <c r="G1" s="545"/>
+      <c r="H1" s="545"/>
+      <c r="I1" s="545"/>
+      <c r="J1" s="545"/>
+      <c r="K1" s="545"/>
+      <c r="L1" s="545"/>
+      <c r="M1" s="545"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="543"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -38844,24 +38955,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="547"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="548" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="548"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="540" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="593" t="s">
+      <c r="R3" s="594" t="s">
         <v>3</v>
       </c>
     </row>
@@ -38876,14 +38987,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="551" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="552"/>
+      <c r="H4" s="553" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="554"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -38893,11 +39004,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="541"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="594"/>
+      <c r="R4" s="595"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -40918,11 +41029,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="559">
+      <c r="M49" s="560">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="560">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -40930,7 +41041,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="572">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -40957,10 +41068,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="561"/>
+      <c r="N50" s="561"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="573"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -41034,11 +41145,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="537">
+      <c r="M53" s="538">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="539"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -41667,26 +41778,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="567" t="s">
+      <c r="H79" s="568" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="568"/>
+      <c r="I79" s="569"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="569">
+      <c r="K79" s="570">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="570"/>
+      <c r="L79" s="571"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="561" t="s">
+      <c r="D80" s="562" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="561"/>
+      <c r="E80" s="562"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -41695,22 +41806,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="562" t="s">
+      <c r="D81" s="563" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="562"/>
+      <c r="E81" s="563"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="563" t="s">
+      <c r="I81" s="564" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="564"/>
-      <c r="K81" s="565">
+      <c r="J81" s="565"/>
+      <c r="K81" s="566">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="565"/>
+      <c r="L81" s="566"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -41751,11 +41862,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="566">
+      <c r="K83" s="567">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="565"/>
+      <c r="L83" s="566"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -41772,22 +41883,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="554" t="s">
+      <c r="D85" s="555" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="555"/>
+      <c r="E85" s="556"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="556" t="s">
+      <c r="I85" s="557" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="557"/>
-      <c r="K85" s="558">
+      <c r="J85" s="558"/>
+      <c r="K85" s="559">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="558"/>
+      <c r="L85" s="559"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -43276,10 +43387,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="573"/>
-      <c r="J36" s="574"/>
-      <c r="K36" s="574"/>
-      <c r="L36" s="575"/>
+      <c r="I36" s="574"/>
+      <c r="J36" s="575"/>
+      <c r="K36" s="575"/>
+      <c r="L36" s="576"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -43302,10 +43413,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="573"/>
-      <c r="J37" s="574"/>
-      <c r="K37" s="574"/>
-      <c r="L37" s="575"/>
+      <c r="I37" s="574"/>
+      <c r="J37" s="575"/>
+      <c r="K37" s="575"/>
+      <c r="L37" s="576"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -43380,10 +43491,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="576" t="s">
+      <c r="I40" s="577" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="577"/>
+      <c r="J40" s="578"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -43408,8 +43519,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="578"/>
-      <c r="J41" s="579"/>
+      <c r="I41" s="579"/>
+      <c r="J41" s="580"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -43434,8 +43545,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="580"/>
-      <c r="J42" s="581"/>
+      <c r="I42" s="581"/>
+      <c r="J42" s="582"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -43957,10 +44068,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="582" t="s">
+      <c r="I67" s="583" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="583"/>
+      <c r="J67" s="584"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -43980,11 +44091,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="586" t="s">
+      <c r="G68" s="587" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="591"/>
-      <c r="J68" s="592"/>
+      <c r="I68" s="592"/>
+      <c r="J68" s="593"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -43995,7 +44106,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="587"/>
+      <c r="G69" s="588"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -44611,23 +44722,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="541"/>
-      <c r="C1" s="543" t="s">
+      <c r="B1" s="542"/>
+      <c r="C1" s="544" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
-      <c r="H1" s="544"/>
-      <c r="I1" s="544"/>
-      <c r="J1" s="544"/>
-      <c r="K1" s="544"/>
-      <c r="L1" s="544"/>
-      <c r="M1" s="544"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="545"/>
+      <c r="F1" s="545"/>
+      <c r="G1" s="545"/>
+      <c r="H1" s="545"/>
+      <c r="I1" s="545"/>
+      <c r="J1" s="545"/>
+      <c r="K1" s="545"/>
+      <c r="L1" s="545"/>
+      <c r="M1" s="545"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="542"/>
+      <c r="B2" s="543"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -44637,27 +44748,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="546"/>
+      <c r="B3" s="546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="547"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="547" t="s">
+      <c r="H3" s="548" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="547"/>
+      <c r="I3" s="548"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="539" t="s">
+      <c r="P3" s="540" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="593" t="s">
+      <c r="R3" s="594" t="s">
         <v>3</v>
       </c>
     </row>
@@ -44672,14 +44783,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="550" t="s">
+      <c r="E4" s="551" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="551"/>
-      <c r="H4" s="552" t="s">
+      <c r="F4" s="552"/>
+      <c r="H4" s="553" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="553"/>
+      <c r="I4" s="554"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -44689,11 +44800,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="540"/>
+      <c r="P4" s="541"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="594"/>
+      <c r="R4" s="595"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -46696,11 +46807,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="559">
+      <c r="M49" s="560">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="559">
+      <c r="N49" s="560">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -46708,7 +46819,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="571">
+      <c r="Q49" s="572">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -46741,10 +46852,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="560"/>
-      <c r="N50" s="560"/>
+      <c r="M50" s="561"/>
+      <c r="N50" s="561"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="572"/>
+      <c r="Q50" s="573"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -46823,11 +46934,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="537">
+      <c r="M53" s="538">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="538"/>
+      <c r="N53" s="539"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -47306,26 +47417,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="567" t="s">
+      <c r="H77" s="568" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="568"/>
+      <c r="I77" s="569"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="569">
+      <c r="K77" s="570">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="570"/>
+      <c r="L77" s="571"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="561" t="s">
+      <c r="D78" s="562" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="561"/>
+      <c r="E78" s="562"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -47334,22 +47445,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="562" t="s">
+      <c r="D79" s="563" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="562"/>
+      <c r="E79" s="563"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="563" t="s">
+      <c r="I79" s="564" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="564"/>
-      <c r="K79" s="565">
+      <c r="J79" s="565"/>
+      <c r="K79" s="566">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="565"/>
+      <c r="L79" s="566"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -47390,11 +47501,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="566">
+      <c r="K81" s="567">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="565"/>
+      <c r="L81" s="566"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -47411,22 +47522,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="554" t="s">
+      <c r="D83" s="555" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="555"/>
+      <c r="E83" s="556"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="588" t="s">
+      <c r="I83" s="589" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="589"/>
-      <c r="K83" s="590">
+      <c r="J83" s="590"/>
+      <c r="K83" s="591">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="590"/>
+      <c r="L83" s="591"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  ZAVALETA   JULIO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="2" r:id="rId1"/>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="881">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2979,6 +2979,210 @@
   </si>
   <si>
     <t>ADT PRIVATE</t>
+  </si>
+  <si>
+    <t>1-jul-2023</t>
+  </si>
+  <si>
+    <t>E-15103</t>
+  </si>
+  <si>
+    <t>3-jul-2023</t>
+  </si>
+  <si>
+    <t>E-15237</t>
+  </si>
+  <si>
+    <t>E-15291</t>
+  </si>
+  <si>
+    <t>E-15294</t>
+  </si>
+  <si>
+    <t>4-jul-2023</t>
+  </si>
+  <si>
+    <t>E-15343</t>
+  </si>
+  <si>
+    <t>E-15369</t>
+  </si>
+  <si>
+    <t>E-15428</t>
+  </si>
+  <si>
+    <t>5-jul-2023</t>
+  </si>
+  <si>
+    <t>E-15518</t>
+  </si>
+  <si>
+    <t>6-jul-2023</t>
+  </si>
+  <si>
+    <t>E-15603</t>
+  </si>
+  <si>
+    <t>7-jul-2023</t>
+  </si>
+  <si>
+    <t>E-15716</t>
+  </si>
+  <si>
+    <t>E-15736</t>
+  </si>
+  <si>
+    <t>8-jul-2023</t>
+  </si>
+  <si>
+    <t>E-15893</t>
+  </si>
+  <si>
+    <t>E-15903</t>
+  </si>
+  <si>
+    <t>10-jul-2023</t>
+  </si>
+  <si>
+    <t>E-15971</t>
+  </si>
+  <si>
+    <t>11-jul-2023</t>
+  </si>
+  <si>
+    <t>E-16027</t>
+  </si>
+  <si>
+    <t>E-16100</t>
+  </si>
+  <si>
+    <t>E-16112</t>
+  </si>
+  <si>
+    <t>E-16125</t>
+  </si>
+  <si>
+    <t>12-jul-2023</t>
+  </si>
+  <si>
+    <t>E-16246</t>
+  </si>
+  <si>
+    <t>E-16255</t>
+  </si>
+  <si>
+    <t>13-jul-2023</t>
+  </si>
+  <si>
+    <t>E-16335</t>
+  </si>
+  <si>
+    <t>14-jul-2023</t>
+  </si>
+  <si>
+    <t>E-16485</t>
+  </si>
+  <si>
+    <t>E-16486</t>
+  </si>
+  <si>
+    <t>15-jul-2023</t>
+  </si>
+  <si>
+    <t>E-16638</t>
+  </si>
+  <si>
+    <t>E-16642</t>
+  </si>
+  <si>
+    <t>17-jul-2023</t>
+  </si>
+  <si>
+    <t>E-16760</t>
+  </si>
+  <si>
+    <t>E-16761</t>
+  </si>
+  <si>
+    <t>18-jul-2023</t>
+  </si>
+  <si>
+    <t>E-16800</t>
+  </si>
+  <si>
+    <t>E-16825</t>
+  </si>
+  <si>
+    <t>E-16853</t>
+  </si>
+  <si>
+    <t>E-16898</t>
+  </si>
+  <si>
+    <t>19-jul-2023</t>
+  </si>
+  <si>
+    <t>E-17019</t>
+  </si>
+  <si>
+    <t>20-jul-2023</t>
+  </si>
+  <si>
+    <t>E-17122</t>
+  </si>
+  <si>
+    <t>E-17125</t>
+  </si>
+  <si>
+    <t>21-jul-2023</t>
+  </si>
+  <si>
+    <t>E-17276</t>
+  </si>
+  <si>
+    <t>22-jul-2023</t>
+  </si>
+  <si>
+    <t>E-17365</t>
+  </si>
+  <si>
+    <t>24-jul-2023</t>
+  </si>
+  <si>
+    <t>E-17480</t>
+  </si>
+  <si>
+    <t>25-jul-2023</t>
+  </si>
+  <si>
+    <t>E-17567</t>
+  </si>
+  <si>
+    <t>E-17622</t>
+  </si>
+  <si>
+    <t>E-17629</t>
+  </si>
+  <si>
+    <t>E-17630</t>
+  </si>
+  <si>
+    <t>26-jul-2023</t>
+  </si>
+  <si>
+    <t>E-17671</t>
+  </si>
+  <si>
+    <t>27-jul-2023</t>
+  </si>
+  <si>
+    <t>E-17811</t>
+  </si>
+  <si>
+    <t>28-jul-2023</t>
+  </si>
+  <si>
+    <t>E-17895</t>
   </si>
 </sst>
 </file>
@@ -4662,7 +4866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="596">
+  <cellXfs count="601">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5675,39 +5879,11 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5782,6 +5958,39 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9234,23 +9443,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="542"/>
-      <c r="C1" s="544" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
-      <c r="F1" s="545"/>
-      <c r="G1" s="545"/>
-      <c r="H1" s="545"/>
-      <c r="I1" s="545"/>
-      <c r="J1" s="545"/>
-      <c r="K1" s="545"/>
-      <c r="L1" s="545"/>
-      <c r="M1" s="545"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="543"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9260,24 +9469,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="546" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="547"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="548" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="548"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="540" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="549" t="s">
+      <c r="R3" s="543" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9292,14 +9501,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="551" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="552"/>
-      <c r="H4" s="553" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="554"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9309,11 +9518,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="541"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="550"/>
+      <c r="R4" s="544"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11148,11 +11357,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="560">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="560">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -11160,7 +11369,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="572">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -11181,10 +11390,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="561"/>
-      <c r="N50" s="561"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="573"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -11239,11 +11448,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="538">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="539"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11668,26 +11877,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="568" t="s">
+      <c r="H77" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="569"/>
+      <c r="I77" s="563"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="570">
+      <c r="K77" s="564">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="571"/>
+      <c r="L77" s="565"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="562" t="s">
+      <c r="D78" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="562"/>
+      <c r="E78" s="556"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -11696,22 +11905,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="563" t="s">
+      <c r="D79" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="563"/>
+      <c r="E79" s="557"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="564" t="s">
+      <c r="I79" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="565"/>
-      <c r="K79" s="566">
+      <c r="J79" s="559"/>
+      <c r="K79" s="560">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="566"/>
+      <c r="L79" s="560"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -11752,11 +11961,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="567">
+      <c r="K81" s="561">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="566"/>
+      <c r="L81" s="560"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -11773,22 +11982,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="555" t="s">
+      <c r="D83" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="556"/>
+      <c r="E83" s="550"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="557" t="s">
+      <c r="I83" s="551" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="558"/>
-      <c r="K83" s="559">
+      <c r="J83" s="552"/>
+      <c r="K83" s="553">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="559"/>
+      <c r="L83" s="553"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -11935,6 +12144,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -11951,12 +12166,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13126,10 +13335,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="577" t="s">
+      <c r="I37" s="582" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="578"/>
+      <c r="J37" s="583"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -13148,8 +13357,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="579"/>
-      <c r="J38" s="580"/>
+      <c r="I38" s="584"/>
+      <c r="J38" s="585"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -13168,8 +13377,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="581"/>
-      <c r="J39" s="582"/>
+      <c r="I39" s="586"/>
+      <c r="J39" s="587"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -13727,10 +13936,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="583" t="s">
+      <c r="I67" s="588" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="584"/>
+      <c r="J67" s="589"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -13752,11 +13961,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="587" t="s">
+      <c r="G68" s="592" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="592"/>
-      <c r="J68" s="593"/>
+      <c r="I68" s="597"/>
+      <c r="J68" s="598"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -13767,7 +13976,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="588"/>
+      <c r="G69" s="593"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -14355,23 +14564,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="542"/>
-      <c r="C1" s="544" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
-      <c r="F1" s="545"/>
-      <c r="G1" s="545"/>
-      <c r="H1" s="545"/>
-      <c r="I1" s="545"/>
-      <c r="J1" s="545"/>
-      <c r="K1" s="545"/>
-      <c r="L1" s="545"/>
-      <c r="M1" s="545"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="543"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -14381,27 +14590,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="546" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="547"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="548" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="548"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="540" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="594" t="s">
+      <c r="R3" s="599" t="s">
         <v>3</v>
       </c>
     </row>
@@ -14416,14 +14625,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="551" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="552"/>
-      <c r="H4" s="553" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="554"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -14433,11 +14642,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="541"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="595"/>
+      <c r="R4" s="600"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -16493,11 +16702,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="560">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="560">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -16505,7 +16714,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="572">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -16538,10 +16747,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="561"/>
-      <c r="N50" s="561"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="573"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -16626,11 +16835,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="538">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="539"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -16959,26 +17168,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="568" t="s">
+      <c r="H69" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="569"/>
+      <c r="I69" s="563"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="570">
+      <c r="K69" s="564">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="571"/>
+      <c r="L69" s="565"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="562" t="s">
+      <c r="D70" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="562"/>
+      <c r="E70" s="556"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -16987,23 +17196,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="563" t="s">
+      <c r="D71" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="563"/>
+      <c r="E71" s="557"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="564" t="s">
+      <c r="I71" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="565"/>
-      <c r="K71" s="566">
+      <c r="J71" s="559"/>
+      <c r="K71" s="560">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="566"/>
+      <c r="L71" s="560"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -17045,11 +17254,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="567">
+      <c r="K73" s="561">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="566"/>
+      <c r="L73" s="560"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -17066,22 +17275,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="555" t="s">
+      <c r="D75" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="556"/>
+      <c r="E75" s="550"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="557" t="s">
+      <c r="I75" s="551" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="558"/>
-      <c r="K75" s="559">
+      <c r="J75" s="552"/>
+      <c r="K75" s="553">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="559"/>
+      <c r="L75" s="553"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -17229,12 +17438,6 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17251,6 +17454,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17266,7 +17475,7 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G68" sqref="G68:G69"/>
     </sheetView>
   </sheetViews>
@@ -18420,10 +18629,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="577" t="s">
+      <c r="I37" s="582" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="578"/>
+      <c r="J37" s="583"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -18442,8 +18651,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="579"/>
-      <c r="J38" s="580"/>
+      <c r="I38" s="584"/>
+      <c r="J38" s="585"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -18462,8 +18671,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="581"/>
-      <c r="J39" s="582"/>
+      <c r="I39" s="586"/>
+      <c r="J39" s="587"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -19021,10 +19230,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="583" t="s">
+      <c r="I67" s="588" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="584"/>
+      <c r="J67" s="589"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -19046,11 +19255,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="587" t="s">
+      <c r="G68" s="592" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="592"/>
-      <c r="J68" s="593"/>
+      <c r="I68" s="597"/>
+      <c r="J68" s="598"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -19061,7 +19270,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="588"/>
+      <c r="G69" s="593"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -19623,8 +19832,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19650,23 +19859,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="542"/>
-      <c r="C1" s="544" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
-      <c r="F1" s="545"/>
-      <c r="G1" s="545"/>
-      <c r="H1" s="545"/>
-      <c r="I1" s="545"/>
-      <c r="J1" s="545"/>
-      <c r="K1" s="545"/>
-      <c r="L1" s="545"/>
-      <c r="M1" s="545"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="543"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -19676,25 +19885,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="546" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="547"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="548" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="548"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="540" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="594" t="s">
+      <c r="R3" s="599" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19709,14 +19918,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="551" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="552"/>
-      <c r="H4" s="553" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="554"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -19726,11 +19935,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="541"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="595"/>
+      <c r="R4" s="600"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -21811,11 +22020,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="560">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="560">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -21823,7 +22032,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="572">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -21844,10 +22053,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="561"/>
-      <c r="N50" s="561"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="573"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -21902,11 +22111,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="538">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="539"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -22187,26 +22396,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="568" t="s">
+      <c r="H69" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="569"/>
+      <c r="I69" s="563"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="570">
+      <c r="K69" s="564">
         <f>I67+L67</f>
         <v>594414.23</v>
       </c>
-      <c r="L69" s="571"/>
+      <c r="L69" s="565"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="562" t="s">
+      <c r="D70" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="562"/>
+      <c r="E70" s="556"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>2926596.0700000003</v>
@@ -22215,22 +22424,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="563" t="s">
+      <c r="D71" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="563"/>
+      <c r="E71" s="557"/>
       <c r="F71" s="101">
-        <v>0</v>
-      </c>
-      <c r="I71" s="564" t="s">
+        <v>-917631.77</v>
+      </c>
+      <c r="I71" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="565"/>
-      <c r="K71" s="566">
+      <c r="J71" s="559"/>
+      <c r="K71" s="560">
         <f>F73+F74+F75</f>
-        <v>5747147.3800000008</v>
-      </c>
-      <c r="L71" s="566"/>
+        <v>4862289.01</v>
+      </c>
+      <c r="L71" s="560"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -22245,7 +22454,7 @@
       </c>
       <c r="E72" s="162"/>
       <c r="F72" s="163">
-        <v>0</v>
+        <v>-122543.6</v>
       </c>
       <c r="I72" s="164"/>
       <c r="J72" s="165"/>
@@ -22268,18 +22477,18 @@
       </c>
       <c r="F73" s="150">
         <f>SUM(F70:F72)</f>
-        <v>2926596.0700000003</v>
+        <v>1886420.7000000002</v>
       </c>
       <c r="H73" s="168"/>
       <c r="I73" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="567">
+      <c r="K73" s="561">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="566"/>
+      <c r="L73" s="560"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -22293,29 +22502,29 @@
         <v>23</v>
       </c>
       <c r="F74" s="101">
-        <v>0</v>
+        <v>155317</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="555" t="s">
+      <c r="D75" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="556"/>
+      <c r="E75" s="550"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="557" t="s">
+      <c r="I75" s="551" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="558"/>
-      <c r="K75" s="559">
+      <c r="J75" s="552"/>
+      <c r="K75" s="553">
         <f>K71+K73</f>
-        <v>2615760.3400000008</v>
-      </c>
-      <c r="L75" s="559"/>
+        <v>1730901.9699999997</v>
+      </c>
+      <c r="L75" s="553"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -22460,12 +22669,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -22482,6 +22685,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22496,8 +22705,8 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22590,963 +22799,973 @@
         <f>D3-F3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="352"/>
-      <c r="J3" s="310"/>
-      <c r="K3" s="220">
-        <v>0</v>
+      <c r="I3" s="235" t="s">
+        <v>813</v>
+      </c>
+      <c r="J3" s="236">
+        <v>12762</v>
+      </c>
+      <c r="K3" s="237">
+        <v>15174</v>
       </c>
       <c r="L3" s="218"/>
       <c r="M3" s="237"/>
       <c r="N3" s="221">
         <f>K3-M3</f>
-        <v>0</v>
+        <v>15174</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="235" t="s">
-        <v>640</v>
-      </c>
-      <c r="C4" s="461" t="s">
-        <v>726</v>
-      </c>
-      <c r="D4" s="410">
-        <v>39952.639999999999</v>
+      <c r="B4" s="277" t="s">
+        <v>813</v>
+      </c>
+      <c r="C4" s="382" t="s">
+        <v>814</v>
+      </c>
+      <c r="D4" s="279">
+        <v>93194.36</v>
       </c>
       <c r="E4" s="224"/>
       <c r="F4" s="101"/>
       <c r="G4" s="225">
         <f t="shared" ref="G4:G65" si="0">D4-F4</f>
-        <v>39952.639999999999</v>
+        <v>93194.36</v>
       </c>
       <c r="H4" s="226"/>
-      <c r="I4" s="513"/>
-      <c r="J4" s="514"/>
-      <c r="K4" s="515"/>
+      <c r="I4" s="235" t="s">
+        <v>813</v>
+      </c>
+      <c r="J4" s="236">
+        <v>12764</v>
+      </c>
+      <c r="K4" s="237">
+        <v>600</v>
+      </c>
       <c r="L4" s="218"/>
       <c r="M4" s="237"/>
       <c r="N4" s="227">
         <f>N3+K4-M4</f>
-        <v>0</v>
+        <v>15774</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="235" t="s">
-        <v>706</v>
-      </c>
-      <c r="C5" s="461" t="s">
-        <v>727</v>
-      </c>
-      <c r="D5" s="410">
-        <v>34402.36</v>
+      <c r="B5" s="277" t="s">
+        <v>815</v>
+      </c>
+      <c r="C5" s="382" t="s">
+        <v>816</v>
+      </c>
+      <c r="D5" s="279">
+        <v>5796</v>
       </c>
       <c r="E5" s="224"/>
       <c r="F5" s="101"/>
       <c r="G5" s="225">
         <f t="shared" si="0"/>
-        <v>34402.36</v>
-      </c>
-      <c r="I5" s="513"/>
-      <c r="J5" s="514"/>
-      <c r="K5" s="515"/>
+        <v>5796</v>
+      </c>
+      <c r="I5" s="235" t="s">
+        <v>815</v>
+      </c>
+      <c r="J5" s="236">
+        <v>12781</v>
+      </c>
+      <c r="K5" s="237">
+        <v>1221</v>
+      </c>
       <c r="L5" s="218"/>
       <c r="M5" s="237"/>
       <c r="N5" s="227">
         <f t="shared" ref="N5:N65" si="1">N4+K5-M5</f>
-        <v>0</v>
+        <v>16995</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="235" t="s">
-        <v>707</v>
-      </c>
-      <c r="C6" s="461" t="s">
-        <v>728</v>
-      </c>
-      <c r="D6" s="410">
-        <v>30209.599999999999</v>
+      <c r="B6" s="277" t="s">
+        <v>815</v>
+      </c>
+      <c r="C6" s="382" t="s">
+        <v>817</v>
+      </c>
+      <c r="D6" s="279">
+        <v>41205.24</v>
       </c>
       <c r="E6" s="224"/>
       <c r="F6" s="101"/>
       <c r="G6" s="225">
         <f t="shared" si="0"/>
-        <v>30209.599999999999</v>
-      </c>
-      <c r="I6" s="516" t="s">
-        <v>640</v>
+        <v>41205.24</v>
+      </c>
+      <c r="I6" s="235" t="s">
+        <v>819</v>
       </c>
       <c r="J6" s="236">
-        <v>12528</v>
+        <v>12792</v>
       </c>
       <c r="K6" s="237">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="L6" s="218"/>
       <c r="M6" s="237"/>
       <c r="N6" s="227">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>17595</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="235" t="s">
-        <v>708</v>
-      </c>
-      <c r="C7" s="461" t="s">
-        <v>729</v>
-      </c>
-      <c r="D7" s="410">
-        <v>79132.5</v>
+      <c r="B7" s="277" t="s">
+        <v>815</v>
+      </c>
+      <c r="C7" s="382" t="s">
+        <v>818</v>
+      </c>
+      <c r="D7" s="279">
+        <v>2760</v>
       </c>
       <c r="E7" s="224"/>
       <c r="F7" s="101"/>
       <c r="G7" s="225">
         <f t="shared" si="0"/>
-        <v>79132.5</v>
-      </c>
-      <c r="I7" s="516" t="s">
-        <v>706</v>
+        <v>2760</v>
+      </c>
+      <c r="I7" s="235" t="s">
+        <v>823</v>
       </c>
       <c r="J7" s="236">
-        <v>12546</v>
+        <v>12800</v>
       </c>
       <c r="K7" s="237">
-        <v>17557.2</v>
+        <v>3062</v>
       </c>
       <c r="L7" s="218"/>
       <c r="M7" s="237"/>
       <c r="N7" s="227">
         <f t="shared" si="1"/>
-        <v>18277.2</v>
+        <v>20657</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="235" t="s">
-        <v>730</v>
-      </c>
-      <c r="C8" s="461" t="s">
-        <v>731</v>
-      </c>
-      <c r="D8" s="410">
-        <v>56131.44</v>
+      <c r="B8" s="277" t="s">
+        <v>819</v>
+      </c>
+      <c r="C8" s="382" t="s">
+        <v>820</v>
+      </c>
+      <c r="D8" s="279">
+        <v>3691.8</v>
       </c>
       <c r="E8" s="224"/>
       <c r="F8" s="101"/>
       <c r="G8" s="225">
         <f t="shared" si="0"/>
-        <v>56131.44</v>
-      </c>
-      <c r="I8" s="516" t="s">
-        <v>707</v>
+        <v>3691.8</v>
+      </c>
+      <c r="I8" s="235" t="s">
+        <v>825</v>
       </c>
       <c r="J8" s="236">
-        <v>12552</v>
+        <v>12809</v>
       </c>
       <c r="K8" s="237">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="L8" s="218"/>
       <c r="M8" s="237"/>
       <c r="N8" s="227">
         <f t="shared" si="1"/>
-        <v>18637.2</v>
+        <v>21257</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="235" t="s">
-        <v>709</v>
-      </c>
-      <c r="C9" s="461" t="s">
-        <v>732</v>
-      </c>
-      <c r="D9" s="410">
-        <v>13237.76</v>
+      <c r="B9" s="277" t="s">
+        <v>819</v>
+      </c>
+      <c r="C9" s="382" t="s">
+        <v>821</v>
+      </c>
+      <c r="D9" s="279">
+        <v>6678</v>
       </c>
       <c r="E9" s="224"/>
       <c r="F9" s="101"/>
       <c r="G9" s="225">
         <f t="shared" si="0"/>
-        <v>13237.76</v>
-      </c>
-      <c r="I9" s="516" t="s">
-        <v>708</v>
+        <v>6678</v>
+      </c>
+      <c r="I9" s="235" t="s">
+        <v>827</v>
       </c>
       <c r="J9" s="236">
-        <v>12559</v>
+        <v>12821</v>
       </c>
       <c r="K9" s="237">
-        <v>481</v>
+        <v>3200</v>
       </c>
       <c r="L9" s="218"/>
       <c r="M9" s="237"/>
       <c r="N9" s="227">
         <f t="shared" si="1"/>
-        <v>19118.2</v>
+        <v>24457</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="235" t="s">
-        <v>709</v>
-      </c>
-      <c r="C10" s="461" t="s">
-        <v>733</v>
-      </c>
-      <c r="D10" s="410">
-        <v>79127.8</v>
+      <c r="B10" s="277" t="s">
+        <v>819</v>
+      </c>
+      <c r="C10" s="382" t="s">
+        <v>822</v>
+      </c>
+      <c r="D10" s="279">
+        <v>80914</v>
       </c>
       <c r="E10" s="224"/>
       <c r="F10" s="101"/>
       <c r="G10" s="225">
         <f t="shared" si="0"/>
-        <v>79127.8</v>
+        <v>80914</v>
       </c>
       <c r="H10" s="226"/>
-      <c r="I10" s="516" t="s">
-        <v>709</v>
+      <c r="I10" s="235" t="s">
+        <v>830</v>
       </c>
       <c r="J10" s="236">
-        <v>12585</v>
+        <v>12825</v>
       </c>
       <c r="K10" s="237">
-        <v>12683</v>
+        <v>18292</v>
       </c>
       <c r="L10" s="218"/>
       <c r="M10" s="237"/>
       <c r="N10" s="227">
         <f t="shared" si="1"/>
-        <v>31801.200000000001</v>
+        <v>42749</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="235" t="s">
-        <v>710</v>
-      </c>
-      <c r="C11" s="461" t="s">
-        <v>734</v>
-      </c>
-      <c r="D11" s="410">
-        <v>28305.200000000001</v>
+      <c r="B11" s="277" t="s">
+        <v>823</v>
+      </c>
+      <c r="C11" s="382" t="s">
+        <v>824</v>
+      </c>
+      <c r="D11" s="279">
+        <v>32577.38</v>
       </c>
       <c r="E11" s="224"/>
       <c r="F11" s="101"/>
       <c r="G11" s="225">
         <f t="shared" si="0"/>
-        <v>28305.200000000001</v>
-      </c>
-      <c r="I11" s="516" t="s">
-        <v>710</v>
+        <v>32577.38</v>
+      </c>
+      <c r="I11" s="235" t="s">
+        <v>833</v>
       </c>
       <c r="J11" s="236">
-        <v>12592</v>
+        <v>12845</v>
       </c>
       <c r="K11" s="237">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="L11" s="218"/>
       <c r="M11" s="237"/>
       <c r="N11" s="227">
         <f t="shared" si="1"/>
-        <v>32401.200000000001</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="235" t="s">
-        <v>710</v>
-      </c>
-      <c r="C12" s="461" t="s">
-        <v>735</v>
-      </c>
-      <c r="D12" s="410">
-        <v>4855.7</v>
+      <c r="B12" s="277" t="s">
+        <v>825</v>
+      </c>
+      <c r="C12" s="382" t="s">
+        <v>826</v>
+      </c>
+      <c r="D12" s="279">
+        <v>20407.8</v>
       </c>
       <c r="E12" s="224"/>
       <c r="F12" s="101"/>
       <c r="G12" s="225">
         <f t="shared" si="0"/>
-        <v>4855.7</v>
-      </c>
-      <c r="I12" s="516" t="s">
-        <v>711</v>
+        <v>20407.8</v>
+      </c>
+      <c r="I12" s="235" t="s">
+        <v>835</v>
       </c>
       <c r="J12" s="236">
-        <v>12604</v>
+        <v>12865</v>
       </c>
       <c r="K12" s="237">
-        <v>600</v>
+        <v>2360</v>
       </c>
       <c r="L12" s="218"/>
       <c r="M12" s="237"/>
       <c r="N12" s="227">
         <f t="shared" si="1"/>
-        <v>33001.199999999997</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="235" t="s">
-        <v>711</v>
-      </c>
-      <c r="C13" s="461" t="s">
-        <v>736</v>
-      </c>
-      <c r="D13" s="410">
-        <v>132962.48000000001</v>
+      <c r="B13" s="277" t="s">
+        <v>827</v>
+      </c>
+      <c r="C13" s="382" t="s">
+        <v>828</v>
+      </c>
+      <c r="D13" s="279">
+        <v>62769.599999999999</v>
       </c>
       <c r="E13" s="224"/>
       <c r="F13" s="101"/>
       <c r="G13" s="225">
         <f t="shared" si="0"/>
-        <v>132962.48000000001</v>
-      </c>
-      <c r="I13" s="516" t="s">
-        <v>712</v>
+        <v>62769.599999999999</v>
+      </c>
+      <c r="I13" s="235" t="s">
+        <v>835</v>
       </c>
       <c r="J13" s="236">
-        <v>12610</v>
+        <v>12866</v>
       </c>
       <c r="K13" s="237">
-        <v>1365</v>
+        <v>3000</v>
       </c>
       <c r="L13" s="218"/>
       <c r="M13" s="237"/>
       <c r="N13" s="227">
         <f t="shared" si="1"/>
-        <v>34366.199999999997</v>
+        <v>48589</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="235" t="s">
-        <v>712</v>
-      </c>
-      <c r="C14" s="461" t="s">
-        <v>737</v>
-      </c>
-      <c r="D14" s="410">
-        <v>29594.400000000001</v>
+      <c r="B14" s="277" t="s">
+        <v>827</v>
+      </c>
+      <c r="C14" s="382" t="s">
+        <v>829</v>
+      </c>
+      <c r="D14" s="279">
+        <v>5464.4</v>
       </c>
       <c r="E14" s="224"/>
       <c r="F14" s="101"/>
       <c r="G14" s="225">
         <f t="shared" si="0"/>
-        <v>29594.400000000001</v>
-      </c>
-      <c r="I14" s="516" t="s">
-        <v>713</v>
+        <v>5464.4</v>
+      </c>
+      <c r="I14" s="235" t="s">
+        <v>840</v>
       </c>
       <c r="J14" s="236">
-        <v>12624</v>
+        <v>12871</v>
       </c>
       <c r="K14" s="237">
-        <v>2601</v>
+        <v>720</v>
       </c>
       <c r="L14" s="218"/>
       <c r="M14" s="237"/>
       <c r="N14" s="227">
         <f t="shared" si="1"/>
-        <v>36967.199999999997</v>
+        <v>49309</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="235" t="s">
-        <v>713</v>
-      </c>
-      <c r="C15" s="461" t="s">
-        <v>738</v>
-      </c>
-      <c r="D15" s="410">
-        <v>17264.25</v>
+      <c r="B15" s="277" t="s">
+        <v>830</v>
+      </c>
+      <c r="C15" s="382" t="s">
+        <v>831</v>
+      </c>
+      <c r="D15" s="279">
+        <v>116116.4</v>
       </c>
       <c r="E15" s="224"/>
       <c r="F15" s="101"/>
       <c r="G15" s="225">
         <f t="shared" si="0"/>
-        <v>17264.25</v>
-      </c>
-      <c r="I15" s="516" t="s">
-        <v>714</v>
+        <v>116116.4</v>
+      </c>
+      <c r="I15" s="235" t="s">
+        <v>840</v>
       </c>
       <c r="J15" s="236">
-        <v>12630</v>
+        <v>12883</v>
       </c>
       <c r="K15" s="237">
-        <v>13184.4</v>
+        <v>2470</v>
       </c>
       <c r="L15" s="218"/>
       <c r="M15" s="237"/>
       <c r="N15" s="227">
         <f t="shared" si="1"/>
-        <v>50151.6</v>
+        <v>51779</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="235" t="s">
-        <v>714</v>
-      </c>
-      <c r="C16" s="461" t="s">
-        <v>739</v>
-      </c>
-      <c r="D16" s="410">
-        <v>123525.8</v>
+      <c r="B16" s="277" t="s">
+        <v>830</v>
+      </c>
+      <c r="C16" s="382" t="s">
+        <v>832</v>
+      </c>
+      <c r="D16" s="279">
+        <v>24190.2</v>
       </c>
       <c r="E16" s="224"/>
       <c r="F16" s="101"/>
       <c r="G16" s="225">
         <f t="shared" si="0"/>
-        <v>123525.8</v>
-      </c>
-      <c r="I16" s="516" t="s">
-        <v>715</v>
+        <v>24190.2</v>
+      </c>
+      <c r="I16" s="235" t="s">
+        <v>843</v>
       </c>
       <c r="J16" s="236">
-        <v>12636</v>
+        <v>12893</v>
       </c>
       <c r="K16" s="237">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="L16" s="218"/>
       <c r="M16" s="237"/>
       <c r="N16" s="227">
         <f t="shared" si="1"/>
-        <v>50631.6</v>
+        <v>52139</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="235" t="s">
-        <v>714</v>
-      </c>
-      <c r="C17" s="461" t="s">
-        <v>740</v>
-      </c>
-      <c r="D17" s="410">
-        <v>10929.6</v>
+      <c r="B17" s="277" t="s">
+        <v>833</v>
+      </c>
+      <c r="C17" s="382" t="s">
+        <v>834</v>
+      </c>
+      <c r="D17" s="279">
+        <v>15546.95</v>
       </c>
       <c r="E17" s="224"/>
       <c r="F17" s="101"/>
       <c r="G17" s="225">
         <f t="shared" si="0"/>
-        <v>10929.6</v>
-      </c>
-      <c r="I17" s="516" t="s">
-        <v>715</v>
+        <v>15546.95</v>
+      </c>
+      <c r="I17" s="235" t="s">
+        <v>845</v>
       </c>
       <c r="J17" s="236">
-        <v>12638</v>
+        <v>12906</v>
       </c>
       <c r="K17" s="237">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="L17" s="218"/>
       <c r="M17" s="237"/>
       <c r="N17" s="227">
         <f t="shared" si="1"/>
-        <v>51111.6</v>
+        <v>52739</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="235" t="s">
-        <v>715</v>
-      </c>
-      <c r="C18" s="461" t="s">
-        <v>741</v>
-      </c>
-      <c r="D18" s="410">
-        <v>13256.16</v>
+      <c r="B18" s="277" t="s">
+        <v>835</v>
+      </c>
+      <c r="C18" s="382" t="s">
+        <v>836</v>
+      </c>
+      <c r="D18" s="279">
+        <v>12999.6</v>
       </c>
       <c r="E18" s="224"/>
       <c r="F18" s="101"/>
       <c r="G18" s="225">
         <f t="shared" si="0"/>
-        <v>13256.16</v>
-      </c>
-      <c r="I18" s="516" t="s">
-        <v>716</v>
+        <v>12999.6</v>
+      </c>
+      <c r="I18" s="235" t="s">
+        <v>845</v>
       </c>
       <c r="J18" s="236">
-        <v>12645</v>
+        <v>12907</v>
       </c>
       <c r="K18" s="237">
-        <v>19808</v>
+        <v>12260</v>
       </c>
       <c r="L18" s="218"/>
       <c r="M18" s="237"/>
       <c r="N18" s="227">
         <f t="shared" si="1"/>
-        <v>70919.600000000006</v>
+        <v>64999</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="235" t="s">
-        <v>716</v>
-      </c>
-      <c r="C19" s="461" t="s">
-        <v>742</v>
-      </c>
-      <c r="D19" s="410">
-        <v>10945</v>
+      <c r="B19" s="277" t="s">
+        <v>835</v>
+      </c>
+      <c r="C19" s="382" t="s">
+        <v>837</v>
+      </c>
+      <c r="D19" s="279">
+        <v>0</v>
       </c>
       <c r="E19" s="224"/>
       <c r="F19" s="101"/>
       <c r="G19" s="225">
         <f t="shared" si="0"/>
-        <v>10945</v>
-      </c>
-      <c r="I19" s="516" t="s">
-        <v>716</v>
+        <v>0</v>
+      </c>
+      <c r="I19" s="235" t="s">
+        <v>848</v>
       </c>
       <c r="J19" s="236">
-        <v>12646</v>
+        <v>12915</v>
       </c>
       <c r="K19" s="237">
-        <v>3823</v>
+        <v>600</v>
       </c>
       <c r="L19" s="218"/>
       <c r="M19" s="237"/>
       <c r="N19" s="227">
         <f t="shared" si="1"/>
-        <v>74742.600000000006</v>
+        <v>65599</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="235" t="s">
-        <v>716</v>
-      </c>
-      <c r="C20" s="461" t="s">
-        <v>743</v>
-      </c>
-      <c r="D20" s="410">
-        <v>55883.199999999997</v>
+      <c r="B20" s="277" t="s">
+        <v>835</v>
+      </c>
+      <c r="C20" s="382" t="s">
+        <v>838</v>
+      </c>
+      <c r="D20" s="279">
+        <v>49824.28</v>
       </c>
       <c r="E20" s="224"/>
       <c r="F20" s="101"/>
       <c r="G20" s="225">
         <f t="shared" si="0"/>
-        <v>55883.199999999997</v>
-      </c>
-      <c r="I20" s="516" t="s">
-        <v>717</v>
+        <v>49824.28</v>
+      </c>
+      <c r="I20" s="235" t="s">
+        <v>851</v>
       </c>
       <c r="J20" s="236">
-        <v>12654</v>
+        <v>12927</v>
       </c>
       <c r="K20" s="237">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="L20" s="218"/>
       <c r="M20" s="237"/>
       <c r="N20" s="227">
         <f t="shared" si="1"/>
-        <v>75342.600000000006</v>
+        <v>66319</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="235" t="s">
-        <v>716</v>
-      </c>
-      <c r="C21" s="461" t="s">
-        <v>744</v>
-      </c>
-      <c r="D21" s="410">
-        <v>12802.36</v>
+      <c r="B21" s="277" t="s">
+        <v>835</v>
+      </c>
+      <c r="C21" s="382" t="s">
+        <v>839</v>
+      </c>
+      <c r="D21" s="279">
+        <v>0</v>
       </c>
       <c r="E21" s="224"/>
       <c r="F21" s="101"/>
       <c r="G21" s="225">
         <f t="shared" si="0"/>
-        <v>12802.36</v>
-      </c>
-      <c r="I21" s="516" t="s">
-        <v>717</v>
+        <v>0</v>
+      </c>
+      <c r="I21" s="235" t="s">
+        <v>854</v>
       </c>
       <c r="J21" s="236">
-        <v>12661</v>
+        <v>12938</v>
       </c>
       <c r="K21" s="237">
-        <v>3782</v>
+        <v>6120</v>
       </c>
       <c r="L21" s="218"/>
       <c r="M21" s="237"/>
       <c r="N21" s="227">
         <f t="shared" si="1"/>
-        <v>79124.600000000006</v>
+        <v>72439</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="235" t="s">
-        <v>717</v>
-      </c>
-      <c r="C22" s="461" t="s">
-        <v>745</v>
-      </c>
-      <c r="D22" s="410">
-        <v>56051.5</v>
+      <c r="B22" s="277" t="s">
+        <v>840</v>
+      </c>
+      <c r="C22" s="382" t="s">
+        <v>841</v>
+      </c>
+      <c r="D22" s="279">
+        <v>17350.02</v>
       </c>
       <c r="E22" s="224"/>
       <c r="F22" s="101"/>
       <c r="G22" s="225">
         <f t="shared" si="0"/>
-        <v>56051.5</v>
+        <v>17350.02</v>
       </c>
       <c r="H22" s="232"/>
-      <c r="I22" s="516" t="s">
-        <v>718</v>
+      <c r="I22" s="235" t="s">
+        <v>859</v>
       </c>
       <c r="J22" s="236">
-        <v>12664</v>
+        <v>12959</v>
       </c>
       <c r="K22" s="237">
-        <v>10871.2</v>
+        <v>480</v>
       </c>
       <c r="L22" s="218"/>
       <c r="M22" s="237"/>
       <c r="N22" s="227">
         <f t="shared" si="1"/>
-        <v>89995.8</v>
+        <v>72919</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="235" t="s">
-        <v>717</v>
-      </c>
-      <c r="C23" s="461" t="s">
-        <v>746</v>
-      </c>
-      <c r="D23" s="410">
-        <v>3178</v>
+      <c r="B23" s="277" t="s">
+        <v>840</v>
+      </c>
+      <c r="C23" s="382" t="s">
+        <v>842</v>
+      </c>
+      <c r="D23" s="279">
+        <v>6193.8</v>
       </c>
       <c r="E23" s="224"/>
       <c r="F23" s="101"/>
       <c r="G23" s="225">
         <f t="shared" si="0"/>
-        <v>3178</v>
+        <v>6193.8</v>
       </c>
       <c r="H23" s="233"/>
-      <c r="I23" s="516" t="s">
-        <v>718</v>
+      <c r="I23" s="235" t="s">
+        <v>861</v>
       </c>
       <c r="J23" s="236">
-        <v>12665</v>
+        <v>12968</v>
       </c>
       <c r="K23" s="237">
-        <v>240</v>
+        <v>4680</v>
       </c>
       <c r="L23" s="218"/>
       <c r="M23" s="237"/>
       <c r="N23" s="227">
         <f t="shared" si="1"/>
-        <v>90235.8</v>
+        <v>77599</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="235" t="s">
-        <v>718</v>
-      </c>
-      <c r="C24" s="461" t="s">
-        <v>747</v>
-      </c>
-      <c r="D24" s="410">
-        <v>24779.279999999999</v>
+      <c r="B24" s="277" t="s">
+        <v>843</v>
+      </c>
+      <c r="C24" s="382" t="s">
+        <v>844</v>
+      </c>
+      <c r="D24" s="279">
+        <v>13559.56</v>
       </c>
       <c r="E24" s="224"/>
       <c r="F24" s="101"/>
       <c r="G24" s="225">
         <f t="shared" si="0"/>
-        <v>24779.279999999999</v>
+        <v>13559.56</v>
       </c>
       <c r="H24" s="233"/>
-      <c r="I24" s="516" t="s">
-        <v>719</v>
+      <c r="I24" s="235" t="s">
+        <v>864</v>
       </c>
       <c r="J24" s="236">
-        <v>12682</v>
+        <v>12977</v>
       </c>
       <c r="K24" s="237">
-        <v>4061</v>
+        <v>17443</v>
       </c>
       <c r="L24" s="218"/>
       <c r="M24" s="237"/>
       <c r="N24" s="227">
         <f t="shared" si="1"/>
-        <v>94296.8</v>
+        <v>95042</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="235" t="s">
-        <v>719</v>
-      </c>
-      <c r="C25" s="461" t="s">
-        <v>748</v>
-      </c>
-      <c r="D25" s="410">
-        <v>88264.8</v>
+      <c r="B25" s="277" t="s">
+        <v>845</v>
+      </c>
+      <c r="C25" s="382" t="s">
+        <v>846</v>
+      </c>
+      <c r="D25" s="279">
+        <v>0</v>
       </c>
       <c r="E25" s="224"/>
       <c r="F25" s="101"/>
       <c r="G25" s="225">
         <f t="shared" si="0"/>
-        <v>88264.8</v>
+        <v>0</v>
       </c>
       <c r="H25" s="234"/>
-      <c r="I25" s="516" t="s">
-        <v>720</v>
+      <c r="I25" s="235" t="s">
+        <v>866</v>
       </c>
       <c r="J25" s="236">
-        <v>12690</v>
+        <v>12982</v>
       </c>
       <c r="K25" s="237">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="L25" s="218"/>
       <c r="M25" s="237"/>
       <c r="N25" s="227">
         <f t="shared" si="1"/>
-        <v>94896.8</v>
+        <v>95882</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="235" t="s">
-        <v>719</v>
-      </c>
-      <c r="C26" s="461" t="s">
-        <v>749</v>
-      </c>
-      <c r="D26" s="410">
-        <v>39048.300000000003</v>
+      <c r="B26" s="277" t="s">
+        <v>845</v>
+      </c>
+      <c r="C26" s="382" t="s">
+        <v>847</v>
+      </c>
+      <c r="D26" s="279">
+        <v>21143.48</v>
       </c>
       <c r="E26" s="224"/>
       <c r="F26" s="101"/>
       <c r="G26" s="225">
         <f t="shared" si="0"/>
-        <v>39048.300000000003</v>
+        <v>21143.48</v>
       </c>
       <c r="H26" s="234"/>
-      <c r="I26" s="516" t="s">
-        <v>720</v>
+      <c r="I26" s="235" t="s">
+        <v>866</v>
       </c>
       <c r="J26" s="236">
-        <v>12692</v>
+        <v>12984</v>
       </c>
       <c r="K26" s="237">
-        <v>480</v>
+        <v>3780</v>
       </c>
       <c r="L26" s="218"/>
       <c r="M26" s="237"/>
       <c r="N26" s="227">
         <f t="shared" si="1"/>
-        <v>95376.8</v>
+        <v>99662</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="235" t="s">
-        <v>720</v>
-      </c>
-      <c r="C27" s="461" t="s">
-        <v>750</v>
-      </c>
-      <c r="D27" s="410">
-        <v>65638</v>
+      <c r="B27" s="277" t="s">
+        <v>848</v>
+      </c>
+      <c r="C27" s="382" t="s">
+        <v>849</v>
+      </c>
+      <c r="D27" s="279">
+        <v>41760.44</v>
       </c>
       <c r="E27" s="224"/>
       <c r="F27" s="101"/>
       <c r="G27" s="225">
         <f t="shared" si="0"/>
-        <v>65638</v>
+        <v>41760.44</v>
       </c>
       <c r="H27" s="234"/>
-      <c r="I27" s="516" t="s">
-        <v>721</v>
+      <c r="I27" s="235" t="s">
+        <v>868</v>
       </c>
       <c r="J27" s="236">
-        <v>12699</v>
+        <v>12993</v>
       </c>
       <c r="K27" s="237">
-        <v>2589</v>
+        <v>9832</v>
       </c>
       <c r="L27" s="218"/>
       <c r="M27" s="237"/>
       <c r="N27" s="227">
         <f t="shared" si="1"/>
-        <v>97965.8</v>
+        <v>109494</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="235" t="s">
-        <v>721</v>
-      </c>
-      <c r="C28" s="461" t="s">
-        <v>751</v>
-      </c>
-      <c r="D28" s="410">
-        <v>4895.84</v>
+      <c r="B28" s="277" t="s">
+        <v>848</v>
+      </c>
+      <c r="C28" s="382" t="s">
+        <v>850</v>
+      </c>
+      <c r="D28" s="279">
+        <v>4265.1000000000004</v>
       </c>
       <c r="E28" s="224"/>
       <c r="F28" s="101"/>
       <c r="G28" s="225">
         <f t="shared" si="0"/>
-        <v>4895.84</v>
+        <v>4265.1000000000004</v>
       </c>
       <c r="H28" s="234"/>
-      <c r="I28" s="516" t="s">
-        <v>721</v>
+      <c r="I28" s="235" t="s">
+        <v>870</v>
       </c>
       <c r="J28" s="236">
-        <v>12706</v>
+        <v>13005</v>
       </c>
       <c r="K28" s="237">
-        <v>360</v>
+        <v>11249.6</v>
       </c>
       <c r="L28" s="218"/>
       <c r="M28" s="237"/>
       <c r="N28" s="227">
         <f t="shared" si="1"/>
-        <v>98325.8</v>
+        <v>120743.6</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="235" t="s">
-        <v>722</v>
-      </c>
-      <c r="C29" s="461" t="s">
-        <v>752</v>
-      </c>
-      <c r="D29" s="410">
-        <v>106444.7</v>
+      <c r="B29" s="277" t="s">
+        <v>851</v>
+      </c>
+      <c r="C29" s="382" t="s">
+        <v>852</v>
+      </c>
+      <c r="D29" s="279">
+        <v>19825.34</v>
       </c>
       <c r="E29" s="224"/>
       <c r="F29" s="101"/>
       <c r="G29" s="225">
         <f t="shared" si="0"/>
-        <v>106444.7</v>
+        <v>19825.34</v>
       </c>
       <c r="H29" s="234"/>
-      <c r="I29" s="516" t="s">
-        <v>722</v>
+      <c r="I29" s="235" t="s">
+        <v>875</v>
       </c>
       <c r="J29" s="236">
-        <v>12711</v>
+        <v>13007</v>
       </c>
       <c r="K29" s="237">
-        <v>11428.4</v>
+        <v>600</v>
       </c>
       <c r="L29" s="218"/>
       <c r="M29" s="237"/>
       <c r="N29" s="227">
         <f t="shared" si="1"/>
-        <v>109754.2</v>
+        <v>121343.6</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
-      <c r="B30" s="235" t="s">
-        <v>723</v>
-      </c>
-      <c r="C30" s="461" t="s">
-        <v>753</v>
-      </c>
-      <c r="D30" s="410">
-        <v>144748.88</v>
+      <c r="B30" s="277" t="s">
+        <v>851</v>
+      </c>
+      <c r="C30" s="382" t="s">
+        <v>853</v>
+      </c>
+      <c r="D30" s="279">
+        <v>5250</v>
       </c>
       <c r="E30" s="224"/>
       <c r="F30" s="101"/>
       <c r="G30" s="225">
         <f t="shared" si="0"/>
-        <v>144748.88</v>
+        <v>5250</v>
       </c>
       <c r="H30" s="234"/>
-      <c r="I30" s="516" t="s">
-        <v>723</v>
+      <c r="I30" s="235" t="s">
+        <v>877</v>
       </c>
       <c r="J30" s="236">
-        <v>12715</v>
+        <v>13019</v>
       </c>
       <c r="K30" s="237">
-        <v>3440</v>
+        <v>600</v>
       </c>
       <c r="L30" s="224"/>
       <c r="M30" s="101"/>
       <c r="N30" s="227">
         <f t="shared" si="1"/>
-        <v>113194.2</v>
+        <v>121943.6</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="235" t="s">
-        <v>723</v>
-      </c>
-      <c r="C31" s="461" t="s">
-        <v>754</v>
-      </c>
-      <c r="D31" s="410">
-        <v>14753.24</v>
+      <c r="B31" s="277" t="s">
+        <v>854</v>
+      </c>
+      <c r="C31" s="382" t="s">
+        <v>855</v>
+      </c>
+      <c r="D31" s="279">
+        <v>19089.400000000001</v>
       </c>
       <c r="E31" s="224"/>
       <c r="F31" s="101"/>
       <c r="G31" s="225">
         <f t="shared" si="0"/>
-        <v>14753.24</v>
+        <v>19089.400000000001</v>
       </c>
       <c r="H31" s="233"/>
-      <c r="I31" s="516" t="s">
-        <v>724</v>
+      <c r="I31" s="235" t="s">
+        <v>879</v>
       </c>
       <c r="J31" s="236">
-        <v>12735</v>
+        <v>13024</v>
       </c>
       <c r="K31" s="237">
-        <v>5263</v>
+        <v>600</v>
       </c>
       <c r="L31" s="224"/>
       <c r="M31" s="101"/>
       <c r="N31" s="227">
         <f t="shared" si="1"/>
-        <v>118457.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="235" t="s">
-        <v>755</v>
-      </c>
-      <c r="C32" s="461" t="s">
-        <v>756</v>
-      </c>
-      <c r="D32" s="410">
-        <v>15134.82</v>
+      <c r="B32" s="277" t="s">
+        <v>854</v>
+      </c>
+      <c r="C32" s="382" t="s">
+        <v>856</v>
+      </c>
+      <c r="D32" s="279">
+        <v>0</v>
       </c>
       <c r="E32" s="224"/>
       <c r="F32" s="101"/>
       <c r="G32" s="225">
         <f t="shared" si="0"/>
-        <v>15134.82</v>
+        <v>0</v>
       </c>
       <c r="H32" s="233"/>
-      <c r="I32" s="516" t="s">
-        <v>725</v>
-      </c>
-      <c r="J32" s="236">
-        <v>12746</v>
-      </c>
-      <c r="K32" s="237">
-        <v>2960</v>
-      </c>
+      <c r="I32" s="516"/>
+      <c r="J32" s="236"/>
+      <c r="K32" s="237"/>
       <c r="L32" s="224"/>
       <c r="M32" s="101"/>
       <c r="N32" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="235" t="s">
-        <v>724</v>
-      </c>
-      <c r="C33" s="461" t="s">
-        <v>757</v>
-      </c>
-      <c r="D33" s="410">
-        <v>93664.48</v>
+      <c r="B33" s="277" t="s">
+        <v>854</v>
+      </c>
+      <c r="C33" s="382" t="s">
+        <v>857</v>
+      </c>
+      <c r="D33" s="279">
+        <v>0</v>
       </c>
       <c r="E33" s="224"/>
       <c r="F33" s="101"/>
       <c r="G33" s="225">
         <f t="shared" si="0"/>
-        <v>93664.48</v>
+        <v>0</v>
       </c>
       <c r="I33" s="436"/>
       <c r="J33" s="438"/>
@@ -23557,24 +23776,24 @@
       <c r="M33" s="101"/>
       <c r="N33" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="235" t="s">
-        <v>725</v>
-      </c>
-      <c r="C34" s="461" t="s">
-        <v>758</v>
-      </c>
-      <c r="D34" s="410">
-        <v>92452.12</v>
+      <c r="B34" s="277" t="s">
+        <v>854</v>
+      </c>
+      <c r="C34" s="382" t="s">
+        <v>858</v>
+      </c>
+      <c r="D34" s="279">
+        <v>0</v>
       </c>
       <c r="E34" s="224"/>
       <c r="F34" s="101"/>
       <c r="G34" s="225">
         <f t="shared" si="0"/>
-        <v>92452.12</v>
+        <v>0</v>
       </c>
       <c r="I34" s="436"/>
       <c r="J34" s="438"/>
@@ -23585,24 +23804,24 @@
       <c r="M34" s="101"/>
       <c r="N34" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="235" t="s">
-        <v>759</v>
-      </c>
-      <c r="C35" s="461" t="s">
-        <v>760</v>
-      </c>
-      <c r="D35" s="410">
-        <v>4358.3999999999996</v>
+      <c r="B35" s="277" t="s">
+        <v>859</v>
+      </c>
+      <c r="C35" s="382" t="s">
+        <v>860</v>
+      </c>
+      <c r="D35" s="279">
+        <v>19056.599999999999</v>
       </c>
       <c r="E35" s="224"/>
       <c r="F35" s="101"/>
       <c r="G35" s="225">
         <f t="shared" si="0"/>
-        <v>4358.3999999999996</v>
+        <v>19056.599999999999</v>
       </c>
       <c r="I35" s="487"/>
       <c r="J35" s="488"/>
@@ -23611,24 +23830,24 @@
       <c r="M35" s="101"/>
       <c r="N35" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="235" t="s">
-        <v>759</v>
-      </c>
-      <c r="C36" s="461" t="s">
-        <v>761</v>
-      </c>
-      <c r="D36" s="410">
-        <v>59252.32</v>
+      <c r="B36" s="277" t="s">
+        <v>861</v>
+      </c>
+      <c r="C36" s="382" t="s">
+        <v>862</v>
+      </c>
+      <c r="D36" s="279">
+        <v>7055.4</v>
       </c>
       <c r="E36" s="224"/>
       <c r="F36" s="101"/>
       <c r="G36" s="225">
         <f t="shared" si="0"/>
-        <v>59252.32</v>
+        <v>7055.4</v>
       </c>
       <c r="I36" s="491"/>
       <c r="J36" s="491"/>
@@ -23637,111 +23856,147 @@
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="222"/>
-      <c r="C37" s="223"/>
-      <c r="D37" s="101"/>
+      <c r="B37" s="277" t="s">
+        <v>861</v>
+      </c>
+      <c r="C37" s="382" t="s">
+        <v>863</v>
+      </c>
+      <c r="D37" s="279">
+        <v>9903.85</v>
+      </c>
       <c r="E37" s="224"/>
       <c r="F37" s="101"/>
       <c r="G37" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="577" t="s">
+        <v>9903.85</v>
+      </c>
+      <c r="I37" s="582" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="578"/>
+      <c r="J37" s="583"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="222"/>
-      <c r="C38" s="223"/>
-      <c r="D38" s="101"/>
+      <c r="B38" s="277" t="s">
+        <v>864</v>
+      </c>
+      <c r="C38" s="382" t="s">
+        <v>865</v>
+      </c>
+      <c r="D38" s="279">
+        <v>11767.68</v>
+      </c>
       <c r="E38" s="224"/>
       <c r="F38" s="101"/>
       <c r="G38" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="579"/>
-      <c r="J38" s="580"/>
+        <v>11767.68</v>
+      </c>
+      <c r="I38" s="584"/>
+      <c r="J38" s="585"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
       <c r="N38" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="222"/>
-      <c r="C39" s="223"/>
-      <c r="D39" s="101"/>
+      <c r="B39" s="277" t="s">
+        <v>866</v>
+      </c>
+      <c r="C39" s="382" t="s">
+        <v>867</v>
+      </c>
+      <c r="D39" s="279">
+        <v>24157.14</v>
+      </c>
       <c r="E39" s="238"/>
       <c r="F39" s="84"/>
       <c r="G39" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="581"/>
-      <c r="J39" s="582"/>
+        <v>24157.14</v>
+      </c>
+      <c r="I39" s="586"/>
+      <c r="J39" s="587"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
       <c r="N39" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="222"/>
-      <c r="C40" s="223"/>
-      <c r="D40" s="101"/>
+      <c r="B40" s="540" t="s">
+        <v>868</v>
+      </c>
+      <c r="C40" s="541" t="s">
+        <v>869</v>
+      </c>
+      <c r="D40" s="542">
+        <v>43828.08</v>
+      </c>
       <c r="E40" s="238"/>
       <c r="F40" s="84"/>
       <c r="G40" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43828.08</v>
       </c>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
       <c r="N40" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="244"/>
-      <c r="C41" s="223"/>
-      <c r="D41" s="405"/>
+      <c r="B41" s="538" t="s">
+        <v>870</v>
+      </c>
+      <c r="C41" s="539" t="s">
+        <v>871</v>
+      </c>
+      <c r="D41" s="515">
+        <v>20733.96</v>
+      </c>
       <c r="E41" s="238"/>
       <c r="F41" s="84"/>
       <c r="G41" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20733.96</v>
       </c>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
       <c r="N41" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="244"/>
-      <c r="C42" s="223"/>
-      <c r="D42" s="405"/>
+      <c r="B42" s="540" t="s">
+        <v>870</v>
+      </c>
+      <c r="C42" s="541" t="s">
+        <v>872</v>
+      </c>
+      <c r="D42" s="542">
+        <v>0</v>
+      </c>
       <c r="E42" s="238"/>
       <c r="F42" s="84"/>
       <c r="G42" s="101">
@@ -23753,13 +24008,19 @@
       <c r="M42" s="84"/>
       <c r="N42" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="244"/>
-      <c r="C43" s="245"/>
-      <c r="D43" s="405"/>
+      <c r="B43" s="538" t="s">
+        <v>870</v>
+      </c>
+      <c r="C43" s="539" t="s">
+        <v>873</v>
+      </c>
+      <c r="D43" s="515">
+        <v>0</v>
+      </c>
       <c r="E43" s="238"/>
       <c r="F43" s="84"/>
       <c r="G43" s="101">
@@ -23773,13 +24034,19 @@
       <c r="M43" s="84"/>
       <c r="N43" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="246"/>
-      <c r="C44" s="245"/>
-      <c r="D44" s="405"/>
+      <c r="B44" s="540" t="s">
+        <v>870</v>
+      </c>
+      <c r="C44" s="541" t="s">
+        <v>874</v>
+      </c>
+      <c r="D44" s="542">
+        <v>0</v>
+      </c>
       <c r="E44" s="238"/>
       <c r="F44" s="84"/>
       <c r="G44" s="101">
@@ -23793,18 +24060,24 @@
       <c r="M44" s="84"/>
       <c r="N44" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="246"/>
-      <c r="C45" s="245"/>
-      <c r="D45" s="405"/>
+      <c r="B45" s="538" t="s">
+        <v>875</v>
+      </c>
+      <c r="C45" s="539" t="s">
+        <v>876</v>
+      </c>
+      <c r="D45" s="515">
+        <v>33646.01</v>
+      </c>
       <c r="E45" s="238"/>
       <c r="F45" s="84"/>
       <c r="G45" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33646.01</v>
       </c>
       <c r="I45" s="239"/>
       <c r="J45" s="240"/>
@@ -23813,18 +24086,24 @@
       <c r="M45" s="84"/>
       <c r="N45" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="246"/>
-      <c r="C46" s="245"/>
-      <c r="D46" s="405"/>
+      <c r="B46" s="538" t="s">
+        <v>877</v>
+      </c>
+      <c r="C46" s="539" t="s">
+        <v>878</v>
+      </c>
+      <c r="D46" s="515">
+        <v>11664</v>
+      </c>
       <c r="E46" s="238"/>
       <c r="F46" s="84"/>
       <c r="G46" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11664</v>
       </c>
       <c r="I46" s="239"/>
       <c r="J46" s="240"/>
@@ -23833,18 +24112,24 @@
       <c r="M46" s="84"/>
       <c r="N46" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="406"/>
-      <c r="C47" s="245"/>
-      <c r="D47" s="405"/>
+      <c r="B47" s="538" t="s">
+        <v>879</v>
+      </c>
+      <c r="C47" s="539" t="s">
+        <v>880</v>
+      </c>
+      <c r="D47" s="515">
+        <v>13245.9</v>
+      </c>
       <c r="E47" s="238"/>
       <c r="F47" s="84"/>
       <c r="G47" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13245.9</v>
       </c>
       <c r="I47" s="239"/>
       <c r="J47" s="240"/>
@@ -23853,7 +24138,7 @@
       <c r="M47" s="84"/>
       <c r="N47" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -23873,7 +24158,7 @@
       <c r="M48" s="84"/>
       <c r="N48" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -23893,7 +24178,7 @@
       <c r="M49" s="84"/>
       <c r="N49" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -23913,7 +24198,7 @@
       <c r="M50" s="44"/>
       <c r="N50" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -23933,7 +24218,7 @@
       <c r="M51" s="44"/>
       <c r="N51" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -23953,7 +24238,7 @@
       <c r="M52" s="44"/>
       <c r="N52" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -23973,7 +24258,7 @@
       <c r="M53" s="44"/>
       <c r="N53" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -23993,7 +24278,7 @@
       <c r="M54" s="44"/>
       <c r="N54" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24013,7 +24298,7 @@
       <c r="M55" s="44"/>
       <c r="N55" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24033,7 +24318,7 @@
       <c r="M56" s="84"/>
       <c r="N56" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24053,7 +24338,7 @@
       <c r="M57" s="84"/>
       <c r="N57" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24073,7 +24358,7 @@
       <c r="M58" s="84"/>
       <c r="N58" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24093,7 +24378,7 @@
       <c r="M59" s="84"/>
       <c r="N59" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24113,7 +24398,7 @@
       <c r="M60" s="84"/>
       <c r="N60" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24133,7 +24418,7 @@
       <c r="M61" s="84"/>
       <c r="N61" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24153,7 +24438,7 @@
       <c r="M62" s="84"/>
       <c r="N62" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24173,7 +24458,7 @@
       <c r="M63" s="84"/>
       <c r="N63" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24193,7 +24478,7 @@
       <c r="M64" s="84"/>
       <c r="N64" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="65" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24213,7 +24498,7 @@
       <c r="M65" s="84"/>
       <c r="N65" s="227">
         <f t="shared" si="1"/>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24240,7 +24525,7 @@
       <c r="C67" s="259"/>
       <c r="D67" s="260">
         <f>SUM(D3:D66)</f>
-        <v>1585182.9300000004</v>
+        <v>917631.77</v>
       </c>
       <c r="E67" s="261"/>
       <c r="F67" s="262">
@@ -24249,15 +24534,15 @@
       </c>
       <c r="G67" s="263">
         <f>SUM(G3:G66)</f>
-        <v>1585182.9300000004</v>
-      </c>
-      <c r="I67" s="583" t="s">
+        <v>917631.77</v>
+      </c>
+      <c r="I67" s="588" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="584"/>
+      <c r="J67" s="589"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
-        <v>121417.2</v>
+        <v>122543.6</v>
       </c>
       <c r="L67" s="265"/>
       <c r="M67" s="266">
@@ -24276,11 +24561,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="587" t="s">
+      <c r="G68" s="592" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="592"/>
-      <c r="J68" s="593"/>
+      <c r="I68" s="597"/>
+      <c r="J68" s="598"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -24291,7 +24576,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="588"/>
+      <c r="G69" s="593"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -26322,10 +26607,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="574"/>
-      <c r="J36" s="575"/>
-      <c r="K36" s="575"/>
-      <c r="L36" s="576"/>
+      <c r="I36" s="579"/>
+      <c r="J36" s="580"/>
+      <c r="K36" s="580"/>
+      <c r="L36" s="581"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -26352,10 +26637,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="574"/>
-      <c r="J37" s="575"/>
-      <c r="K37" s="575"/>
-      <c r="L37" s="576"/>
+      <c r="I37" s="579"/>
+      <c r="J37" s="580"/>
+      <c r="K37" s="580"/>
+      <c r="L37" s="581"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -26412,10 +26697,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="577" t="s">
+      <c r="I40" s="582" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="578"/>
+      <c r="J40" s="583"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -26434,8 +26719,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="579"/>
-      <c r="J41" s="580"/>
+      <c r="I41" s="584"/>
+      <c r="J41" s="585"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -26454,8 +26739,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="581"/>
-      <c r="J42" s="582"/>
+      <c r="I42" s="586"/>
+      <c r="J42" s="587"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -26959,10 +27244,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="583" t="s">
+      <c r="I67" s="588" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="584"/>
+      <c r="J67" s="589"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -26982,11 +27267,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="587" t="s">
+      <c r="G68" s="592" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="585"/>
-      <c r="J68" s="586"/>
+      <c r="I68" s="590"/>
+      <c r="J68" s="591"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -26997,7 +27282,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="588"/>
+      <c r="G69" s="593"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -27628,23 +27913,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="542"/>
-      <c r="C1" s="544" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
-      <c r="F1" s="545"/>
-      <c r="G1" s="545"/>
-      <c r="H1" s="545"/>
-      <c r="I1" s="545"/>
-      <c r="J1" s="545"/>
-      <c r="K1" s="545"/>
-      <c r="L1" s="545"/>
-      <c r="M1" s="545"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="543"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27654,24 +27939,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="546" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="547"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="548" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="548"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="540" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="549" t="s">
+      <c r="R3" s="543" t="s">
         <v>3</v>
       </c>
     </row>
@@ -27686,14 +27971,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="551" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="552"/>
-      <c r="H4" s="553" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="554"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27703,11 +27988,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="541"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="550"/>
+      <c r="R4" s="544"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -29683,11 +29968,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="560">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="560">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -29695,7 +29980,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="572">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -29728,10 +30013,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="561"/>
-      <c r="N50" s="561"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="573"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -29822,11 +30107,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="538">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="539"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -30385,26 +30670,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="568" t="s">
+      <c r="H77" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="569"/>
+      <c r="I77" s="563"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="570">
+      <c r="K77" s="564">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="571"/>
+      <c r="L77" s="565"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="562" t="s">
+      <c r="D78" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="562"/>
+      <c r="E78" s="556"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -30413,22 +30698,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="563" t="s">
+      <c r="D79" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="563"/>
+      <c r="E79" s="557"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="564" t="s">
+      <c r="I79" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="565"/>
-      <c r="K79" s="566">
+      <c r="J79" s="559"/>
+      <c r="K79" s="560">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="566"/>
+      <c r="L79" s="560"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -30469,11 +30754,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="567">
+      <c r="K81" s="561">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="566"/>
+      <c r="L81" s="560"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -30490,22 +30775,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="555" t="s">
+      <c r="D83" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="556"/>
+      <c r="E83" s="550"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="589" t="s">
+      <c r="I83" s="594" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="590"/>
-      <c r="K83" s="591">
+      <c r="J83" s="595"/>
+      <c r="K83" s="596">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="591"/>
+      <c r="L83" s="596"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -30652,12 +30937,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30674,6 +30953,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -32085,10 +32370,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="574"/>
-      <c r="J36" s="575"/>
-      <c r="K36" s="575"/>
-      <c r="L36" s="576"/>
+      <c r="I36" s="579"/>
+      <c r="J36" s="580"/>
+      <c r="K36" s="580"/>
+      <c r="L36" s="581"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -32115,10 +32400,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="574"/>
-      <c r="J37" s="575"/>
-      <c r="K37" s="575"/>
-      <c r="L37" s="576"/>
+      <c r="I37" s="579"/>
+      <c r="J37" s="580"/>
+      <c r="K37" s="580"/>
+      <c r="L37" s="581"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -32185,10 +32470,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="577" t="s">
+      <c r="I40" s="582" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="578"/>
+      <c r="J40" s="583"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -32207,8 +32492,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="579"/>
-      <c r="J41" s="580"/>
+      <c r="I41" s="584"/>
+      <c r="J41" s="585"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -32227,8 +32512,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="581"/>
-      <c r="J42" s="582"/>
+      <c r="I42" s="586"/>
+      <c r="J42" s="587"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -32732,10 +33017,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="583" t="s">
+      <c r="I67" s="588" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="584"/>
+      <c r="J67" s="589"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -32755,11 +33040,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="587" t="s">
+      <c r="G68" s="592" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="592"/>
-      <c r="J68" s="593"/>
+      <c r="I68" s="597"/>
+      <c r="J68" s="598"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -32770,7 +33055,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="588"/>
+      <c r="G69" s="593"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -33385,23 +33670,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="542"/>
-      <c r="C1" s="544" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
-      <c r="F1" s="545"/>
-      <c r="G1" s="545"/>
-      <c r="H1" s="545"/>
-      <c r="I1" s="545"/>
-      <c r="J1" s="545"/>
-      <c r="K1" s="545"/>
-      <c r="L1" s="545"/>
-      <c r="M1" s="545"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="543"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33411,24 +33696,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="546" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="547"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="548" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="548"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="540" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="594" t="s">
+      <c r="R3" s="599" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33443,14 +33728,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="551" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="552"/>
-      <c r="H4" s="553" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="554"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33460,11 +33745,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="541"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="595"/>
+      <c r="R4" s="600"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -35445,11 +35730,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="560">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="560">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -35457,7 +35742,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="572">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -35490,10 +35775,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="561"/>
-      <c r="N50" s="561"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="573"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -35584,11 +35869,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="538">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="539"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -36067,26 +36352,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="568" t="s">
+      <c r="H77" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="569"/>
+      <c r="I77" s="563"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="570">
+      <c r="K77" s="564">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="571"/>
+      <c r="L77" s="565"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="562" t="s">
+      <c r="D78" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="562"/>
+      <c r="E78" s="556"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -36095,22 +36380,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="563" t="s">
+      <c r="D79" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="563"/>
+      <c r="E79" s="557"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="564" t="s">
+      <c r="I79" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="565"/>
-      <c r="K79" s="566">
+      <c r="J79" s="559"/>
+      <c r="K79" s="560">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="566"/>
+      <c r="L79" s="560"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -36151,11 +36436,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="567">
+      <c r="K81" s="561">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="566"/>
+      <c r="L81" s="560"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -36172,22 +36457,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="555" t="s">
+      <c r="D83" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="556"/>
+      <c r="E83" s="550"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="557" t="s">
+      <c r="I83" s="551" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="558"/>
-      <c r="K83" s="559">
+      <c r="J83" s="552"/>
+      <c r="K83" s="553">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="559"/>
+      <c r="L83" s="553"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -36334,6 +36619,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36350,12 +36641,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37658,10 +37943,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="574"/>
-      <c r="J36" s="575"/>
-      <c r="K36" s="575"/>
-      <c r="L36" s="576"/>
+      <c r="I36" s="579"/>
+      <c r="J36" s="580"/>
+      <c r="K36" s="580"/>
+      <c r="L36" s="581"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -37678,10 +37963,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="574"/>
-      <c r="J37" s="575"/>
-      <c r="K37" s="575"/>
-      <c r="L37" s="576"/>
+      <c r="I37" s="579"/>
+      <c r="J37" s="580"/>
+      <c r="K37" s="580"/>
+      <c r="L37" s="581"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -37738,10 +38023,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="577" t="s">
+      <c r="I40" s="582" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="578"/>
+      <c r="J40" s="583"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -37760,8 +38045,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="579"/>
-      <c r="J41" s="580"/>
+      <c r="I41" s="584"/>
+      <c r="J41" s="585"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -37780,8 +38065,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="581"/>
-      <c r="J42" s="582"/>
+      <c r="I42" s="586"/>
+      <c r="J42" s="587"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -38285,10 +38570,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="583" t="s">
+      <c r="I67" s="588" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="584"/>
+      <c r="J67" s="589"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -38308,11 +38593,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="587" t="s">
+      <c r="G68" s="592" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="592"/>
-      <c r="J68" s="593"/>
+      <c r="I68" s="597"/>
+      <c r="J68" s="598"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -38323,7 +38608,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="588"/>
+      <c r="G69" s="593"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -38929,23 +39214,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="542"/>
-      <c r="C1" s="544" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
-      <c r="F1" s="545"/>
-      <c r="G1" s="545"/>
-      <c r="H1" s="545"/>
-      <c r="I1" s="545"/>
-      <c r="J1" s="545"/>
-      <c r="K1" s="545"/>
-      <c r="L1" s="545"/>
-      <c r="M1" s="545"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="543"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -38955,24 +39240,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="546" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="547"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="548" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="548"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="540" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="594" t="s">
+      <c r="R3" s="599" t="s">
         <v>3</v>
       </c>
     </row>
@@ -38987,14 +39272,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="551" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="552"/>
-      <c r="H4" s="553" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="554"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -39004,11 +39289,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="541"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="595"/>
+      <c r="R4" s="600"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -41029,11 +41314,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="560">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="560">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -41041,7 +41326,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="572">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -41068,10 +41353,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="561"/>
-      <c r="N50" s="561"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="573"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -41145,11 +41430,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="538">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="539"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -41778,26 +42063,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="568" t="s">
+      <c r="H79" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="569"/>
+      <c r="I79" s="563"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="570">
+      <c r="K79" s="564">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="571"/>
+      <c r="L79" s="565"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="562" t="s">
+      <c r="D80" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="562"/>
+      <c r="E80" s="556"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -41806,22 +42091,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="563" t="s">
+      <c r="D81" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="563"/>
+      <c r="E81" s="557"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="564" t="s">
+      <c r="I81" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="565"/>
-      <c r="K81" s="566">
+      <c r="J81" s="559"/>
+      <c r="K81" s="560">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="566"/>
+      <c r="L81" s="560"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -41862,11 +42147,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="567">
+      <c r="K83" s="561">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="566"/>
+      <c r="L83" s="560"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -41883,22 +42168,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="555" t="s">
+      <c r="D85" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="556"/>
+      <c r="E85" s="550"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="557" t="s">
+      <c r="I85" s="551" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="558"/>
-      <c r="K85" s="559">
+      <c r="J85" s="552"/>
+      <c r="K85" s="553">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="559"/>
+      <c r="L85" s="553"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -42046,12 +42331,6 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -42068,6 +42347,12 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -43387,10 +43672,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="574"/>
-      <c r="J36" s="575"/>
-      <c r="K36" s="575"/>
-      <c r="L36" s="576"/>
+      <c r="I36" s="579"/>
+      <c r="J36" s="580"/>
+      <c r="K36" s="580"/>
+      <c r="L36" s="581"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -43413,10 +43698,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="574"/>
-      <c r="J37" s="575"/>
-      <c r="K37" s="575"/>
-      <c r="L37" s="576"/>
+      <c r="I37" s="579"/>
+      <c r="J37" s="580"/>
+      <c r="K37" s="580"/>
+      <c r="L37" s="581"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -43491,10 +43776,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="577" t="s">
+      <c r="I40" s="582" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="578"/>
+      <c r="J40" s="583"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -43519,8 +43804,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="579"/>
-      <c r="J41" s="580"/>
+      <c r="I41" s="584"/>
+      <c r="J41" s="585"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -43545,8 +43830,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="581"/>
-      <c r="J42" s="582"/>
+      <c r="I42" s="586"/>
+      <c r="J42" s="587"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -44068,10 +44353,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="583" t="s">
+      <c r="I67" s="588" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="584"/>
+      <c r="J67" s="589"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -44091,11 +44376,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="587" t="s">
+      <c r="G68" s="592" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="592"/>
-      <c r="J68" s="593"/>
+      <c r="I68" s="597"/>
+      <c r="J68" s="598"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -44106,7 +44391,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="588"/>
+      <c r="G69" s="593"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -44722,23 +45007,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="542"/>
-      <c r="C1" s="544" t="s">
+      <c r="B1" s="572"/>
+      <c r="C1" s="574" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
-      <c r="F1" s="545"/>
-      <c r="G1" s="545"/>
-      <c r="H1" s="545"/>
-      <c r="I1" s="545"/>
-      <c r="J1" s="545"/>
-      <c r="K1" s="545"/>
-      <c r="L1" s="545"/>
-      <c r="M1" s="545"/>
+      <c r="D1" s="575"/>
+      <c r="E1" s="575"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
+      <c r="H1" s="575"/>
+      <c r="I1" s="575"/>
+      <c r="J1" s="575"/>
+      <c r="K1" s="575"/>
+      <c r="L1" s="575"/>
+      <c r="M1" s="575"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="543"/>
+      <c r="B2" s="573"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -44748,27 +45033,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="546" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="547"/>
+      <c r="B3" s="576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="577"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="548" t="s">
+      <c r="H3" s="578" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="548"/>
+      <c r="I3" s="578"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="540" t="s">
+      <c r="P3" s="570" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="594" t="s">
+      <c r="R3" s="599" t="s">
         <v>3</v>
       </c>
     </row>
@@ -44783,14 +45068,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="551" t="s">
+      <c r="E4" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="552"/>
-      <c r="H4" s="553" t="s">
+      <c r="F4" s="546"/>
+      <c r="H4" s="547" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="554"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -44800,11 +45085,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="541"/>
+      <c r="P4" s="571"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="595"/>
+      <c r="R4" s="600"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -46807,11 +47092,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="560">
+      <c r="M49" s="554">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="560">
+      <c r="N49" s="554">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -46819,7 +47104,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="572">
+      <c r="Q49" s="566">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -46852,10 +47137,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="561"/>
-      <c r="N50" s="561"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="573"/>
+      <c r="Q50" s="567"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -46934,11 +47219,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="538">
+      <c r="M53" s="568">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="539"/>
+      <c r="N53" s="569"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -47417,26 +47702,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="568" t="s">
+      <c r="H77" s="562" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="569"/>
+      <c r="I77" s="563"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="570">
+      <c r="K77" s="564">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="571"/>
+      <c r="L77" s="565"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="562" t="s">
+      <c r="D78" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="562"/>
+      <c r="E78" s="556"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -47445,22 +47730,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="563" t="s">
+      <c r="D79" s="557" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="563"/>
+      <c r="E79" s="557"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="564" t="s">
+      <c r="I79" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="565"/>
-      <c r="K79" s="566">
+      <c r="J79" s="559"/>
+      <c r="K79" s="560">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="566"/>
+      <c r="L79" s="560"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -47501,11 +47786,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="567">
+      <c r="K81" s="561">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="566"/>
+      <c r="L81" s="560"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -47522,22 +47807,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="555" t="s">
+      <c r="D83" s="549" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="556"/>
+      <c r="E83" s="550"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="589" t="s">
+      <c r="I83" s="594" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="590"/>
-      <c r="K83" s="591">
+      <c r="J83" s="595"/>
+      <c r="K83" s="596">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="591"/>
+      <c r="L83" s="596"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -47685,6 +47970,12 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47701,12 +47992,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
